--- a/Docs/Fiche autoévaluation comparative.xlsx
+++ b/Docs/Fiche autoévaluation comparative.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google Drive\Professionnel\CVM\Enseignement\2021_1_Hiver\C52\Projets\p1\_pour_etudiants\énoncé\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rayan\Documents\Coding\Python\KNN-Project\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{505FF71F-E8A2-4DAA-A268-0CD180800A83}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DB44F7B-B4A9-4439-87D7-6B753DE17EEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3394" yWindow="3394" windowWidth="24686" windowHeight="13149" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Évaluation" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="100">
   <si>
     <t>Étudiant 1</t>
   </si>
@@ -324,6 +324,18 @@
   </si>
   <si>
     <t>débrouillardise, initiative, amène des solutions pertinentes et de haut niveau, motivation d'équipe …</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Rayane Rachid Kennaf</t>
+  </si>
+  <si>
+    <t>Kevin Gbeti</t>
+  </si>
+  <si>
+    <t>Lemar Andar</t>
+  </si>
+  <si>
+    <t>Elyas Khaoua</t>
   </si>
 </sst>
 </file>
@@ -1412,6 +1424,14 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="39" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
       <protection hidden="1"/>
@@ -1512,14 +1532,6 @@
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="39" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
@@ -1546,7 +1558,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="Pourcentage" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="4">
     <dxf>
@@ -1623,7 +1635,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1925,20 +1937,20 @@
       <selection activeCell="G7" sqref="G7:K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" style="49" customWidth="1"/>
     <col min="2" max="2" width="7" style="49" customWidth="1"/>
     <col min="3" max="3" width="3" style="49" customWidth="1"/>
     <col min="4" max="4" width="12" style="49" customWidth="1"/>
-    <col min="5" max="5" width="18.84375" style="49" customWidth="1"/>
-    <col min="6" max="6" width="34.4609375" style="49" customWidth="1"/>
-    <col min="7" max="9" width="13.69140625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="6.69140625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="13.69140625" style="2" customWidth="1"/>
-    <col min="12" max="12" width="11.23046875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="12.3828125" style="3" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="11.23046875" style="2" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" style="49" customWidth="1"/>
+    <col min="6" max="6" width="34.42578125" style="49" customWidth="1"/>
+    <col min="7" max="9" width="13.7109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="6.7109375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="2" customWidth="1"/>
+    <col min="12" max="12" width="11.28515625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="12.42578125" style="3" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="11.28515625" style="2" hidden="1" customWidth="1"/>
     <col min="15" max="22" width="9" style="2" hidden="1" customWidth="1"/>
     <col min="23" max="23" width="10" style="2" hidden="1" customWidth="1"/>
     <col min="24" max="25" width="9" style="49" hidden="1" customWidth="1"/>
@@ -1946,129 +1958,129 @@
     <col min="28" max="16384" width="9" style="49"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="87" t="s">
+    <row r="2" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="89" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="87"/>
-      <c r="D3" s="107" t="s">
+    <row r="3" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="89"/>
+      <c r="D3" s="109" t="s">
         <v>53</v>
       </c>
-      <c r="E3" s="108"/>
-      <c r="F3" s="108"/>
-      <c r="G3" s="109">
-        <v>3</v>
-      </c>
-      <c r="H3" s="109"/>
-      <c r="I3" s="109"/>
-      <c r="J3" s="109"/>
-      <c r="K3" s="110"/>
-    </row>
-    <row r="4" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="87"/>
-    </row>
-    <row r="5" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B5" s="87"/>
-      <c r="D5" s="107" t="s">
+      <c r="E3" s="110"/>
+      <c r="F3" s="110"/>
+      <c r="G3" s="111">
+        <v>4</v>
+      </c>
+      <c r="H3" s="111"/>
+      <c r="I3" s="111"/>
+      <c r="J3" s="111"/>
+      <c r="K3" s="112"/>
+    </row>
+    <row r="4" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="89"/>
+    </row>
+    <row r="5" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="89"/>
+      <c r="D5" s="109" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="108"/>
-      <c r="F5" s="108"/>
-      <c r="G5" s="91">
-        <v>0.85</v>
-      </c>
-      <c r="H5" s="91"/>
-      <c r="I5" s="91"/>
-      <c r="J5" s="91"/>
-      <c r="K5" s="92"/>
-    </row>
-    <row r="6" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="87"/>
-      <c r="G6" s="93" t="s">
+      <c r="E5" s="110"/>
+      <c r="F5" s="110"/>
+      <c r="G5" s="93">
+        <v>0.6</v>
+      </c>
+      <c r="H5" s="93"/>
+      <c r="I5" s="93"/>
+      <c r="J5" s="93"/>
+      <c r="K5" s="94"/>
+    </row>
+    <row r="6" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="89"/>
+      <c r="G6" s="95" t="s">
         <v>34</v>
       </c>
-      <c r="H6" s="93"/>
-      <c r="I6" s="93"/>
-      <c r="J6" s="93"/>
-      <c r="K6" s="93"/>
-    </row>
-    <row r="7" spans="2:22" x14ac:dyDescent="0.4">
-      <c r="B7" s="87"/>
-      <c r="D7" s="105" t="s">
+      <c r="H6" s="95"/>
+      <c r="I6" s="95"/>
+      <c r="J6" s="95"/>
+      <c r="K6" s="95"/>
+    </row>
+    <row r="7" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B7" s="89"/>
+      <c r="D7" s="107" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="106"/>
-      <c r="F7" s="106"/>
-      <c r="G7" s="94">
+      <c r="E7" s="108"/>
+      <c r="F7" s="108"/>
+      <c r="G7" s="96">
         <v>0.5</v>
       </c>
-      <c r="H7" s="94"/>
-      <c r="I7" s="94"/>
-      <c r="J7" s="94"/>
-      <c r="K7" s="95"/>
-    </row>
-    <row r="8" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="87"/>
-      <c r="D8" s="103" t="s">
+      <c r="H7" s="96"/>
+      <c r="I7" s="96"/>
+      <c r="J7" s="96"/>
+      <c r="K7" s="97"/>
+    </row>
+    <row r="8" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="89"/>
+      <c r="D8" s="105" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="104"/>
-      <c r="F8" s="104"/>
-      <c r="G8" s="96">
+      <c r="E8" s="106"/>
+      <c r="F8" s="106"/>
+      <c r="G8" s="98">
         <f>1-G7</f>
         <v>0.5</v>
       </c>
-      <c r="H8" s="96"/>
-      <c r="I8" s="96"/>
-      <c r="J8" s="96"/>
-      <c r="K8" s="97"/>
+      <c r="H8" s="98"/>
+      <c r="I8" s="98"/>
+      <c r="J8" s="98"/>
+      <c r="K8" s="99"/>
       <c r="V8" s="4"/>
     </row>
-    <row r="9" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="87"/>
+    <row r="9" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="89"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
-      <c r="G9" s="98"/>
-      <c r="H9" s="98"/>
-      <c r="I9" s="98"/>
-      <c r="J9" s="98"/>
-      <c r="K9" s="98"/>
-    </row>
-    <row r="10" spans="2:22" x14ac:dyDescent="0.4">
-      <c r="B10" s="87"/>
-      <c r="D10" s="101" t="s">
+      <c r="G9" s="100"/>
+      <c r="H9" s="100"/>
+      <c r="I9" s="100"/>
+      <c r="J9" s="100"/>
+      <c r="K9" s="100"/>
+    </row>
+    <row r="10" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B10" s="89"/>
+      <c r="D10" s="103" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="102"/>
-      <c r="F10" s="102"/>
-      <c r="G10" s="89">
-        <v>0</v>
-      </c>
-      <c r="H10" s="89"/>
-      <c r="I10" s="89"/>
-      <c r="J10" s="89"/>
-      <c r="K10" s="90"/>
-    </row>
-    <row r="11" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="87"/>
-      <c r="D11" s="99" t="s">
+      <c r="E10" s="104"/>
+      <c r="F10" s="104"/>
+      <c r="G10" s="91">
+        <v>0</v>
+      </c>
+      <c r="H10" s="91"/>
+      <c r="I10" s="91"/>
+      <c r="J10" s="91"/>
+      <c r="K10" s="92"/>
+    </row>
+    <row r="11" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="89"/>
+      <c r="D11" s="101" t="s">
         <v>47</v>
       </c>
-      <c r="E11" s="100"/>
-      <c r="F11" s="100"/>
-      <c r="G11" s="113">
+      <c r="E11" s="102"/>
+      <c r="F11" s="102"/>
+      <c r="G11" s="87">
         <f ca="1">V44</f>
         <v>0</v>
       </c>
-      <c r="H11" s="113"/>
-      <c r="I11" s="113"/>
-      <c r="J11" s="113"/>
-      <c r="K11" s="114"/>
-    </row>
-    <row r="12" spans="2:22" x14ac:dyDescent="0.4">
-      <c r="B12" s="87"/>
+      <c r="H11" s="87"/>
+      <c r="I11" s="87"/>
+      <c r="J11" s="87"/>
+      <c r="K11" s="88"/>
+    </row>
+    <row r="12" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B12" s="89"/>
       <c r="D12" s="1"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -2076,18 +2088,18 @@
         <v>75</v>
       </c>
     </row>
-    <row r="13" spans="2:22" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:22" x14ac:dyDescent="0.25">
       <c r="D13" s="1"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="88" t="s">
+    <row r="14" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="90" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="2:22" ht="15" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="88"/>
+    <row r="15" spans="2:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="90"/>
       <c r="D15" s="21"/>
       <c r="E15" s="22"/>
       <c r="F15" s="22"/>
@@ -2100,13 +2112,13 @@
       <c r="I15" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="J15" s="111" t="s">
+      <c r="J15" s="113" t="s">
         <v>9</v>
       </c>
-      <c r="K15" s="112"/>
-    </row>
-    <row r="16" spans="2:22" x14ac:dyDescent="0.4">
-      <c r="B16" s="88"/>
+      <c r="K15" s="114"/>
+    </row>
+    <row r="16" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B16" s="90"/>
       <c r="D16" s="12"/>
       <c r="E16" s="13"/>
       <c r="F16" s="51" t="s">
@@ -2124,8 +2136,8 @@
       <c r="J16" s="62"/>
       <c r="K16" s="14"/>
     </row>
-    <row r="17" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B17" s="88"/>
+    <row r="17" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B17" s="90"/>
       <c r="D17" s="12"/>
       <c r="E17" s="13"/>
       <c r="F17" s="51" t="s">
@@ -2143,8 +2155,8 @@
       <c r="J17" s="9"/>
       <c r="K17" s="14"/>
     </row>
-    <row r="18" spans="2:27" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="88"/>
+    <row r="18" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="90"/>
       <c r="D18" s="12"/>
       <c r="E18" s="53" t="s">
         <v>51</v>
@@ -2158,24 +2170,28 @@
       <c r="J18" s="9"/>
       <c r="K18" s="14"/>
     </row>
-    <row r="19" spans="2:27" ht="15" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="88"/>
+    <row r="19" spans="2:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="90"/>
       <c r="C19" s="58">
         <v>1</v>
       </c>
       <c r="D19" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="E19" s="63"/>
-      <c r="F19" s="64"/>
+      <c r="E19" s="63">
+        <v>2052237</v>
+      </c>
+      <c r="F19" s="64" t="s">
+        <v>96</v>
+      </c>
       <c r="G19" s="28">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="H19" s="7">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="I19" s="29">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="J19" s="60" t="str">
         <f ca="1">IF(V19&gt;0,"- "&amp;TEXT(V19*100,"0.0")&amp;"%",IF(Z19&gt;0,"+ "&amp;TEXT(Z19*100,"0.0")&amp;"%",""))</f>
@@ -2183,44 +2199,44 @@
       </c>
       <c r="K19" s="16">
         <f ca="1">AA19</f>
-        <v>0.76924999999999999</v>
+        <v>0.78</v>
       </c>
       <c r="L19" s="34"/>
       <c r="M19" s="46">
         <f t="shared" ref="M19:M43" si="0">E19</f>
-        <v>0</v>
+        <v>2052237</v>
       </c>
       <c r="N19" s="50">
         <f t="array" ref="N19">SUM(G19:I19/$G$17:$I$17*$G$16:$I$16)</f>
-        <v>0.27</v>
+        <v>0.40000000000000008</v>
       </c>
       <c r="O19" s="50">
         <f>1/$M$49</f>
-        <v>0.33333333333333331</v>
+        <v>0.25</v>
       </c>
       <c r="P19" s="4">
         <f>N19/O19</f>
-        <v>0.81</v>
+        <v>1.6000000000000003</v>
       </c>
       <c r="Q19" s="4">
         <f>$G$5</f>
-        <v>0.85</v>
+        <v>0.6</v>
       </c>
       <c r="R19" s="4">
         <f>Q19*$G$7</f>
-        <v>0.42499999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="S19" s="4">
         <f>P19*Q19*$G$8</f>
-        <v>0.34425</v>
+        <v>0.48000000000000009</v>
       </c>
       <c r="T19" s="4">
         <f>SUM(R19:S19)</f>
-        <v>0.76924999999999999</v>
+        <v>0.78</v>
       </c>
       <c r="U19" s="4">
         <f>MIN(1,T19)</f>
-        <v>0.76924999999999999</v>
+        <v>0.78</v>
       </c>
       <c r="V19" s="4">
         <f>T19-U19</f>
@@ -2228,11 +2244,11 @@
       </c>
       <c r="W19" s="4">
         <f>1-U19</f>
-        <v>0.23075000000000001</v>
+        <v>0.21999999999999997</v>
       </c>
       <c r="X19" s="4">
         <f ca="1">W19/$W$44</f>
-        <v>0.51277777777777789</v>
+        <v>0.13749999999999998</v>
       </c>
       <c r="Y19" s="4">
         <f ca="1">X19*$V$44</f>
@@ -2244,11 +2260,11 @@
       </c>
       <c r="AA19" s="4">
         <f ca="1">U19+Z19</f>
-        <v>0.76924999999999999</v>
-      </c>
-    </row>
-    <row r="20" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B20" s="88"/>
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="20" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B20" s="90"/>
       <c r="C20" s="58">
         <v>2</v>
       </c>
@@ -2256,15 +2272,17 @@
         <v>1</v>
       </c>
       <c r="E20" s="65"/>
-      <c r="F20" s="66"/>
+      <c r="F20" s="66" t="s">
+        <v>97</v>
+      </c>
       <c r="G20" s="30">
-        <v>0.45</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="H20" s="8">
-        <v>0.4</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="I20" s="31">
-        <v>0.55000000000000004</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="J20" s="61" t="str">
         <f t="shared" ref="J20:J43" ca="1" si="1">IF(V20&gt;0,"- "&amp;TEXT(V20*100,"0.0")&amp;"%",IF(Z20&gt;0,"+ "&amp;TEXT(Z20*100,"0.0")&amp;"%",""))</f>
@@ -2272,7 +2290,7 @@
       </c>
       <c r="K20" s="18">
         <f t="shared" ref="K20:K43" ca="1" si="2">AA20</f>
-        <v>0.99875000000000003</v>
+        <v>0.63</v>
       </c>
       <c r="L20" s="34"/>
       <c r="M20" s="46">
@@ -2281,35 +2299,35 @@
       </c>
       <c r="N20" s="50">
         <f t="array" ref="N20">SUM(G20:I20/$G$17:$I$17*$G$16:$I$16)</f>
-        <v>0.45000000000000007</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="O20" s="50">
         <f>1/$M$49</f>
-        <v>0.33333333333333331</v>
+        <v>0.25</v>
       </c>
       <c r="P20" s="4">
         <f>N20/O20</f>
-        <v>1.3500000000000003</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="Q20" s="4">
         <f>$G$5</f>
-        <v>0.85</v>
+        <v>0.6</v>
       </c>
       <c r="R20" s="4">
         <f>Q20*$G$7</f>
-        <v>0.42499999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="S20" s="4">
         <f>P20*Q20*$G$8</f>
-        <v>0.57375000000000009</v>
+        <v>0.33</v>
       </c>
       <c r="T20" s="4">
         <f t="shared" ref="T20:T22" si="3">SUM(R20:S20)</f>
-        <v>0.99875000000000003</v>
+        <v>0.63</v>
       </c>
       <c r="U20" s="4">
         <f>MIN(1,T20)</f>
-        <v>0.99875000000000003</v>
+        <v>0.63</v>
       </c>
       <c r="V20" s="4">
         <f t="shared" ref="V20:V22" si="4">T20-U20</f>
@@ -2317,11 +2335,11 @@
       </c>
       <c r="W20" s="4">
         <f>1-U20</f>
-        <v>1.2499999999999734E-3</v>
+        <v>0.37</v>
       </c>
       <c r="X20" s="4">
         <f ca="1">W20/$W$44</f>
-        <v>2.7777777777777189E-3</v>
+        <v>0.23124999999999998</v>
       </c>
       <c r="Y20" s="4">
         <f ca="1">X20*$V$44</f>
@@ -2333,11 +2351,11 @@
       </c>
       <c r="AA20" s="4">
         <f ca="1">U20+Z20</f>
-        <v>0.99875000000000003</v>
-      </c>
-    </row>
-    <row r="21" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B21" s="88"/>
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="21" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B21" s="90"/>
       <c r="C21" s="58">
         <v>3</v>
       </c>
@@ -2345,15 +2363,17 @@
         <v>2</v>
       </c>
       <c r="E21" s="65"/>
-      <c r="F21" s="66"/>
+      <c r="F21" s="66" t="s">
+        <v>98</v>
+      </c>
       <c r="G21" s="30">
-        <v>0.3</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="H21" s="8">
-        <v>0.3</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="I21" s="31">
-        <v>0.2</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="J21" s="61" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -2361,7 +2381,7 @@
       </c>
       <c r="K21" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>0.78200000000000003</v>
+        <v>0.63</v>
       </c>
       <c r="L21" s="34"/>
       <c r="M21" s="46">
@@ -2370,35 +2390,35 @@
       </c>
       <c r="N21" s="50">
         <f t="array" ref="N21">SUM(G21:I21/$G$17:$I$17*$G$16:$I$16)</f>
-        <v>0.28000000000000003</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="O21" s="50">
         <f>1/$M$49</f>
-        <v>0.33333333333333331</v>
+        <v>0.25</v>
       </c>
       <c r="P21" s="4">
         <f>N21/O21</f>
-        <v>0.84000000000000008</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="Q21" s="4">
         <f>$G$5</f>
-        <v>0.85</v>
+        <v>0.6</v>
       </c>
       <c r="R21" s="4">
         <f>Q21*$G$7</f>
-        <v>0.42499999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="S21" s="4">
         <f>P21*Q21*$G$8</f>
-        <v>0.35700000000000004</v>
+        <v>0.33</v>
       </c>
       <c r="T21" s="4">
         <f t="shared" si="3"/>
-        <v>0.78200000000000003</v>
+        <v>0.63</v>
       </c>
       <c r="U21" s="4">
         <f>MIN(1,T21)</f>
-        <v>0.78200000000000003</v>
+        <v>0.63</v>
       </c>
       <c r="V21" s="4">
         <f t="shared" si="4"/>
@@ -2406,11 +2426,11 @@
       </c>
       <c r="W21" s="4">
         <f>1-U21</f>
-        <v>0.21799999999999997</v>
+        <v>0.37</v>
       </c>
       <c r="X21" s="4">
         <f ca="1">W21/$W$44</f>
-        <v>0.48444444444444446</v>
+        <v>0.23124999999999998</v>
       </c>
       <c r="Y21" s="4">
         <f ca="1">X21*$V$44</f>
@@ -2422,11 +2442,11 @@
       </c>
       <c r="AA21" s="4">
         <f ca="1">U21+Z21</f>
-        <v>0.78200000000000003</v>
-      </c>
-    </row>
-    <row r="22" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B22" s="88"/>
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="22" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B22" s="90"/>
       <c r="C22" s="58">
         <v>4</v>
       </c>
@@ -2434,17 +2454,25 @@
         <v>3</v>
       </c>
       <c r="E22" s="65"/>
-      <c r="F22" s="66"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="31"/>
+      <c r="F22" s="66" t="s">
+        <v>99</v>
+      </c>
+      <c r="G22" s="30">
+        <v>0.05</v>
+      </c>
+      <c r="H22" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="I22" s="31">
+        <v>0.05</v>
+      </c>
       <c r="J22" s="61" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="K22" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>0.42499999999999999</v>
+        <v>0.36</v>
       </c>
       <c r="L22" s="34"/>
       <c r="M22" s="46">
@@ -2453,35 +2481,35 @@
       </c>
       <c r="N22" s="50">
         <f t="array" ref="N22">SUM(G22:I22/$G$17:$I$17*$G$16:$I$16)</f>
-        <v>0</v>
+        <v>5.000000000000001E-2</v>
       </c>
       <c r="O22" s="50">
         <f>1/$M$49</f>
-        <v>0.33333333333333331</v>
+        <v>0.25</v>
       </c>
       <c r="P22" s="4">
         <f>N22/O22</f>
-        <v>0</v>
+        <v>0.20000000000000004</v>
       </c>
       <c r="Q22" s="4">
         <f>$G$5</f>
-        <v>0.85</v>
+        <v>0.6</v>
       </c>
       <c r="R22" s="4">
         <f>Q22*$G$7</f>
-        <v>0.42499999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="S22" s="4">
         <f>P22*Q22*$G$8</f>
-        <v>0</v>
+        <v>6.0000000000000012E-2</v>
       </c>
       <c r="T22" s="4">
         <f t="shared" si="3"/>
-        <v>0.42499999999999999</v>
+        <v>0.36</v>
       </c>
       <c r="U22" s="4">
         <f>MIN(1,T22)</f>
-        <v>0.42499999999999999</v>
+        <v>0.36</v>
       </c>
       <c r="V22" s="4">
         <f t="shared" si="4"/>
@@ -2489,11 +2517,11 @@
       </c>
       <c r="W22" s="4">
         <f>1-U22</f>
-        <v>0.57499999999999996</v>
+        <v>0.64</v>
       </c>
       <c r="X22" s="4">
         <f ca="1">W22/$W$44</f>
-        <v>1.2777777777777779</v>
+        <v>0.39999999999999997</v>
       </c>
       <c r="Y22" s="4">
         <f ca="1">X22*$V$44</f>
@@ -2505,11 +2533,11 @@
       </c>
       <c r="AA22" s="4">
         <f ca="1">U22+Z22</f>
-        <v>0.42499999999999999</v>
-      </c>
-    </row>
-    <row r="23" spans="2:27" s="67" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="88"/>
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="23" spans="2:27" s="67" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="90"/>
       <c r="C23" s="58">
         <v>5</v>
       </c>
@@ -2527,7 +2555,7 @@
       </c>
       <c r="K23" s="78">
         <f t="shared" ca="1" si="2"/>
-        <v>0.42499999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="L23" s="34"/>
       <c r="M23" s="46">
@@ -2540,7 +2568,7 @@
       </c>
       <c r="O23" s="68">
         <f t="shared" ref="O23:O43" si="6">1/$M$49</f>
-        <v>0.33333333333333331</v>
+        <v>0.25</v>
       </c>
       <c r="P23" s="4">
         <f t="shared" ref="P23:P43" si="7">N23/O23</f>
@@ -2548,11 +2576,11 @@
       </c>
       <c r="Q23" s="4">
         <f t="shared" ref="Q23:Q43" si="8">$G$5</f>
-        <v>0.85</v>
+        <v>0.6</v>
       </c>
       <c r="R23" s="4">
         <f t="shared" ref="R23:R43" si="9">Q23*$G$7</f>
-        <v>0.42499999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="S23" s="4">
         <f t="shared" ref="S23:S43" si="10">P23*Q23*$G$8</f>
@@ -2560,11 +2588,11 @@
       </c>
       <c r="T23" s="4">
         <f t="shared" ref="T23:T43" si="11">SUM(R23:S23)</f>
-        <v>0.42499999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="U23" s="4">
         <f t="shared" ref="U23:U43" si="12">MIN(1,T23)</f>
-        <v>0.42499999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="V23" s="4">
         <f t="shared" ref="V23:V43" si="13">T23-U23</f>
@@ -2572,11 +2600,11 @@
       </c>
       <c r="W23" s="4">
         <f t="shared" ref="W23:W43" si="14">1-U23</f>
-        <v>0.57499999999999996</v>
+        <v>0.7</v>
       </c>
       <c r="X23" s="4">
         <f t="shared" ref="X23:X43" ca="1" si="15">W23/$W$44</f>
-        <v>1.2777777777777779</v>
+        <v>0.43749999999999994</v>
       </c>
       <c r="Y23" s="4">
         <f t="shared" ref="Y23:Y43" ca="1" si="16">X23*$V$44</f>
@@ -2588,11 +2616,11 @@
       </c>
       <c r="AA23" s="4">
         <f t="shared" ref="AA23:AA43" ca="1" si="18">U23+Z23</f>
-        <v>0.42499999999999999</v>
-      </c>
-    </row>
-    <row r="24" spans="2:27" s="67" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="88"/>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:27" s="67" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="90"/>
       <c r="C24" s="58">
         <v>6</v>
       </c>
@@ -2610,7 +2638,7 @@
       </c>
       <c r="K24" s="78">
         <f t="shared" ca="1" si="2"/>
-        <v>0.42499999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="L24" s="34"/>
       <c r="M24" s="46">
@@ -2623,7 +2651,7 @@
       </c>
       <c r="O24" s="68">
         <f t="shared" si="6"/>
-        <v>0.33333333333333331</v>
+        <v>0.25</v>
       </c>
       <c r="P24" s="4">
         <f t="shared" si="7"/>
@@ -2631,11 +2659,11 @@
       </c>
       <c r="Q24" s="4">
         <f t="shared" si="8"/>
-        <v>0.85</v>
+        <v>0.6</v>
       </c>
       <c r="R24" s="4">
         <f t="shared" si="9"/>
-        <v>0.42499999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="S24" s="4">
         <f t="shared" si="10"/>
@@ -2643,11 +2671,11 @@
       </c>
       <c r="T24" s="4">
         <f t="shared" si="11"/>
-        <v>0.42499999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="U24" s="4">
         <f t="shared" si="12"/>
-        <v>0.42499999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="V24" s="4">
         <f t="shared" si="13"/>
@@ -2655,11 +2683,11 @@
       </c>
       <c r="W24" s="4">
         <f t="shared" si="14"/>
-        <v>0.57499999999999996</v>
+        <v>0.7</v>
       </c>
       <c r="X24" s="4">
         <f t="shared" ca="1" si="15"/>
-        <v>1.2777777777777779</v>
+        <v>0.43749999999999994</v>
       </c>
       <c r="Y24" s="4">
         <f t="shared" ca="1" si="16"/>
@@ -2671,11 +2699,11 @@
       </c>
       <c r="AA24" s="4">
         <f t="shared" ca="1" si="18"/>
-        <v>0.42499999999999999</v>
-      </c>
-    </row>
-    <row r="25" spans="2:27" s="67" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="88"/>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="25" spans="2:27" s="67" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="90"/>
       <c r="C25" s="58">
         <v>7</v>
       </c>
@@ -2693,7 +2721,7 @@
       </c>
       <c r="K25" s="78">
         <f t="shared" ca="1" si="2"/>
-        <v>0.42499999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="L25" s="34"/>
       <c r="M25" s="46">
@@ -2706,7 +2734,7 @@
       </c>
       <c r="O25" s="68">
         <f t="shared" si="6"/>
-        <v>0.33333333333333331</v>
+        <v>0.25</v>
       </c>
       <c r="P25" s="4">
         <f t="shared" si="7"/>
@@ -2714,11 +2742,11 @@
       </c>
       <c r="Q25" s="4">
         <f t="shared" si="8"/>
-        <v>0.85</v>
+        <v>0.6</v>
       </c>
       <c r="R25" s="4">
         <f t="shared" si="9"/>
-        <v>0.42499999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="S25" s="4">
         <f t="shared" si="10"/>
@@ -2726,11 +2754,11 @@
       </c>
       <c r="T25" s="4">
         <f t="shared" si="11"/>
-        <v>0.42499999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="U25" s="4">
         <f t="shared" si="12"/>
-        <v>0.42499999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="V25" s="4">
         <f t="shared" si="13"/>
@@ -2738,11 +2766,11 @@
       </c>
       <c r="W25" s="4">
         <f t="shared" si="14"/>
-        <v>0.57499999999999996</v>
+        <v>0.7</v>
       </c>
       <c r="X25" s="4">
         <f t="shared" ca="1" si="15"/>
-        <v>1.2777777777777779</v>
+        <v>0.43749999999999994</v>
       </c>
       <c r="Y25" s="4">
         <f t="shared" ca="1" si="16"/>
@@ -2754,11 +2782,11 @@
       </c>
       <c r="AA25" s="4">
         <f t="shared" ca="1" si="18"/>
-        <v>0.42499999999999999</v>
-      </c>
-    </row>
-    <row r="26" spans="2:27" s="67" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="88"/>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="26" spans="2:27" s="67" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="90"/>
       <c r="C26" s="58">
         <v>8</v>
       </c>
@@ -2776,7 +2804,7 @@
       </c>
       <c r="K26" s="78">
         <f t="shared" ca="1" si="2"/>
-        <v>0.42499999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="L26" s="34"/>
       <c r="M26" s="46">
@@ -2789,7 +2817,7 @@
       </c>
       <c r="O26" s="68">
         <f t="shared" si="6"/>
-        <v>0.33333333333333331</v>
+        <v>0.25</v>
       </c>
       <c r="P26" s="4">
         <f t="shared" si="7"/>
@@ -2797,11 +2825,11 @@
       </c>
       <c r="Q26" s="4">
         <f t="shared" si="8"/>
-        <v>0.85</v>
+        <v>0.6</v>
       </c>
       <c r="R26" s="4">
         <f t="shared" si="9"/>
-        <v>0.42499999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="S26" s="4">
         <f t="shared" si="10"/>
@@ -2809,11 +2837,11 @@
       </c>
       <c r="T26" s="4">
         <f t="shared" si="11"/>
-        <v>0.42499999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="U26" s="4">
         <f t="shared" si="12"/>
-        <v>0.42499999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="V26" s="4">
         <f t="shared" si="13"/>
@@ -2821,11 +2849,11 @@
       </c>
       <c r="W26" s="4">
         <f t="shared" si="14"/>
-        <v>0.57499999999999996</v>
+        <v>0.7</v>
       </c>
       <c r="X26" s="4">
         <f t="shared" ca="1" si="15"/>
-        <v>1.2777777777777779</v>
+        <v>0.43749999999999994</v>
       </c>
       <c r="Y26" s="4">
         <f t="shared" ca="1" si="16"/>
@@ -2837,11 +2865,11 @@
       </c>
       <c r="AA26" s="4">
         <f t="shared" ca="1" si="18"/>
-        <v>0.42499999999999999</v>
-      </c>
-    </row>
-    <row r="27" spans="2:27" s="67" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B27" s="88"/>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="27" spans="2:27" s="67" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="90"/>
       <c r="C27" s="58">
         <v>9</v>
       </c>
@@ -2859,7 +2887,7 @@
       </c>
       <c r="K27" s="78">
         <f t="shared" ca="1" si="2"/>
-        <v>0.42499999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="L27" s="34"/>
       <c r="M27" s="46">
@@ -2872,7 +2900,7 @@
       </c>
       <c r="O27" s="68">
         <f t="shared" si="6"/>
-        <v>0.33333333333333331</v>
+        <v>0.25</v>
       </c>
       <c r="P27" s="4">
         <f t="shared" si="7"/>
@@ -2880,11 +2908,11 @@
       </c>
       <c r="Q27" s="4">
         <f t="shared" si="8"/>
-        <v>0.85</v>
+        <v>0.6</v>
       </c>
       <c r="R27" s="4">
         <f t="shared" si="9"/>
-        <v>0.42499999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="S27" s="4">
         <f t="shared" si="10"/>
@@ -2892,11 +2920,11 @@
       </c>
       <c r="T27" s="4">
         <f t="shared" si="11"/>
-        <v>0.42499999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="U27" s="4">
         <f t="shared" si="12"/>
-        <v>0.42499999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="V27" s="4">
         <f t="shared" si="13"/>
@@ -2904,11 +2932,11 @@
       </c>
       <c r="W27" s="4">
         <f t="shared" si="14"/>
-        <v>0.57499999999999996</v>
+        <v>0.7</v>
       </c>
       <c r="X27" s="4">
         <f t="shared" ca="1" si="15"/>
-        <v>1.2777777777777779</v>
+        <v>0.43749999999999994</v>
       </c>
       <c r="Y27" s="4">
         <f t="shared" ca="1" si="16"/>
@@ -2920,11 +2948,11 @@
       </c>
       <c r="AA27" s="4">
         <f t="shared" ca="1" si="18"/>
-        <v>0.42499999999999999</v>
-      </c>
-    </row>
-    <row r="28" spans="2:27" s="67" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B28" s="88"/>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="28" spans="2:27" s="67" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="90"/>
       <c r="C28" s="58">
         <v>10</v>
       </c>
@@ -2942,7 +2970,7 @@
       </c>
       <c r="K28" s="78">
         <f t="shared" ca="1" si="2"/>
-        <v>0.42499999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="L28" s="34"/>
       <c r="M28" s="46">
@@ -2955,7 +2983,7 @@
       </c>
       <c r="O28" s="68">
         <f t="shared" si="6"/>
-        <v>0.33333333333333331</v>
+        <v>0.25</v>
       </c>
       <c r="P28" s="4">
         <f t="shared" si="7"/>
@@ -2963,11 +2991,11 @@
       </c>
       <c r="Q28" s="4">
         <f t="shared" si="8"/>
-        <v>0.85</v>
+        <v>0.6</v>
       </c>
       <c r="R28" s="4">
         <f t="shared" si="9"/>
-        <v>0.42499999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="S28" s="4">
         <f t="shared" si="10"/>
@@ -2975,11 +3003,11 @@
       </c>
       <c r="T28" s="4">
         <f t="shared" si="11"/>
-        <v>0.42499999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="U28" s="4">
         <f t="shared" si="12"/>
-        <v>0.42499999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="V28" s="4">
         <f t="shared" si="13"/>
@@ -2987,11 +3015,11 @@
       </c>
       <c r="W28" s="4">
         <f t="shared" si="14"/>
-        <v>0.57499999999999996</v>
+        <v>0.7</v>
       </c>
       <c r="X28" s="4">
         <f t="shared" ca="1" si="15"/>
-        <v>1.2777777777777779</v>
+        <v>0.43749999999999994</v>
       </c>
       <c r="Y28" s="4">
         <f t="shared" ca="1" si="16"/>
@@ -3003,11 +3031,11 @@
       </c>
       <c r="AA28" s="4">
         <f t="shared" ca="1" si="18"/>
-        <v>0.42499999999999999</v>
-      </c>
-    </row>
-    <row r="29" spans="2:27" s="67" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="88"/>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="29" spans="2:27" s="67" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="90"/>
       <c r="C29" s="58">
         <v>11</v>
       </c>
@@ -3025,7 +3053,7 @@
       </c>
       <c r="K29" s="78">
         <f t="shared" ca="1" si="2"/>
-        <v>0.42499999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="L29" s="34"/>
       <c r="M29" s="46">
@@ -3038,7 +3066,7 @@
       </c>
       <c r="O29" s="68">
         <f t="shared" si="6"/>
-        <v>0.33333333333333331</v>
+        <v>0.25</v>
       </c>
       <c r="P29" s="4">
         <f t="shared" si="7"/>
@@ -3046,11 +3074,11 @@
       </c>
       <c r="Q29" s="4">
         <f t="shared" si="8"/>
-        <v>0.85</v>
+        <v>0.6</v>
       </c>
       <c r="R29" s="4">
         <f t="shared" si="9"/>
-        <v>0.42499999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="S29" s="4">
         <f t="shared" si="10"/>
@@ -3058,11 +3086,11 @@
       </c>
       <c r="T29" s="4">
         <f t="shared" si="11"/>
-        <v>0.42499999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="U29" s="4">
         <f t="shared" si="12"/>
-        <v>0.42499999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="V29" s="4">
         <f t="shared" si="13"/>
@@ -3070,11 +3098,11 @@
       </c>
       <c r="W29" s="4">
         <f t="shared" si="14"/>
-        <v>0.57499999999999996</v>
+        <v>0.7</v>
       </c>
       <c r="X29" s="4">
         <f t="shared" ca="1" si="15"/>
-        <v>1.2777777777777779</v>
+        <v>0.43749999999999994</v>
       </c>
       <c r="Y29" s="4">
         <f t="shared" ca="1" si="16"/>
@@ -3086,11 +3114,11 @@
       </c>
       <c r="AA29" s="4">
         <f t="shared" ca="1" si="18"/>
-        <v>0.42499999999999999</v>
-      </c>
-    </row>
-    <row r="30" spans="2:27" s="67" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B30" s="88"/>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="30" spans="2:27" s="67" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="90"/>
       <c r="C30" s="58">
         <v>12</v>
       </c>
@@ -3108,7 +3136,7 @@
       </c>
       <c r="K30" s="78">
         <f t="shared" ca="1" si="2"/>
-        <v>0.42499999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="L30" s="34"/>
       <c r="M30" s="46">
@@ -3121,7 +3149,7 @@
       </c>
       <c r="O30" s="68">
         <f t="shared" si="6"/>
-        <v>0.33333333333333331</v>
+        <v>0.25</v>
       </c>
       <c r="P30" s="4">
         <f t="shared" si="7"/>
@@ -3129,11 +3157,11 @@
       </c>
       <c r="Q30" s="4">
         <f t="shared" si="8"/>
-        <v>0.85</v>
+        <v>0.6</v>
       </c>
       <c r="R30" s="4">
         <f t="shared" si="9"/>
-        <v>0.42499999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="S30" s="4">
         <f t="shared" si="10"/>
@@ -3141,11 +3169,11 @@
       </c>
       <c r="T30" s="4">
         <f t="shared" si="11"/>
-        <v>0.42499999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="U30" s="4">
         <f t="shared" si="12"/>
-        <v>0.42499999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="V30" s="4">
         <f t="shared" si="13"/>
@@ -3153,11 +3181,11 @@
       </c>
       <c r="W30" s="4">
         <f t="shared" si="14"/>
-        <v>0.57499999999999996</v>
+        <v>0.7</v>
       </c>
       <c r="X30" s="4">
         <f t="shared" ca="1" si="15"/>
-        <v>1.2777777777777779</v>
+        <v>0.43749999999999994</v>
       </c>
       <c r="Y30" s="4">
         <f t="shared" ca="1" si="16"/>
@@ -3169,11 +3197,11 @@
       </c>
       <c r="AA30" s="4">
         <f t="shared" ca="1" si="18"/>
-        <v>0.42499999999999999</v>
-      </c>
-    </row>
-    <row r="31" spans="2:27" s="67" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B31" s="88"/>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="31" spans="2:27" s="67" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="90"/>
       <c r="C31" s="58">
         <v>13</v>
       </c>
@@ -3191,7 +3219,7 @@
       </c>
       <c r="K31" s="78">
         <f t="shared" ca="1" si="2"/>
-        <v>0.42499999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="L31" s="34"/>
       <c r="M31" s="46">
@@ -3204,7 +3232,7 @@
       </c>
       <c r="O31" s="68">
         <f t="shared" si="6"/>
-        <v>0.33333333333333331</v>
+        <v>0.25</v>
       </c>
       <c r="P31" s="4">
         <f t="shared" si="7"/>
@@ -3212,11 +3240,11 @@
       </c>
       <c r="Q31" s="4">
         <f t="shared" si="8"/>
-        <v>0.85</v>
+        <v>0.6</v>
       </c>
       <c r="R31" s="4">
         <f t="shared" si="9"/>
-        <v>0.42499999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="S31" s="4">
         <f t="shared" si="10"/>
@@ -3224,11 +3252,11 @@
       </c>
       <c r="T31" s="4">
         <f t="shared" si="11"/>
-        <v>0.42499999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="U31" s="4">
         <f t="shared" si="12"/>
-        <v>0.42499999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="V31" s="4">
         <f t="shared" si="13"/>
@@ -3236,11 +3264,11 @@
       </c>
       <c r="W31" s="4">
         <f t="shared" si="14"/>
-        <v>0.57499999999999996</v>
+        <v>0.7</v>
       </c>
       <c r="X31" s="4">
         <f t="shared" ca="1" si="15"/>
-        <v>1.2777777777777779</v>
+        <v>0.43749999999999994</v>
       </c>
       <c r="Y31" s="4">
         <f t="shared" ca="1" si="16"/>
@@ -3252,11 +3280,11 @@
       </c>
       <c r="AA31" s="4">
         <f t="shared" ca="1" si="18"/>
-        <v>0.42499999999999999</v>
-      </c>
-    </row>
-    <row r="32" spans="2:27" s="67" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B32" s="88"/>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="32" spans="2:27" s="67" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="90"/>
       <c r="C32" s="58">
         <v>14</v>
       </c>
@@ -3274,7 +3302,7 @@
       </c>
       <c r="K32" s="78">
         <f t="shared" ca="1" si="2"/>
-        <v>0.42499999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="L32" s="34"/>
       <c r="M32" s="46">
@@ -3287,7 +3315,7 @@
       </c>
       <c r="O32" s="68">
         <f t="shared" si="6"/>
-        <v>0.33333333333333331</v>
+        <v>0.25</v>
       </c>
       <c r="P32" s="4">
         <f t="shared" si="7"/>
@@ -3295,11 +3323,11 @@
       </c>
       <c r="Q32" s="4">
         <f t="shared" si="8"/>
-        <v>0.85</v>
+        <v>0.6</v>
       </c>
       <c r="R32" s="4">
         <f t="shared" si="9"/>
-        <v>0.42499999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="S32" s="4">
         <f t="shared" si="10"/>
@@ -3307,11 +3335,11 @@
       </c>
       <c r="T32" s="4">
         <f t="shared" si="11"/>
-        <v>0.42499999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="U32" s="4">
         <f t="shared" si="12"/>
-        <v>0.42499999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="V32" s="4">
         <f t="shared" si="13"/>
@@ -3319,11 +3347,11 @@
       </c>
       <c r="W32" s="4">
         <f t="shared" si="14"/>
-        <v>0.57499999999999996</v>
+        <v>0.7</v>
       </c>
       <c r="X32" s="4">
         <f t="shared" ca="1" si="15"/>
-        <v>1.2777777777777779</v>
+        <v>0.43749999999999994</v>
       </c>
       <c r="Y32" s="4">
         <f t="shared" ca="1" si="16"/>
@@ -3335,11 +3363,11 @@
       </c>
       <c r="AA32" s="4">
         <f t="shared" ca="1" si="18"/>
-        <v>0.42499999999999999</v>
-      </c>
-    </row>
-    <row r="33" spans="2:27" s="67" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B33" s="88"/>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" s="67" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="90"/>
       <c r="C33" s="58">
         <v>15</v>
       </c>
@@ -3357,7 +3385,7 @@
       </c>
       <c r="K33" s="78">
         <f t="shared" ca="1" si="2"/>
-        <v>0.42499999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="L33" s="34"/>
       <c r="M33" s="46">
@@ -3370,7 +3398,7 @@
       </c>
       <c r="O33" s="68">
         <f t="shared" si="6"/>
-        <v>0.33333333333333331</v>
+        <v>0.25</v>
       </c>
       <c r="P33" s="4">
         <f t="shared" si="7"/>
@@ -3378,11 +3406,11 @@
       </c>
       <c r="Q33" s="4">
         <f t="shared" si="8"/>
-        <v>0.85</v>
+        <v>0.6</v>
       </c>
       <c r="R33" s="4">
         <f t="shared" si="9"/>
-        <v>0.42499999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="S33" s="4">
         <f t="shared" si="10"/>
@@ -3390,11 +3418,11 @@
       </c>
       <c r="T33" s="4">
         <f t="shared" si="11"/>
-        <v>0.42499999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="U33" s="4">
         <f t="shared" si="12"/>
-        <v>0.42499999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="V33" s="4">
         <f t="shared" si="13"/>
@@ -3402,11 +3430,11 @@
       </c>
       <c r="W33" s="4">
         <f t="shared" si="14"/>
-        <v>0.57499999999999996</v>
+        <v>0.7</v>
       </c>
       <c r="X33" s="4">
         <f t="shared" ca="1" si="15"/>
-        <v>1.2777777777777779</v>
+        <v>0.43749999999999994</v>
       </c>
       <c r="Y33" s="4">
         <f t="shared" ca="1" si="16"/>
@@ -3418,11 +3446,11 @@
       </c>
       <c r="AA33" s="4">
         <f t="shared" ca="1" si="18"/>
-        <v>0.42499999999999999</v>
-      </c>
-    </row>
-    <row r="34" spans="2:27" s="67" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B34" s="88"/>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:27" s="67" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="90"/>
       <c r="C34" s="58">
         <v>16</v>
       </c>
@@ -3440,7 +3468,7 @@
       </c>
       <c r="K34" s="78">
         <f t="shared" ca="1" si="2"/>
-        <v>0.42499999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="L34" s="34"/>
       <c r="M34" s="46">
@@ -3453,7 +3481,7 @@
       </c>
       <c r="O34" s="68">
         <f t="shared" si="6"/>
-        <v>0.33333333333333331</v>
+        <v>0.25</v>
       </c>
       <c r="P34" s="4">
         <f t="shared" si="7"/>
@@ -3461,11 +3489,11 @@
       </c>
       <c r="Q34" s="4">
         <f t="shared" si="8"/>
-        <v>0.85</v>
+        <v>0.6</v>
       </c>
       <c r="R34" s="4">
         <f t="shared" si="9"/>
-        <v>0.42499999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="S34" s="4">
         <f t="shared" si="10"/>
@@ -3473,11 +3501,11 @@
       </c>
       <c r="T34" s="4">
         <f t="shared" si="11"/>
-        <v>0.42499999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="U34" s="4">
         <f t="shared" si="12"/>
-        <v>0.42499999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="V34" s="4">
         <f t="shared" si="13"/>
@@ -3485,11 +3513,11 @@
       </c>
       <c r="W34" s="4">
         <f t="shared" si="14"/>
-        <v>0.57499999999999996</v>
+        <v>0.7</v>
       </c>
       <c r="X34" s="4">
         <f t="shared" ca="1" si="15"/>
-        <v>1.2777777777777779</v>
+        <v>0.43749999999999994</v>
       </c>
       <c r="Y34" s="4">
         <f t="shared" ca="1" si="16"/>
@@ -3501,11 +3529,11 @@
       </c>
       <c r="AA34" s="4">
         <f t="shared" ca="1" si="18"/>
-        <v>0.42499999999999999</v>
-      </c>
-    </row>
-    <row r="35" spans="2:27" s="67" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B35" s="88"/>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" s="67" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="90"/>
       <c r="C35" s="58">
         <v>17</v>
       </c>
@@ -3523,7 +3551,7 @@
       </c>
       <c r="K35" s="78">
         <f t="shared" ca="1" si="2"/>
-        <v>0.42499999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="L35" s="34"/>
       <c r="M35" s="46">
@@ -3536,7 +3564,7 @@
       </c>
       <c r="O35" s="68">
         <f t="shared" si="6"/>
-        <v>0.33333333333333331</v>
+        <v>0.25</v>
       </c>
       <c r="P35" s="4">
         <f t="shared" si="7"/>
@@ -3544,11 +3572,11 @@
       </c>
       <c r="Q35" s="4">
         <f t="shared" si="8"/>
-        <v>0.85</v>
+        <v>0.6</v>
       </c>
       <c r="R35" s="4">
         <f t="shared" si="9"/>
-        <v>0.42499999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="S35" s="4">
         <f t="shared" si="10"/>
@@ -3556,11 +3584,11 @@
       </c>
       <c r="T35" s="4">
         <f t="shared" si="11"/>
-        <v>0.42499999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="U35" s="4">
         <f t="shared" si="12"/>
-        <v>0.42499999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="V35" s="4">
         <f t="shared" si="13"/>
@@ -3568,11 +3596,11 @@
       </c>
       <c r="W35" s="4">
         <f t="shared" si="14"/>
-        <v>0.57499999999999996</v>
+        <v>0.7</v>
       </c>
       <c r="X35" s="4">
         <f t="shared" ca="1" si="15"/>
-        <v>1.2777777777777779</v>
+        <v>0.43749999999999994</v>
       </c>
       <c r="Y35" s="4">
         <f t="shared" ca="1" si="16"/>
@@ -3584,11 +3612,11 @@
       </c>
       <c r="AA35" s="4">
         <f t="shared" ca="1" si="18"/>
-        <v>0.42499999999999999</v>
-      </c>
-    </row>
-    <row r="36" spans="2:27" s="67" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B36" s="88"/>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="36" spans="2:27" s="67" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="90"/>
       <c r="C36" s="58">
         <v>18</v>
       </c>
@@ -3606,7 +3634,7 @@
       </c>
       <c r="K36" s="78">
         <f t="shared" ca="1" si="2"/>
-        <v>0.42499999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="L36" s="34"/>
       <c r="M36" s="46">
@@ -3619,7 +3647,7 @@
       </c>
       <c r="O36" s="68">
         <f t="shared" si="6"/>
-        <v>0.33333333333333331</v>
+        <v>0.25</v>
       </c>
       <c r="P36" s="4">
         <f t="shared" si="7"/>
@@ -3627,11 +3655,11 @@
       </c>
       <c r="Q36" s="4">
         <f t="shared" si="8"/>
-        <v>0.85</v>
+        <v>0.6</v>
       </c>
       <c r="R36" s="4">
         <f t="shared" si="9"/>
-        <v>0.42499999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="S36" s="4">
         <f t="shared" si="10"/>
@@ -3639,11 +3667,11 @@
       </c>
       <c r="T36" s="4">
         <f t="shared" si="11"/>
-        <v>0.42499999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="U36" s="4">
         <f t="shared" si="12"/>
-        <v>0.42499999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="V36" s="4">
         <f t="shared" si="13"/>
@@ -3651,11 +3679,11 @@
       </c>
       <c r="W36" s="4">
         <f t="shared" si="14"/>
-        <v>0.57499999999999996</v>
+        <v>0.7</v>
       </c>
       <c r="X36" s="4">
         <f t="shared" ca="1" si="15"/>
-        <v>1.2777777777777779</v>
+        <v>0.43749999999999994</v>
       </c>
       <c r="Y36" s="4">
         <f t="shared" ca="1" si="16"/>
@@ -3667,11 +3695,11 @@
       </c>
       <c r="AA36" s="4">
         <f t="shared" ca="1" si="18"/>
-        <v>0.42499999999999999</v>
-      </c>
-    </row>
-    <row r="37" spans="2:27" s="67" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B37" s="88"/>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:27" s="67" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="90"/>
       <c r="C37" s="58">
         <v>19</v>
       </c>
@@ -3689,7 +3717,7 @@
       </c>
       <c r="K37" s="78">
         <f t="shared" ca="1" si="2"/>
-        <v>0.42499999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="L37" s="34"/>
       <c r="M37" s="46">
@@ -3702,7 +3730,7 @@
       </c>
       <c r="O37" s="68">
         <f t="shared" si="6"/>
-        <v>0.33333333333333331</v>
+        <v>0.25</v>
       </c>
       <c r="P37" s="4">
         <f t="shared" si="7"/>
@@ -3710,11 +3738,11 @@
       </c>
       <c r="Q37" s="4">
         <f t="shared" si="8"/>
-        <v>0.85</v>
+        <v>0.6</v>
       </c>
       <c r="R37" s="4">
         <f t="shared" si="9"/>
-        <v>0.42499999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="S37" s="4">
         <f t="shared" si="10"/>
@@ -3722,11 +3750,11 @@
       </c>
       <c r="T37" s="4">
         <f t="shared" si="11"/>
-        <v>0.42499999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="U37" s="4">
         <f t="shared" si="12"/>
-        <v>0.42499999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="V37" s="4">
         <f t="shared" si="13"/>
@@ -3734,11 +3762,11 @@
       </c>
       <c r="W37" s="4">
         <f t="shared" si="14"/>
-        <v>0.57499999999999996</v>
+        <v>0.7</v>
       </c>
       <c r="X37" s="4">
         <f t="shared" ca="1" si="15"/>
-        <v>1.2777777777777779</v>
+        <v>0.43749999999999994</v>
       </c>
       <c r="Y37" s="4">
         <f t="shared" ca="1" si="16"/>
@@ -3750,11 +3778,11 @@
       </c>
       <c r="AA37" s="4">
         <f t="shared" ca="1" si="18"/>
-        <v>0.42499999999999999</v>
-      </c>
-    </row>
-    <row r="38" spans="2:27" s="67" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B38" s="88"/>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="38" spans="2:27" s="67" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="90"/>
       <c r="C38" s="58">
         <v>20</v>
       </c>
@@ -3772,7 +3800,7 @@
       </c>
       <c r="K38" s="78">
         <f t="shared" ca="1" si="2"/>
-        <v>0.42499999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="L38" s="34"/>
       <c r="M38" s="46">
@@ -3785,7 +3813,7 @@
       </c>
       <c r="O38" s="68">
         <f t="shared" si="6"/>
-        <v>0.33333333333333331</v>
+        <v>0.25</v>
       </c>
       <c r="P38" s="4">
         <f t="shared" si="7"/>
@@ -3793,11 +3821,11 @@
       </c>
       <c r="Q38" s="4">
         <f t="shared" si="8"/>
-        <v>0.85</v>
+        <v>0.6</v>
       </c>
       <c r="R38" s="4">
         <f t="shared" si="9"/>
-        <v>0.42499999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="S38" s="4">
         <f t="shared" si="10"/>
@@ -3805,11 +3833,11 @@
       </c>
       <c r="T38" s="4">
         <f t="shared" si="11"/>
-        <v>0.42499999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="U38" s="4">
         <f t="shared" si="12"/>
-        <v>0.42499999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="V38" s="4">
         <f t="shared" si="13"/>
@@ -3817,11 +3845,11 @@
       </c>
       <c r="W38" s="4">
         <f t="shared" si="14"/>
-        <v>0.57499999999999996</v>
+        <v>0.7</v>
       </c>
       <c r="X38" s="4">
         <f t="shared" ca="1" si="15"/>
-        <v>1.2777777777777779</v>
+        <v>0.43749999999999994</v>
       </c>
       <c r="Y38" s="4">
         <f t="shared" ca="1" si="16"/>
@@ -3833,11 +3861,11 @@
       </c>
       <c r="AA38" s="4">
         <f t="shared" ca="1" si="18"/>
-        <v>0.42499999999999999</v>
-      </c>
-    </row>
-    <row r="39" spans="2:27" s="67" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B39" s="88"/>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:27" s="67" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="90"/>
       <c r="C39" s="58">
         <v>21</v>
       </c>
@@ -3855,7 +3883,7 @@
       </c>
       <c r="K39" s="78">
         <f t="shared" ca="1" si="2"/>
-        <v>0.42499999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="L39" s="34"/>
       <c r="M39" s="46">
@@ -3868,7 +3896,7 @@
       </c>
       <c r="O39" s="68">
         <f t="shared" si="6"/>
-        <v>0.33333333333333331</v>
+        <v>0.25</v>
       </c>
       <c r="P39" s="4">
         <f t="shared" si="7"/>
@@ -3876,11 +3904,11 @@
       </c>
       <c r="Q39" s="4">
         <f t="shared" si="8"/>
-        <v>0.85</v>
+        <v>0.6</v>
       </c>
       <c r="R39" s="4">
         <f t="shared" si="9"/>
-        <v>0.42499999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="S39" s="4">
         <f t="shared" si="10"/>
@@ -3888,11 +3916,11 @@
       </c>
       <c r="T39" s="4">
         <f t="shared" si="11"/>
-        <v>0.42499999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="U39" s="4">
         <f t="shared" si="12"/>
-        <v>0.42499999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="V39" s="4">
         <f t="shared" si="13"/>
@@ -3900,11 +3928,11 @@
       </c>
       <c r="W39" s="4">
         <f t="shared" si="14"/>
-        <v>0.57499999999999996</v>
+        <v>0.7</v>
       </c>
       <c r="X39" s="4">
         <f t="shared" ca="1" si="15"/>
-        <v>1.2777777777777779</v>
+        <v>0.43749999999999994</v>
       </c>
       <c r="Y39" s="4">
         <f t="shared" ca="1" si="16"/>
@@ -3916,11 +3944,11 @@
       </c>
       <c r="AA39" s="4">
         <f t="shared" ca="1" si="18"/>
-        <v>0.42499999999999999</v>
-      </c>
-    </row>
-    <row r="40" spans="2:27" s="67" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B40" s="88"/>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="40" spans="2:27" s="67" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="90"/>
       <c r="C40" s="58">
         <v>22</v>
       </c>
@@ -3938,7 +3966,7 @@
       </c>
       <c r="K40" s="78">
         <f t="shared" ca="1" si="2"/>
-        <v>0.42499999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="L40" s="34"/>
       <c r="M40" s="46">
@@ -3951,7 +3979,7 @@
       </c>
       <c r="O40" s="68">
         <f t="shared" si="6"/>
-        <v>0.33333333333333331</v>
+        <v>0.25</v>
       </c>
       <c r="P40" s="4">
         <f t="shared" si="7"/>
@@ -3959,11 +3987,11 @@
       </c>
       <c r="Q40" s="4">
         <f t="shared" si="8"/>
-        <v>0.85</v>
+        <v>0.6</v>
       </c>
       <c r="R40" s="4">
         <f t="shared" si="9"/>
-        <v>0.42499999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="S40" s="4">
         <f t="shared" si="10"/>
@@ -3971,11 +3999,11 @@
       </c>
       <c r="T40" s="4">
         <f t="shared" si="11"/>
-        <v>0.42499999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="U40" s="4">
         <f t="shared" si="12"/>
-        <v>0.42499999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="V40" s="4">
         <f t="shared" si="13"/>
@@ -3983,11 +4011,11 @@
       </c>
       <c r="W40" s="4">
         <f t="shared" si="14"/>
-        <v>0.57499999999999996</v>
+        <v>0.7</v>
       </c>
       <c r="X40" s="4">
         <f t="shared" ca="1" si="15"/>
-        <v>1.2777777777777779</v>
+        <v>0.43749999999999994</v>
       </c>
       <c r="Y40" s="4">
         <f t="shared" ca="1" si="16"/>
@@ -3999,11 +4027,11 @@
       </c>
       <c r="AA40" s="4">
         <f t="shared" ca="1" si="18"/>
-        <v>0.42499999999999999</v>
-      </c>
-    </row>
-    <row r="41" spans="2:27" s="67" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B41" s="88"/>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="41" spans="2:27" s="67" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="90"/>
       <c r="C41" s="58">
         <v>23</v>
       </c>
@@ -4021,7 +4049,7 @@
       </c>
       <c r="K41" s="78">
         <f t="shared" ca="1" si="2"/>
-        <v>0.42499999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="L41" s="34"/>
       <c r="M41" s="46">
@@ -4034,7 +4062,7 @@
       </c>
       <c r="O41" s="68">
         <f t="shared" si="6"/>
-        <v>0.33333333333333331</v>
+        <v>0.25</v>
       </c>
       <c r="P41" s="4">
         <f t="shared" si="7"/>
@@ -4042,11 +4070,11 @@
       </c>
       <c r="Q41" s="4">
         <f t="shared" si="8"/>
-        <v>0.85</v>
+        <v>0.6</v>
       </c>
       <c r="R41" s="4">
         <f t="shared" si="9"/>
-        <v>0.42499999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="S41" s="4">
         <f t="shared" si="10"/>
@@ -4054,11 +4082,11 @@
       </c>
       <c r="T41" s="4">
         <f t="shared" si="11"/>
-        <v>0.42499999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="U41" s="4">
         <f t="shared" si="12"/>
-        <v>0.42499999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="V41" s="4">
         <f t="shared" si="13"/>
@@ -4066,11 +4094,11 @@
       </c>
       <c r="W41" s="4">
         <f t="shared" si="14"/>
-        <v>0.57499999999999996</v>
+        <v>0.7</v>
       </c>
       <c r="X41" s="4">
         <f t="shared" ca="1" si="15"/>
-        <v>1.2777777777777779</v>
+        <v>0.43749999999999994</v>
       </c>
       <c r="Y41" s="4">
         <f t="shared" ca="1" si="16"/>
@@ -4082,11 +4110,11 @@
       </c>
       <c r="AA41" s="4">
         <f t="shared" ca="1" si="18"/>
-        <v>0.42499999999999999</v>
-      </c>
-    </row>
-    <row r="42" spans="2:27" s="67" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B42" s="88"/>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:27" s="67" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="90"/>
       <c r="C42" s="58">
         <v>24</v>
       </c>
@@ -4104,7 +4132,7 @@
       </c>
       <c r="K42" s="78">
         <f t="shared" ca="1" si="2"/>
-        <v>0.42499999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="L42" s="34"/>
       <c r="M42" s="46">
@@ -4117,7 +4145,7 @@
       </c>
       <c r="O42" s="68">
         <f t="shared" si="6"/>
-        <v>0.33333333333333331</v>
+        <v>0.25</v>
       </c>
       <c r="P42" s="4">
         <f t="shared" si="7"/>
@@ -4125,11 +4153,11 @@
       </c>
       <c r="Q42" s="4">
         <f t="shared" si="8"/>
-        <v>0.85</v>
+        <v>0.6</v>
       </c>
       <c r="R42" s="4">
         <f t="shared" si="9"/>
-        <v>0.42499999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="S42" s="4">
         <f t="shared" si="10"/>
@@ -4137,11 +4165,11 @@
       </c>
       <c r="T42" s="4">
         <f t="shared" si="11"/>
-        <v>0.42499999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="U42" s="4">
         <f t="shared" si="12"/>
-        <v>0.42499999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="V42" s="4">
         <f t="shared" si="13"/>
@@ -4149,11 +4177,11 @@
       </c>
       <c r="W42" s="4">
         <f t="shared" si="14"/>
-        <v>0.57499999999999996</v>
+        <v>0.7</v>
       </c>
       <c r="X42" s="4">
         <f t="shared" ca="1" si="15"/>
-        <v>1.2777777777777779</v>
+        <v>0.43749999999999994</v>
       </c>
       <c r="Y42" s="4">
         <f t="shared" ca="1" si="16"/>
@@ -4165,11 +4193,11 @@
       </c>
       <c r="AA42" s="4">
         <f t="shared" ca="1" si="18"/>
-        <v>0.42499999999999999</v>
-      </c>
-    </row>
-    <row r="43" spans="2:27" s="67" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B43" s="88"/>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" s="67" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="90"/>
       <c r="C43" s="58">
         <v>25</v>
       </c>
@@ -4187,7 +4215,7 @@
       </c>
       <c r="K43" s="76">
         <f t="shared" ca="1" si="2"/>
-        <v>0.42499999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="L43" s="34"/>
       <c r="M43" s="46">
@@ -4200,7 +4228,7 @@
       </c>
       <c r="O43" s="68">
         <f t="shared" si="6"/>
-        <v>0.33333333333333331</v>
+        <v>0.25</v>
       </c>
       <c r="P43" s="4">
         <f t="shared" si="7"/>
@@ -4208,11 +4236,11 @@
       </c>
       <c r="Q43" s="4">
         <f t="shared" si="8"/>
-        <v>0.85</v>
+        <v>0.6</v>
       </c>
       <c r="R43" s="4">
         <f t="shared" si="9"/>
-        <v>0.42499999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="S43" s="4">
         <f t="shared" si="10"/>
@@ -4220,11 +4248,11 @@
       </c>
       <c r="T43" s="4">
         <f t="shared" si="11"/>
-        <v>0.42499999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="U43" s="4">
         <f t="shared" si="12"/>
-        <v>0.42499999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="V43" s="4">
         <f t="shared" si="13"/>
@@ -4232,11 +4260,11 @@
       </c>
       <c r="W43" s="4">
         <f t="shared" si="14"/>
-        <v>0.57499999999999996</v>
+        <v>0.7</v>
       </c>
       <c r="X43" s="4">
         <f t="shared" ca="1" si="15"/>
-        <v>1.2777777777777779</v>
+        <v>0.43749999999999994</v>
       </c>
       <c r="Y43" s="4">
         <f t="shared" ca="1" si="16"/>
@@ -4248,11 +4276,11 @@
       </c>
       <c r="AA43" s="4">
         <f t="shared" ca="1" si="18"/>
-        <v>0.42499999999999999</v>
-      </c>
-    </row>
-    <row r="44" spans="2:27" ht="15.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B44" s="88"/>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="90"/>
       <c r="D44" s="19"/>
       <c r="E44" s="10"/>
       <c r="F44" s="10"/>
@@ -4271,7 +4299,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20">
         <f ca="1">AVERAGE(OFFSET(K19, 0, 0, $G$3, 1))</f>
-        <v>0.85</v>
+        <v>0.6</v>
       </c>
       <c r="L44" s="34"/>
       <c r="M44" s="5" t="s">
@@ -4283,7 +4311,7 @@
       </c>
       <c r="O44" s="4">
         <f>SUM(O19:O22)</f>
-        <v>1.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="P44" s="4"/>
       <c r="Q44" s="4"/>
@@ -4297,13 +4325,13 @@
       </c>
       <c r="W44" s="4">
         <f ca="1">SUM(OFFSET(W19, 0, 0, $G$3, 1))</f>
-        <v>0.44999999999999996</v>
+        <v>1.6</v>
       </c>
       <c r="X44" s="2"/>
       <c r="Y44" s="2"/>
     </row>
-    <row r="45" spans="2:27" s="6" customFormat="1" ht="14.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B45" s="88"/>
+    <row r="45" spans="2:27" s="6" customFormat="1" ht="14.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="90"/>
       <c r="G45" s="54"/>
       <c r="H45" s="37"/>
       <c r="I45" s="37"/>
@@ -4317,27 +4345,27 @@
       <c r="O45" s="2"/>
       <c r="P45" s="4">
         <f>AVERAGE(P19:P22)</f>
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="Q45" s="4">
         <f>AVERAGE(Q19:Q22)</f>
-        <v>0.85</v>
+        <v>0.6</v>
       </c>
       <c r="R45" s="4">
         <f t="shared" ref="R45:S45" si="20">AVERAGE(R19:R22)</f>
-        <v>0.42499999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="S45" s="4">
         <f t="shared" si="20"/>
-        <v>0.31875000000000003</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="T45" s="4">
         <f>AVERAGE(T19:T22)</f>
-        <v>0.74374999999999991</v>
+        <v>0.6</v>
       </c>
       <c r="U45" s="4">
         <f>AVERAGE(U19:U22)</f>
-        <v>0.74374999999999991</v>
+        <v>0.6</v>
       </c>
       <c r="V45" s="4"/>
       <c r="W45" s="2"/>
@@ -4346,7 +4374,7 @@
       <c r="Z45" s="2"/>
       <c r="AA45" s="2"/>
     </row>
-    <row r="46" spans="2:27" s="6" customFormat="1" ht="12.45" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:27" s="6" customFormat="1" ht="12.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="55"/>
       <c r="G46" s="57" t="s">
         <v>52</v>
@@ -4376,7 +4404,7 @@
       <c r="Z46" s="2"/>
       <c r="AA46" s="2"/>
     </row>
-    <row r="47" spans="2:27" s="6" customFormat="1" ht="31.2" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:27" s="6" customFormat="1" ht="31.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G47" s="56" t="str">
         <f ca="1">IF(G44&lt;&gt;1,"La somme doit être égale à 100%","")</f>
         <v/>
@@ -4408,7 +4436,7 @@
       <c r="Z47" s="2"/>
       <c r="AA47" s="2"/>
     </row>
-    <row r="48" spans="2:27" s="6" customFormat="1" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:27" s="6" customFormat="1" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H48" s="37"/>
       <c r="I48" s="37"/>
       <c r="J48" s="37"/>
@@ -4460,7 +4488,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="49" spans="5:27" hidden="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="5:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="E49" s="43"/>
       <c r="F49" s="43"/>
       <c r="G49" s="40"/>
@@ -4473,7 +4501,7 @@
       <c r="L49" s="38"/>
       <c r="M49" s="59">
         <f>G3</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N49" s="41"/>
       <c r="O49" s="41"/>
@@ -4490,7 +4518,7 @@
       <c r="Z49" s="41"/>
       <c r="AA49" s="41"/>
     </row>
-    <row r="50" spans="5:27" hidden="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="5:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="E50" s="48"/>
       <c r="F50" s="43"/>
       <c r="G50" s="40"/>
@@ -4517,7 +4545,7 @@
       <c r="Z50" s="41"/>
       <c r="AA50" s="41"/>
     </row>
-    <row r="51" spans="5:27" hidden="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="5:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="E51" s="48"/>
       <c r="F51" s="43"/>
       <c r="G51" s="40"/>
@@ -4544,7 +4572,7 @@
       <c r="Z51" s="41"/>
       <c r="AA51" s="41"/>
     </row>
-    <row r="52" spans="5:27" hidden="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="5:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="E52" s="48"/>
       <c r="F52" s="43"/>
       <c r="G52" s="40"/>
@@ -4571,7 +4599,7 @@
       <c r="Z52" s="41"/>
       <c r="AA52" s="41"/>
     </row>
-    <row r="53" spans="5:27" hidden="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="5:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="E53" s="48"/>
       <c r="F53" s="43"/>
       <c r="G53" s="40"/>
@@ -4598,7 +4626,7 @@
       <c r="Z53" s="41"/>
       <c r="AA53" s="41"/>
     </row>
-    <row r="54" spans="5:27" hidden="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="5:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="E54" s="48"/>
       <c r="F54" s="43"/>
       <c r="G54" s="40"/>
@@ -4625,7 +4653,7 @@
       <c r="Z54" s="41"/>
       <c r="AA54" s="41"/>
     </row>
-    <row r="55" spans="5:27" hidden="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="5:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="E55" s="48"/>
       <c r="F55" s="43"/>
       <c r="G55" s="40"/>
@@ -4652,7 +4680,7 @@
       <c r="Z55" s="41"/>
       <c r="AA55" s="41"/>
     </row>
-    <row r="56" spans="5:27" hidden="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="5:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="E56" s="48"/>
       <c r="F56" s="43"/>
       <c r="G56" s="40"/>
@@ -4679,7 +4707,7 @@
       <c r="Z56" s="41"/>
       <c r="AA56" s="41"/>
     </row>
-    <row r="57" spans="5:27" hidden="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="5:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="E57" s="48"/>
       <c r="F57" s="43"/>
       <c r="G57" s="40"/>
@@ -4706,7 +4734,7 @@
       <c r="Z57" s="41"/>
       <c r="AA57" s="41"/>
     </row>
-    <row r="58" spans="5:27" hidden="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="5:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="E58" s="48"/>
       <c r="F58" s="43"/>
       <c r="G58" s="40"/>
@@ -4733,7 +4761,7 @@
       <c r="Z58" s="41"/>
       <c r="AA58" s="41"/>
     </row>
-    <row r="59" spans="5:27" hidden="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="5:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="E59" s="48"/>
       <c r="F59" s="43"/>
       <c r="G59" s="40"/>
@@ -4760,7 +4788,7 @@
       <c r="Z59" s="41"/>
       <c r="AA59" s="41"/>
     </row>
-    <row r="60" spans="5:27" hidden="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="5:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="E60" s="48"/>
       <c r="F60" s="43"/>
       <c r="G60" s="40"/>
@@ -4787,7 +4815,7 @@
       <c r="Z60" s="41"/>
       <c r="AA60" s="41"/>
     </row>
-    <row r="61" spans="5:27" hidden="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="5:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="E61" s="48"/>
       <c r="F61" s="43"/>
       <c r="G61" s="40"/>
@@ -4814,7 +4842,7 @@
       <c r="Z61" s="41"/>
       <c r="AA61" s="41"/>
     </row>
-    <row r="62" spans="5:27" hidden="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="5:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="E62" s="48"/>
       <c r="F62" s="43"/>
       <c r="G62" s="40"/>
@@ -4841,7 +4869,7 @@
       <c r="Z62" s="42"/>
       <c r="AA62" s="41"/>
     </row>
-    <row r="63" spans="5:27" hidden="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="5:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="E63" s="48"/>
       <c r="F63" s="43"/>
       <c r="G63" s="40"/>
@@ -4868,86 +4896,87 @@
       <c r="Z63" s="40"/>
       <c r="AA63" s="42"/>
     </row>
-    <row r="64" spans="5:27" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="65" spans="12:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="5:27" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="65" spans="12:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="L65" s="38" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="66" spans="12:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="12:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="L66" s="38" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="67" spans="12:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="12:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="L67" s="38" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="68" spans="12:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="12:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="L68" s="38" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="69" spans="12:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="12:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="L69" s="38" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="70" spans="12:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="12:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="L70" s="38" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="71" spans="12:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="12:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="L71" s="38" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="72" spans="12:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="12:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="L72" s="38" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="73" spans="12:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="12:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="L73" s="38" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="74" spans="12:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="12:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="L74" s="38" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="75" spans="12:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="12:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="L75" s="38" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="76" spans="12:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="12:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="L76" s="38" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="77" spans="12:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="12:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="L77" s="38" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="78" spans="12:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="12:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="L78" s="38" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="79" spans="12:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="12:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="L79" s="38" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="80" spans="12:12" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="80" spans="12:12" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="d2wj9CCEuGw4Mg6otQpiYDLe9ScqX7RqQ3VxEP8wAjD/h08OAkcxvAV0OuVlGLs0lDzKZe11zE9KnrJqQ3HHBQ==" saltValue="cDUUGHebzs7qC23bO1RmFA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="17">
+    <mergeCell ref="J15:K15"/>
     <mergeCell ref="G11:K11"/>
     <mergeCell ref="B2:B12"/>
     <mergeCell ref="B14:B45"/>
@@ -4964,7 +4993,6 @@
     <mergeCell ref="D5:F5"/>
     <mergeCell ref="D3:F3"/>
     <mergeCell ref="G3:K3"/>
-    <mergeCell ref="J15:K15"/>
   </mergeCells>
   <conditionalFormatting sqref="G16:J16">
     <cfRule type="expression" dxfId="3" priority="4">
@@ -5041,17 +5069,17 @@
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.07421875" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.61328125" style="67" customWidth="1"/>
-    <col min="2" max="2" width="9.07421875" style="67" customWidth="1"/>
-    <col min="3" max="3" width="12.69140625" style="67" customWidth="1"/>
-    <col min="4" max="4" width="93.53515625" style="67" customWidth="1"/>
+    <col min="1" max="1" width="2.5703125" style="67" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="67" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" style="67" customWidth="1"/>
+    <col min="4" max="4" width="93.5703125" style="67" customWidth="1"/>
     <col min="5" max="5" width="2" style="67" customWidth="1"/>
-    <col min="6" max="16384" width="9.07421875" style="67"/>
+    <col min="6" max="16384" width="9.140625" style="67"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="83" t="s">
         <v>93</v>
       </c>
@@ -5059,18 +5087,18 @@
       <c r="D2" s="83"/>
       <c r="E2" s="83"/>
     </row>
-    <row r="3" spans="2:5" ht="5.8" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:5" ht="5.85" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="67" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" s="67" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="2:5" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="83" t="s">
         <v>94</v>
       </c>
@@ -5078,13 +5106,13 @@
       <c r="D8" s="83"/>
       <c r="E8" s="83"/>
     </row>
-    <row r="9" spans="2:5" ht="5.8" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:5" ht="5.85" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" s="67" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" s="67">
         <v>1</v>
       </c>
@@ -5095,13 +5123,13 @@
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="2:5" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:5" ht="45" x14ac:dyDescent="0.25">
       <c r="C12" s="84"/>
       <c r="D12" s="85" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B13" s="67">
         <v>2</v>
       </c>
@@ -5112,13 +5140,13 @@
         <v>81</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C14" s="84"/>
       <c r="D14" s="86" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15" s="67">
         <v>3</v>
       </c>
@@ -5129,12 +5157,12 @@
         <v>84</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D16" s="86" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="18" spans="2:5" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B18" s="83" t="s">
         <v>85</v>
       </c>
@@ -5142,26 +5170,26 @@
       <c r="D18" s="83"/>
       <c r="E18" s="83"/>
     </row>
-    <row r="19" spans="2:5" ht="5.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="20" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:5" ht="5.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C20" s="116" t="s">
         <v>86</v>
       </c>
       <c r="D20" s="117"/>
     </row>
-    <row r="21" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C21" s="115" t="s">
         <v>87</v>
       </c>
       <c r="D21" s="115"/>
     </row>
-    <row r="22" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C22" s="118" t="s">
         <v>88</v>
       </c>
       <c r="D22" s="118"/>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" s="67">
         <v>1</v>
       </c>
@@ -5169,7 +5197,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" s="67">
         <v>2</v>
       </c>
@@ -5177,7 +5205,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26" s="67">
         <v>3</v>
       </c>
@@ -5185,12 +5213,12 @@
         <v>90</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C27" s="67" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B29" s="119" t="s">
         <v>92</v>
       </c>

--- a/Docs/Fiche autoévaluation comparative.xlsx
+++ b/Docs/Fiche autoévaluation comparative.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rayan\Documents\Coding\Python\KNN-Project\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\travail\KNN-Project\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DB44F7B-B4A9-4439-87D7-6B753DE17EEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12AA253D-16A6-42AB-B647-8A2D8656EBDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Évaluation" sheetId="1" r:id="rId1"/>
@@ -535,7 +535,7 @@
       </gradientFill>
     </fill>
   </fills>
-  <borders count="49">
+  <borders count="48">
     <border>
       <left/>
       <right/>
@@ -757,19 +757,6 @@
         <color auto="1"/>
       </left>
       <right/>
-      <top style="thick">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.14996795556505021"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
       <top style="thick">
         <color auto="1"/>
       </top>
@@ -1096,7 +1083,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
@@ -1122,10 +1109,6 @@
       <alignment vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -1211,15 +1194,11 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
@@ -1255,7 +1234,7 @@
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
@@ -1265,18 +1244,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
@@ -1317,7 +1296,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
@@ -1356,34 +1335,34 @@
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="45" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="44" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="45" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="47" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="45" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="44" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
@@ -1424,11 +1403,19 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="39" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
@@ -1440,11 +1427,15 @@
       <alignment horizontal="right" vertical="center" textRotation="90" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="8" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="41" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -1452,38 +1443,38 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="43" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection hidden="1"/>
     </xf>
@@ -1491,11 +1482,11 @@
       <alignment horizontal="right"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection hidden="1"/>
     </xf>
@@ -1503,11 +1494,11 @@
       <alignment horizontal="right"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection hidden="1"/>
     </xf>
@@ -1515,27 +1506,19 @@
       <alignment horizontal="right"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection hidden="1"/>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="41" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="5" borderId="42" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="5" borderId="43" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="42" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="41" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
@@ -1543,15 +1526,11 @@
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="5" borderId="42" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="3" fillId="5" borderId="41" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
@@ -1933,18 +1912,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:AA80"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7:K7"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5:K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3" style="49" customWidth="1"/>
-    <col min="2" max="2" width="7" style="49" customWidth="1"/>
-    <col min="3" max="3" width="3" style="49" customWidth="1"/>
-    <col min="4" max="4" width="12" style="49" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" style="49" customWidth="1"/>
-    <col min="6" max="6" width="34.42578125" style="49" customWidth="1"/>
+    <col min="1" max="1" width="3" style="47" customWidth="1"/>
+    <col min="2" max="2" width="7" style="47" customWidth="1"/>
+    <col min="3" max="3" width="3" style="47" customWidth="1"/>
+    <col min="4" max="4" width="12" style="47" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" style="47" customWidth="1"/>
+    <col min="6" max="6" width="34.42578125" style="47" customWidth="1"/>
     <col min="7" max="9" width="13.7109375" style="2" customWidth="1"/>
     <col min="10" max="10" width="6.7109375" style="2" customWidth="1"/>
     <col min="11" max="11" width="13.7109375" style="2" customWidth="1"/>
@@ -1953,9 +1932,9 @@
     <col min="14" max="14" width="11.28515625" style="2" hidden="1" customWidth="1"/>
     <col min="15" max="22" width="9" style="2" hidden="1" customWidth="1"/>
     <col min="23" max="23" width="10" style="2" hidden="1" customWidth="1"/>
-    <col min="24" max="25" width="9" style="49" hidden="1" customWidth="1"/>
+    <col min="24" max="25" width="9" style="47" hidden="1" customWidth="1"/>
     <col min="26" max="27" width="9" style="2" hidden="1" customWidth="1"/>
-    <col min="28" max="16384" width="9" style="49"/>
+    <col min="28" max="16384" width="9" style="47"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1989,7 +1968,7 @@
       <c r="E5" s="110"/>
       <c r="F5" s="110"/>
       <c r="G5" s="93">
-        <v>0.6</v>
+        <v>0.86</v>
       </c>
       <c r="H5" s="93"/>
       <c r="I5" s="93"/>
@@ -2072,7 +2051,7 @@
       <c r="F11" s="102"/>
       <c r="G11" s="87">
         <f ca="1">V44</f>
-        <v>0</v>
+        <v>3.2000000000000028E-2</v>
       </c>
       <c r="H11" s="87"/>
       <c r="I11" s="87"/>
@@ -2084,7 +2063,7 @@
       <c r="D12" s="1"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
-      <c r="K12" s="79" t="s">
+      <c r="K12" s="77" t="s">
         <v>75</v>
       </c>
     </row>
@@ -2100,155 +2079,155 @@
     </row>
     <row r="15" spans="2:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B15" s="90"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="24" t="s">
+      <c r="D15" s="20"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="H15" s="23" t="s">
+      <c r="H15" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="I15" s="25" t="s">
+      <c r="I15" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="J15" s="113" t="s">
+      <c r="J15" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="K15" s="114"/>
+      <c r="K15" s="86"/>
     </row>
     <row r="16" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B16" s="90"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="51" t="s">
+      <c r="D16" s="11"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="G16" s="80">
+      <c r="G16" s="78">
         <v>0.4</v>
       </c>
-      <c r="H16" s="81">
+      <c r="H16" s="79">
         <v>0.4</v>
       </c>
-      <c r="I16" s="82">
+      <c r="I16" s="80">
         <v>0.2</v>
       </c>
-      <c r="J16" s="62"/>
-      <c r="K16" s="14"/>
+      <c r="J16" s="60"/>
+      <c r="K16" s="13"/>
     </row>
     <row r="17" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B17" s="90"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="51" t="s">
+      <c r="D17" s="11"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="G17" s="26">
+      <c r="G17" s="25">
         <v>1</v>
       </c>
-      <c r="H17" s="9">
+      <c r="H17" s="8">
         <v>1</v>
       </c>
-      <c r="I17" s="27">
+      <c r="I17" s="26">
         <v>1</v>
       </c>
-      <c r="J17" s="9"/>
-      <c r="K17" s="14"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="13"/>
     </row>
     <row r="18" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="90"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="53" t="s">
+      <c r="D18" s="11"/>
+      <c r="E18" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="F18" s="52" t="s">
+      <c r="F18" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="G18" s="26"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="27"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="14"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="13"/>
     </row>
     <row r="19" spans="2:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B19" s="90"/>
-      <c r="C19" s="58">
+      <c r="C19" s="56">
         <v>1</v>
       </c>
-      <c r="D19" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="E19" s="63">
+      <c r="D19" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E19" s="61">
         <v>2052237</v>
       </c>
-      <c r="F19" s="64" t="s">
+      <c r="F19" s="62" t="s">
         <v>96</v>
       </c>
-      <c r="G19" s="28">
-        <v>0.4</v>
-      </c>
-      <c r="H19" s="7">
-        <v>0.4</v>
-      </c>
-      <c r="I19" s="29">
-        <v>0.4</v>
-      </c>
-      <c r="J19" s="60" t="str">
-        <f ca="1">IF(V19&gt;0,"- "&amp;TEXT(V19*100,"0.0")&amp;"%",IF(Z19&gt;0,"+ "&amp;TEXT(Z19*100,"0.0")&amp;"%",""))</f>
-        <v/>
-      </c>
-      <c r="K19" s="16">
+      <c r="G19" s="27">
+        <v>0.35</v>
+      </c>
+      <c r="H19" s="27">
+        <v>0.35</v>
+      </c>
+      <c r="I19" s="27">
+        <v>0.35</v>
+      </c>
+      <c r="J19" s="58" t="str">
+        <f>IF(V19&gt;0,"- "&amp;TEXT(V19*100,"0.0")&amp;"%",IF(Z19&gt;0,"+ "&amp;TEXT(Z19*100,"0.0")&amp;"%",""))</f>
+        <v>- 0.3%</v>
+      </c>
+      <c r="K19" s="15">
         <f ca="1">AA19</f>
-        <v>0.78</v>
-      </c>
-      <c r="L19" s="34"/>
-      <c r="M19" s="46">
+        <v>1</v>
+      </c>
+      <c r="L19" s="32"/>
+      <c r="M19" s="44">
         <f t="shared" ref="M19:M43" si="0">E19</f>
         <v>2052237</v>
       </c>
-      <c r="N19" s="50">
+      <c r="N19" s="48">
         <f t="array" ref="N19">SUM(G19:I19/$G$17:$I$17*$G$16:$I$16)</f>
-        <v>0.40000000000000008</v>
-      </c>
-      <c r="O19" s="50">
+        <v>0.35</v>
+      </c>
+      <c r="O19" s="48">
         <f>1/$M$49</f>
         <v>0.25</v>
       </c>
       <c r="P19" s="4">
         <f>N19/O19</f>
-        <v>1.6000000000000003</v>
+        <v>1.4</v>
       </c>
       <c r="Q19" s="4">
         <f>$G$5</f>
-        <v>0.6</v>
+        <v>0.86</v>
       </c>
       <c r="R19" s="4">
         <f>Q19*$G$7</f>
-        <v>0.3</v>
+        <v>0.43</v>
       </c>
       <c r="S19" s="4">
         <f>P19*Q19*$G$8</f>
-        <v>0.48000000000000009</v>
+        <v>0.60199999999999998</v>
       </c>
       <c r="T19" s="4">
         <f>SUM(R19:S19)</f>
-        <v>0.78</v>
+        <v>1.032</v>
       </c>
       <c r="U19" s="4">
         <f>MIN(1,T19)</f>
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="V19" s="4">
         <f>T19-U19</f>
-        <v>0</v>
+        <v>3.2000000000000028E-2</v>
       </c>
       <c r="W19" s="4">
         <f>1-U19</f>
-        <v>0.21999999999999997</v>
+        <v>0</v>
       </c>
       <c r="X19" s="4">
         <f ca="1">W19/$W$44</f>
-        <v>0.13749999999999998</v>
+        <v>0</v>
       </c>
       <c r="Y19" s="4">
         <f ca="1">X19*$V$44</f>
@@ -2260,74 +2239,74 @@
       </c>
       <c r="AA19" s="4">
         <f ca="1">U19+Z19</f>
-        <v>0.78</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B20" s="90"/>
-      <c r="C20" s="58">
+      <c r="C20" s="56">
         <v>2</v>
       </c>
-      <c r="D20" s="17" t="s">
+      <c r="D20" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="E20" s="65"/>
-      <c r="F20" s="66" t="s">
+      <c r="E20" s="63"/>
+      <c r="F20" s="64" t="s">
         <v>97</v>
       </c>
-      <c r="G20" s="30">
-        <v>0.27500000000000002</v>
-      </c>
-      <c r="H20" s="8">
-        <v>0.27500000000000002</v>
-      </c>
-      <c r="I20" s="31">
-        <v>0.27500000000000002</v>
-      </c>
-      <c r="J20" s="61" t="str">
+      <c r="G20" s="28">
+        <v>0.3</v>
+      </c>
+      <c r="H20" s="28">
+        <v>0.3</v>
+      </c>
+      <c r="I20" s="28">
+        <v>0.3</v>
+      </c>
+      <c r="J20" s="59" t="str">
         <f t="shared" ref="J20:J43" ca="1" si="1">IF(V20&gt;0,"- "&amp;TEXT(V20*100,"0.0")&amp;"%",IF(Z20&gt;0,"+ "&amp;TEXT(Z20*100,"0.0")&amp;"%",""))</f>
         <v/>
       </c>
-      <c r="K20" s="18">
+      <c r="K20" s="17">
         <f t="shared" ref="K20:K43" ca="1" si="2">AA20</f>
-        <v>0.63</v>
-      </c>
-      <c r="L20" s="34"/>
-      <c r="M20" s="46">
+        <v>0.94599999999999995</v>
+      </c>
+      <c r="L20" s="32"/>
+      <c r="M20" s="44">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N20" s="50">
+      <c r="N20" s="48">
         <f t="array" ref="N20">SUM(G20:I20/$G$17:$I$17*$G$16:$I$16)</f>
-        <v>0.27500000000000002</v>
-      </c>
-      <c r="O20" s="50">
+        <v>0.3</v>
+      </c>
+      <c r="O20" s="48">
         <f>1/$M$49</f>
         <v>0.25</v>
       </c>
       <c r="P20" s="4">
         <f>N20/O20</f>
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="Q20" s="4">
         <f>$G$5</f>
-        <v>0.6</v>
+        <v>0.86</v>
       </c>
       <c r="R20" s="4">
         <f>Q20*$G$7</f>
-        <v>0.3</v>
+        <v>0.43</v>
       </c>
       <c r="S20" s="4">
         <f>P20*Q20*$G$8</f>
-        <v>0.33</v>
+        <v>0.51600000000000001</v>
       </c>
       <c r="T20" s="4">
         <f t="shared" ref="T20:T22" si="3">SUM(R20:S20)</f>
-        <v>0.63</v>
+        <v>0.94599999999999995</v>
       </c>
       <c r="U20" s="4">
         <f>MIN(1,T20)</f>
-        <v>0.63</v>
+        <v>0.94599999999999995</v>
       </c>
       <c r="V20" s="4">
         <f t="shared" ref="V20:V22" si="4">T20-U20</f>
@@ -2335,15 +2314,15 @@
       </c>
       <c r="W20" s="4">
         <f>1-U20</f>
-        <v>0.37</v>
+        <v>5.4000000000000048E-2</v>
       </c>
       <c r="X20" s="4">
         <f ca="1">W20/$W$44</f>
-        <v>0.23124999999999998</v>
+        <v>9.1216216216216284E-2</v>
       </c>
       <c r="Y20" s="4">
         <f ca="1">X20*$V$44</f>
-        <v>0</v>
+        <v>2.9189189189189235E-3</v>
       </c>
       <c r="Z20" s="4">
         <f t="shared" ref="Z20:Z22" ca="1" si="5">Y20*$G$10</f>
@@ -2351,74 +2330,74 @@
       </c>
       <c r="AA20" s="4">
         <f ca="1">U20+Z20</f>
-        <v>0.63</v>
+        <v>0.94599999999999995</v>
       </c>
     </row>
     <row r="21" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B21" s="90"/>
-      <c r="C21" s="58">
+      <c r="C21" s="56">
         <v>3</v>
       </c>
-      <c r="D21" s="17" t="s">
+      <c r="D21" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E21" s="65"/>
-      <c r="F21" s="66" t="s">
+      <c r="E21" s="63"/>
+      <c r="F21" s="64" t="s">
         <v>98</v>
       </c>
-      <c r="G21" s="30">
-        <v>0.27500000000000002</v>
-      </c>
-      <c r="H21" s="8">
-        <v>0.27500000000000002</v>
-      </c>
-      <c r="I21" s="31">
-        <v>0.27500000000000002</v>
-      </c>
-      <c r="J21" s="61" t="str">
+      <c r="G21" s="28">
+        <v>0.3</v>
+      </c>
+      <c r="H21" s="28">
+        <v>0.3</v>
+      </c>
+      <c r="I21" s="28">
+        <v>0.3</v>
+      </c>
+      <c r="J21" s="59" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
-      <c r="K21" s="18">
+      <c r="K21" s="17">
         <f t="shared" ca="1" si="2"/>
-        <v>0.63</v>
-      </c>
-      <c r="L21" s="34"/>
-      <c r="M21" s="46">
+        <v>0.94599999999999995</v>
+      </c>
+      <c r="L21" s="32"/>
+      <c r="M21" s="44">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N21" s="50">
+      <c r="N21" s="48">
         <f t="array" ref="N21">SUM(G21:I21/$G$17:$I$17*$G$16:$I$16)</f>
-        <v>0.27500000000000002</v>
-      </c>
-      <c r="O21" s="50">
+        <v>0.3</v>
+      </c>
+      <c r="O21" s="48">
         <f>1/$M$49</f>
         <v>0.25</v>
       </c>
       <c r="P21" s="4">
         <f>N21/O21</f>
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="Q21" s="4">
         <f>$G$5</f>
-        <v>0.6</v>
+        <v>0.86</v>
       </c>
       <c r="R21" s="4">
         <f>Q21*$G$7</f>
-        <v>0.3</v>
+        <v>0.43</v>
       </c>
       <c r="S21" s="4">
         <f>P21*Q21*$G$8</f>
-        <v>0.33</v>
+        <v>0.51600000000000001</v>
       </c>
       <c r="T21" s="4">
         <f t="shared" si="3"/>
-        <v>0.63</v>
+        <v>0.94599999999999995</v>
       </c>
       <c r="U21" s="4">
         <f>MIN(1,T21)</f>
-        <v>0.63</v>
+        <v>0.94599999999999995</v>
       </c>
       <c r="V21" s="4">
         <f t="shared" si="4"/>
@@ -2426,15 +2405,15 @@
       </c>
       <c r="W21" s="4">
         <f>1-U21</f>
-        <v>0.37</v>
+        <v>5.4000000000000048E-2</v>
       </c>
       <c r="X21" s="4">
         <f ca="1">W21/$W$44</f>
-        <v>0.23124999999999998</v>
+        <v>9.1216216216216284E-2</v>
       </c>
       <c r="Y21" s="4">
         <f ca="1">X21*$V$44</f>
-        <v>0</v>
+        <v>2.9189189189189235E-3</v>
       </c>
       <c r="Z21" s="4">
         <f t="shared" ca="1" si="5"/>
@@ -2442,48 +2421,48 @@
       </c>
       <c r="AA21" s="4">
         <f ca="1">U21+Z21</f>
-        <v>0.63</v>
+        <v>0.94599999999999995</v>
       </c>
     </row>
     <row r="22" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B22" s="90"/>
-      <c r="C22" s="58">
+      <c r="C22" s="56">
         <v>4</v>
       </c>
-      <c r="D22" s="17" t="s">
+      <c r="D22" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E22" s="65"/>
-      <c r="F22" s="66" t="s">
+      <c r="E22" s="63"/>
+      <c r="F22" s="64" t="s">
         <v>99</v>
       </c>
-      <c r="G22" s="30">
+      <c r="G22" s="28">
         <v>0.05</v>
       </c>
-      <c r="H22" s="8">
+      <c r="H22" s="7">
         <v>0.05</v>
       </c>
-      <c r="I22" s="31">
+      <c r="I22" s="29">
         <v>0.05</v>
       </c>
-      <c r="J22" s="61" t="str">
+      <c r="J22" s="59" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
-      <c r="K22" s="18">
+      <c r="K22" s="17">
         <f t="shared" ca="1" si="2"/>
-        <v>0.36</v>
-      </c>
-      <c r="L22" s="34"/>
-      <c r="M22" s="46">
+        <v>0.51600000000000001</v>
+      </c>
+      <c r="L22" s="32"/>
+      <c r="M22" s="44">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N22" s="50">
+      <c r="N22" s="48">
         <f t="array" ref="N22">SUM(G22:I22/$G$17:$I$17*$G$16:$I$16)</f>
         <v>5.000000000000001E-2</v>
       </c>
-      <c r="O22" s="50">
+      <c r="O22" s="48">
         <f>1/$M$49</f>
         <v>0.25</v>
       </c>
@@ -2493,23 +2472,23 @@
       </c>
       <c r="Q22" s="4">
         <f>$G$5</f>
-        <v>0.6</v>
+        <v>0.86</v>
       </c>
       <c r="R22" s="4">
         <f>Q22*$G$7</f>
-        <v>0.3</v>
+        <v>0.43</v>
       </c>
       <c r="S22" s="4">
         <f>P22*Q22*$G$8</f>
-        <v>6.0000000000000012E-2</v>
+        <v>8.6000000000000021E-2</v>
       </c>
       <c r="T22" s="4">
         <f t="shared" si="3"/>
-        <v>0.36</v>
+        <v>0.51600000000000001</v>
       </c>
       <c r="U22" s="4">
         <f>MIN(1,T22)</f>
-        <v>0.36</v>
+        <v>0.51600000000000001</v>
       </c>
       <c r="V22" s="4">
         <f t="shared" si="4"/>
@@ -2517,15 +2496,15 @@
       </c>
       <c r="W22" s="4">
         <f>1-U22</f>
-        <v>0.64</v>
+        <v>0.48399999999999999</v>
       </c>
       <c r="X22" s="4">
         <f ca="1">W22/$W$44</f>
-        <v>0.39999999999999997</v>
+        <v>0.81756756756756743</v>
       </c>
       <c r="Y22" s="4">
         <f ca="1">X22*$V$44</f>
-        <v>0</v>
+        <v>2.6162162162162182E-2</v>
       </c>
       <c r="Z22" s="4">
         <f t="shared" ca="1" si="5"/>
@@ -2533,40 +2512,40 @@
       </c>
       <c r="AA22" s="4">
         <f ca="1">U22+Z22</f>
-        <v>0.36</v>
-      </c>
-    </row>
-    <row r="23" spans="2:27" s="67" customFormat="1" x14ac:dyDescent="0.25">
+        <v>0.51600000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="2:27" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B23" s="90"/>
-      <c r="C23" s="58">
+      <c r="C23" s="56">
         <v>5</v>
       </c>
-      <c r="D23" s="17" t="s">
+      <c r="D23" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="E23" s="65"/>
-      <c r="F23" s="66"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="31"/>
-      <c r="J23" s="77" t="str">
+      <c r="E23" s="63"/>
+      <c r="F23" s="64"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="75" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
-      <c r="K23" s="78">
+      <c r="K23" s="76">
         <f t="shared" ca="1" si="2"/>
-        <v>0.3</v>
-      </c>
-      <c r="L23" s="34"/>
-      <c r="M23" s="46">
+        <v>0.43</v>
+      </c>
+      <c r="L23" s="32"/>
+      <c r="M23" s="44">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N23" s="68">
+      <c r="N23" s="66">
         <f t="array" ref="N23">SUM(G23:I23/$G$17:$I$17*$G$16:$I$16)</f>
         <v>0</v>
       </c>
-      <c r="O23" s="68">
+      <c r="O23" s="66">
         <f t="shared" ref="O23:O43" si="6">1/$M$49</f>
         <v>0.25</v>
       </c>
@@ -2576,11 +2555,11 @@
       </c>
       <c r="Q23" s="4">
         <f t="shared" ref="Q23:Q43" si="8">$G$5</f>
-        <v>0.6</v>
+        <v>0.86</v>
       </c>
       <c r="R23" s="4">
         <f t="shared" ref="R23:R43" si="9">Q23*$G$7</f>
-        <v>0.3</v>
+        <v>0.43</v>
       </c>
       <c r="S23" s="4">
         <f t="shared" ref="S23:S43" si="10">P23*Q23*$G$8</f>
@@ -2588,11 +2567,11 @@
       </c>
       <c r="T23" s="4">
         <f t="shared" ref="T23:T43" si="11">SUM(R23:S23)</f>
-        <v>0.3</v>
+        <v>0.43</v>
       </c>
       <c r="U23" s="4">
         <f t="shared" ref="U23:U43" si="12">MIN(1,T23)</f>
-        <v>0.3</v>
+        <v>0.43</v>
       </c>
       <c r="V23" s="4">
         <f t="shared" ref="V23:V43" si="13">T23-U23</f>
@@ -2600,15 +2579,15 @@
       </c>
       <c r="W23" s="4">
         <f t="shared" ref="W23:W43" si="14">1-U23</f>
-        <v>0.7</v>
+        <v>0.57000000000000006</v>
       </c>
       <c r="X23" s="4">
         <f t="shared" ref="X23:X43" ca="1" si="15">W23/$W$44</f>
-        <v>0.43749999999999994</v>
+        <v>0.96283783783783783</v>
       </c>
       <c r="Y23" s="4">
         <f t="shared" ref="Y23:Y43" ca="1" si="16">X23*$V$44</f>
-        <v>0</v>
+        <v>3.081081081081084E-2</v>
       </c>
       <c r="Z23" s="4">
         <f t="shared" ref="Z23:Z43" ca="1" si="17">Y23*$G$10</f>
@@ -2616,40 +2595,40 @@
       </c>
       <c r="AA23" s="4">
         <f t="shared" ref="AA23:AA43" ca="1" si="18">U23+Z23</f>
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="24" spans="2:27" s="67" customFormat="1" x14ac:dyDescent="0.25">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="24" spans="2:27" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="90"/>
-      <c r="C24" s="58">
+      <c r="C24" s="56">
         <v>6</v>
       </c>
-      <c r="D24" s="17" t="s">
+      <c r="D24" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="E24" s="65"/>
-      <c r="F24" s="66"/>
-      <c r="G24" s="30"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="31"/>
-      <c r="J24" s="77" t="str">
+      <c r="E24" s="63"/>
+      <c r="F24" s="64"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="75" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
-      <c r="K24" s="78">
+      <c r="K24" s="76">
         <f t="shared" ca="1" si="2"/>
-        <v>0.3</v>
-      </c>
-      <c r="L24" s="34"/>
-      <c r="M24" s="46">
+        <v>0.43</v>
+      </c>
+      <c r="L24" s="32"/>
+      <c r="M24" s="44">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N24" s="68">
+      <c r="N24" s="66">
         <f t="array" ref="N24">SUM(G24:I24/$G$17:$I$17*$G$16:$I$16)</f>
         <v>0</v>
       </c>
-      <c r="O24" s="68">
+      <c r="O24" s="66">
         <f t="shared" si="6"/>
         <v>0.25</v>
       </c>
@@ -2659,11 +2638,11 @@
       </c>
       <c r="Q24" s="4">
         <f t="shared" si="8"/>
-        <v>0.6</v>
+        <v>0.86</v>
       </c>
       <c r="R24" s="4">
         <f t="shared" si="9"/>
-        <v>0.3</v>
+        <v>0.43</v>
       </c>
       <c r="S24" s="4">
         <f t="shared" si="10"/>
@@ -2671,11 +2650,11 @@
       </c>
       <c r="T24" s="4">
         <f t="shared" si="11"/>
-        <v>0.3</v>
+        <v>0.43</v>
       </c>
       <c r="U24" s="4">
         <f t="shared" si="12"/>
-        <v>0.3</v>
+        <v>0.43</v>
       </c>
       <c r="V24" s="4">
         <f t="shared" si="13"/>
@@ -2683,15 +2662,15 @@
       </c>
       <c r="W24" s="4">
         <f t="shared" si="14"/>
-        <v>0.7</v>
+        <v>0.57000000000000006</v>
       </c>
       <c r="X24" s="4">
         <f t="shared" ca="1" si="15"/>
-        <v>0.43749999999999994</v>
+        <v>0.96283783783783783</v>
       </c>
       <c r="Y24" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>0</v>
+        <v>3.081081081081084E-2</v>
       </c>
       <c r="Z24" s="4">
         <f t="shared" ca="1" si="17"/>
@@ -2699,40 +2678,40 @@
       </c>
       <c r="AA24" s="4">
         <f t="shared" ca="1" si="18"/>
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="25" spans="2:27" s="67" customFormat="1" x14ac:dyDescent="0.25">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="25" spans="2:27" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25" s="90"/>
-      <c r="C25" s="58">
+      <c r="C25" s="56">
         <v>7</v>
       </c>
-      <c r="D25" s="17" t="s">
+      <c r="D25" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="E25" s="65"/>
-      <c r="F25" s="66"/>
-      <c r="G25" s="30"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="31"/>
-      <c r="J25" s="77" t="str">
+      <c r="E25" s="63"/>
+      <c r="F25" s="64"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="75" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
-      <c r="K25" s="78">
+      <c r="K25" s="76">
         <f t="shared" ca="1" si="2"/>
-        <v>0.3</v>
-      </c>
-      <c r="L25" s="34"/>
-      <c r="M25" s="46">
+        <v>0.43</v>
+      </c>
+      <c r="L25" s="32"/>
+      <c r="M25" s="44">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N25" s="68">
+      <c r="N25" s="66">
         <f t="array" ref="N25">SUM(G25:I25/$G$17:$I$17*$G$16:$I$16)</f>
         <v>0</v>
       </c>
-      <c r="O25" s="68">
+      <c r="O25" s="66">
         <f t="shared" si="6"/>
         <v>0.25</v>
       </c>
@@ -2742,11 +2721,11 @@
       </c>
       <c r="Q25" s="4">
         <f t="shared" si="8"/>
-        <v>0.6</v>
+        <v>0.86</v>
       </c>
       <c r="R25" s="4">
         <f t="shared" si="9"/>
-        <v>0.3</v>
+        <v>0.43</v>
       </c>
       <c r="S25" s="4">
         <f t="shared" si="10"/>
@@ -2754,11 +2733,11 @@
       </c>
       <c r="T25" s="4">
         <f t="shared" si="11"/>
-        <v>0.3</v>
+        <v>0.43</v>
       </c>
       <c r="U25" s="4">
         <f t="shared" si="12"/>
-        <v>0.3</v>
+        <v>0.43</v>
       </c>
       <c r="V25" s="4">
         <f t="shared" si="13"/>
@@ -2766,15 +2745,15 @@
       </c>
       <c r="W25" s="4">
         <f t="shared" si="14"/>
-        <v>0.7</v>
+        <v>0.57000000000000006</v>
       </c>
       <c r="X25" s="4">
         <f t="shared" ca="1" si="15"/>
-        <v>0.43749999999999994</v>
+        <v>0.96283783783783783</v>
       </c>
       <c r="Y25" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>0</v>
+        <v>3.081081081081084E-2</v>
       </c>
       <c r="Z25" s="4">
         <f t="shared" ca="1" si="17"/>
@@ -2782,40 +2761,40 @@
       </c>
       <c r="AA25" s="4">
         <f t="shared" ca="1" si="18"/>
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="26" spans="2:27" s="67" customFormat="1" x14ac:dyDescent="0.25">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="26" spans="2:27" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B26" s="90"/>
-      <c r="C26" s="58">
+      <c r="C26" s="56">
         <v>8</v>
       </c>
-      <c r="D26" s="17" t="s">
+      <c r="D26" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="E26" s="65"/>
-      <c r="F26" s="66"/>
-      <c r="G26" s="30"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="31"/>
-      <c r="J26" s="77" t="str">
+      <c r="E26" s="63"/>
+      <c r="F26" s="64"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="75" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
-      <c r="K26" s="78">
+      <c r="K26" s="76">
         <f t="shared" ca="1" si="2"/>
-        <v>0.3</v>
-      </c>
-      <c r="L26" s="34"/>
-      <c r="M26" s="46">
+        <v>0.43</v>
+      </c>
+      <c r="L26" s="32"/>
+      <c r="M26" s="44">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N26" s="68">
+      <c r="N26" s="66">
         <f t="array" ref="N26">SUM(G26:I26/$G$17:$I$17*$G$16:$I$16)</f>
         <v>0</v>
       </c>
-      <c r="O26" s="68">
+      <c r="O26" s="66">
         <f t="shared" si="6"/>
         <v>0.25</v>
       </c>
@@ -2825,11 +2804,11 @@
       </c>
       <c r="Q26" s="4">
         <f t="shared" si="8"/>
-        <v>0.6</v>
+        <v>0.86</v>
       </c>
       <c r="R26" s="4">
         <f t="shared" si="9"/>
-        <v>0.3</v>
+        <v>0.43</v>
       </c>
       <c r="S26" s="4">
         <f t="shared" si="10"/>
@@ -2837,11 +2816,11 @@
       </c>
       <c r="T26" s="4">
         <f t="shared" si="11"/>
-        <v>0.3</v>
+        <v>0.43</v>
       </c>
       <c r="U26" s="4">
         <f t="shared" si="12"/>
-        <v>0.3</v>
+        <v>0.43</v>
       </c>
       <c r="V26" s="4">
         <f t="shared" si="13"/>
@@ -2849,15 +2828,15 @@
       </c>
       <c r="W26" s="4">
         <f t="shared" si="14"/>
-        <v>0.7</v>
+        <v>0.57000000000000006</v>
       </c>
       <c r="X26" s="4">
         <f t="shared" ca="1" si="15"/>
-        <v>0.43749999999999994</v>
+        <v>0.96283783783783783</v>
       </c>
       <c r="Y26" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>0</v>
+        <v>3.081081081081084E-2</v>
       </c>
       <c r="Z26" s="4">
         <f t="shared" ca="1" si="17"/>
@@ -2865,40 +2844,40 @@
       </c>
       <c r="AA26" s="4">
         <f t="shared" ca="1" si="18"/>
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="27" spans="2:27" s="67" customFormat="1" x14ac:dyDescent="0.25">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="27" spans="2:27" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B27" s="90"/>
-      <c r="C27" s="58">
+      <c r="C27" s="56">
         <v>9</v>
       </c>
-      <c r="D27" s="17" t="s">
+      <c r="D27" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="E27" s="65"/>
-      <c r="F27" s="66"/>
-      <c r="G27" s="30"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="31"/>
-      <c r="J27" s="77" t="str">
+      <c r="E27" s="63"/>
+      <c r="F27" s="64"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="75" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
-      <c r="K27" s="78">
+      <c r="K27" s="76">
         <f t="shared" ca="1" si="2"/>
-        <v>0.3</v>
-      </c>
-      <c r="L27" s="34"/>
-      <c r="M27" s="46">
+        <v>0.43</v>
+      </c>
+      <c r="L27" s="32"/>
+      <c r="M27" s="44">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N27" s="68">
+      <c r="N27" s="66">
         <f t="array" ref="N27">SUM(G27:I27/$G$17:$I$17*$G$16:$I$16)</f>
         <v>0</v>
       </c>
-      <c r="O27" s="68">
+      <c r="O27" s="66">
         <f t="shared" si="6"/>
         <v>0.25</v>
       </c>
@@ -2908,11 +2887,11 @@
       </c>
       <c r="Q27" s="4">
         <f t="shared" si="8"/>
-        <v>0.6</v>
+        <v>0.86</v>
       </c>
       <c r="R27" s="4">
         <f t="shared" si="9"/>
-        <v>0.3</v>
+        <v>0.43</v>
       </c>
       <c r="S27" s="4">
         <f t="shared" si="10"/>
@@ -2920,11 +2899,11 @@
       </c>
       <c r="T27" s="4">
         <f t="shared" si="11"/>
-        <v>0.3</v>
+        <v>0.43</v>
       </c>
       <c r="U27" s="4">
         <f t="shared" si="12"/>
-        <v>0.3</v>
+        <v>0.43</v>
       </c>
       <c r="V27" s="4">
         <f t="shared" si="13"/>
@@ -2932,15 +2911,15 @@
       </c>
       <c r="W27" s="4">
         <f t="shared" si="14"/>
-        <v>0.7</v>
+        <v>0.57000000000000006</v>
       </c>
       <c r="X27" s="4">
         <f t="shared" ca="1" si="15"/>
-        <v>0.43749999999999994</v>
+        <v>0.96283783783783783</v>
       </c>
       <c r="Y27" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>0</v>
+        <v>3.081081081081084E-2</v>
       </c>
       <c r="Z27" s="4">
         <f t="shared" ca="1" si="17"/>
@@ -2948,40 +2927,40 @@
       </c>
       <c r="AA27" s="4">
         <f t="shared" ca="1" si="18"/>
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="28" spans="2:27" s="67" customFormat="1" x14ac:dyDescent="0.25">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="28" spans="2:27" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B28" s="90"/>
-      <c r="C28" s="58">
+      <c r="C28" s="56">
         <v>10</v>
       </c>
-      <c r="D28" s="17" t="s">
+      <c r="D28" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="E28" s="65"/>
-      <c r="F28" s="66"/>
-      <c r="G28" s="30"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="31"/>
-      <c r="J28" s="77" t="str">
+      <c r="E28" s="63"/>
+      <c r="F28" s="64"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="29"/>
+      <c r="J28" s="75" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
-      <c r="K28" s="78">
+      <c r="K28" s="76">
         <f t="shared" ca="1" si="2"/>
-        <v>0.3</v>
-      </c>
-      <c r="L28" s="34"/>
-      <c r="M28" s="46">
+        <v>0.43</v>
+      </c>
+      <c r="L28" s="32"/>
+      <c r="M28" s="44">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N28" s="68">
+      <c r="N28" s="66">
         <f t="array" ref="N28">SUM(G28:I28/$G$17:$I$17*$G$16:$I$16)</f>
         <v>0</v>
       </c>
-      <c r="O28" s="68">
+      <c r="O28" s="66">
         <f t="shared" si="6"/>
         <v>0.25</v>
       </c>
@@ -2991,11 +2970,11 @@
       </c>
       <c r="Q28" s="4">
         <f t="shared" si="8"/>
-        <v>0.6</v>
+        <v>0.86</v>
       </c>
       <c r="R28" s="4">
         <f t="shared" si="9"/>
-        <v>0.3</v>
+        <v>0.43</v>
       </c>
       <c r="S28" s="4">
         <f t="shared" si="10"/>
@@ -3003,11 +2982,11 @@
       </c>
       <c r="T28" s="4">
         <f t="shared" si="11"/>
-        <v>0.3</v>
+        <v>0.43</v>
       </c>
       <c r="U28" s="4">
         <f t="shared" si="12"/>
-        <v>0.3</v>
+        <v>0.43</v>
       </c>
       <c r="V28" s="4">
         <f t="shared" si="13"/>
@@ -3015,15 +2994,15 @@
       </c>
       <c r="W28" s="4">
         <f t="shared" si="14"/>
-        <v>0.7</v>
+        <v>0.57000000000000006</v>
       </c>
       <c r="X28" s="4">
         <f t="shared" ca="1" si="15"/>
-        <v>0.43749999999999994</v>
+        <v>0.96283783783783783</v>
       </c>
       <c r="Y28" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>0</v>
+        <v>3.081081081081084E-2</v>
       </c>
       <c r="Z28" s="4">
         <f t="shared" ca="1" si="17"/>
@@ -3031,40 +3010,40 @@
       </c>
       <c r="AA28" s="4">
         <f t="shared" ca="1" si="18"/>
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="29" spans="2:27" s="67" customFormat="1" x14ac:dyDescent="0.25">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="29" spans="2:27" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B29" s="90"/>
-      <c r="C29" s="58">
+      <c r="C29" s="56">
         <v>11</v>
       </c>
-      <c r="D29" s="17" t="s">
+      <c r="D29" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="E29" s="65"/>
-      <c r="F29" s="66"/>
-      <c r="G29" s="30"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="31"/>
-      <c r="J29" s="77" t="str">
+      <c r="E29" s="63"/>
+      <c r="F29" s="64"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="29"/>
+      <c r="J29" s="75" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
-      <c r="K29" s="78">
+      <c r="K29" s="76">
         <f t="shared" ca="1" si="2"/>
-        <v>0.3</v>
-      </c>
-      <c r="L29" s="34"/>
-      <c r="M29" s="46">
+        <v>0.43</v>
+      </c>
+      <c r="L29" s="32"/>
+      <c r="M29" s="44">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N29" s="68">
+      <c r="N29" s="66">
         <f t="array" ref="N29">SUM(G29:I29/$G$17:$I$17*$G$16:$I$16)</f>
         <v>0</v>
       </c>
-      <c r="O29" s="68">
+      <c r="O29" s="66">
         <f t="shared" si="6"/>
         <v>0.25</v>
       </c>
@@ -3074,11 +3053,11 @@
       </c>
       <c r="Q29" s="4">
         <f t="shared" si="8"/>
-        <v>0.6</v>
+        <v>0.86</v>
       </c>
       <c r="R29" s="4">
         <f t="shared" si="9"/>
-        <v>0.3</v>
+        <v>0.43</v>
       </c>
       <c r="S29" s="4">
         <f t="shared" si="10"/>
@@ -3086,11 +3065,11 @@
       </c>
       <c r="T29" s="4">
         <f t="shared" si="11"/>
-        <v>0.3</v>
+        <v>0.43</v>
       </c>
       <c r="U29" s="4">
         <f t="shared" si="12"/>
-        <v>0.3</v>
+        <v>0.43</v>
       </c>
       <c r="V29" s="4">
         <f t="shared" si="13"/>
@@ -3098,15 +3077,15 @@
       </c>
       <c r="W29" s="4">
         <f t="shared" si="14"/>
-        <v>0.7</v>
+        <v>0.57000000000000006</v>
       </c>
       <c r="X29" s="4">
         <f t="shared" ca="1" si="15"/>
-        <v>0.43749999999999994</v>
+        <v>0.96283783783783783</v>
       </c>
       <c r="Y29" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>0</v>
+        <v>3.081081081081084E-2</v>
       </c>
       <c r="Z29" s="4">
         <f t="shared" ca="1" si="17"/>
@@ -3114,40 +3093,40 @@
       </c>
       <c r="AA29" s="4">
         <f t="shared" ca="1" si="18"/>
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="30" spans="2:27" s="67" customFormat="1" x14ac:dyDescent="0.25">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="30" spans="2:27" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B30" s="90"/>
-      <c r="C30" s="58">
+      <c r="C30" s="56">
         <v>12</v>
       </c>
-      <c r="D30" s="17" t="s">
+      <c r="D30" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="E30" s="65"/>
-      <c r="F30" s="66"/>
-      <c r="G30" s="30"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="31"/>
-      <c r="J30" s="77" t="str">
+      <c r="E30" s="63"/>
+      <c r="F30" s="64"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="29"/>
+      <c r="J30" s="75" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
-      <c r="K30" s="78">
+      <c r="K30" s="76">
         <f t="shared" ca="1" si="2"/>
-        <v>0.3</v>
-      </c>
-      <c r="L30" s="34"/>
-      <c r="M30" s="46">
+        <v>0.43</v>
+      </c>
+      <c r="L30" s="32"/>
+      <c r="M30" s="44">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N30" s="68">
+      <c r="N30" s="66">
         <f t="array" ref="N30">SUM(G30:I30/$G$17:$I$17*$G$16:$I$16)</f>
         <v>0</v>
       </c>
-      <c r="O30" s="68">
+      <c r="O30" s="66">
         <f t="shared" si="6"/>
         <v>0.25</v>
       </c>
@@ -3157,11 +3136,11 @@
       </c>
       <c r="Q30" s="4">
         <f t="shared" si="8"/>
-        <v>0.6</v>
+        <v>0.86</v>
       </c>
       <c r="R30" s="4">
         <f t="shared" si="9"/>
-        <v>0.3</v>
+        <v>0.43</v>
       </c>
       <c r="S30" s="4">
         <f t="shared" si="10"/>
@@ -3169,11 +3148,11 @@
       </c>
       <c r="T30" s="4">
         <f t="shared" si="11"/>
-        <v>0.3</v>
+        <v>0.43</v>
       </c>
       <c r="U30" s="4">
         <f t="shared" si="12"/>
-        <v>0.3</v>
+        <v>0.43</v>
       </c>
       <c r="V30" s="4">
         <f t="shared" si="13"/>
@@ -3181,15 +3160,15 @@
       </c>
       <c r="W30" s="4">
         <f t="shared" si="14"/>
-        <v>0.7</v>
+        <v>0.57000000000000006</v>
       </c>
       <c r="X30" s="4">
         <f t="shared" ca="1" si="15"/>
-        <v>0.43749999999999994</v>
+        <v>0.96283783783783783</v>
       </c>
       <c r="Y30" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>0</v>
+        <v>3.081081081081084E-2</v>
       </c>
       <c r="Z30" s="4">
         <f t="shared" ca="1" si="17"/>
@@ -3197,40 +3176,40 @@
       </c>
       <c r="AA30" s="4">
         <f t="shared" ca="1" si="18"/>
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="31" spans="2:27" s="67" customFormat="1" x14ac:dyDescent="0.25">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="31" spans="2:27" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B31" s="90"/>
-      <c r="C31" s="58">
+      <c r="C31" s="56">
         <v>13</v>
       </c>
-      <c r="D31" s="17" t="s">
+      <c r="D31" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="E31" s="65"/>
-      <c r="F31" s="66"/>
-      <c r="G31" s="30"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="31"/>
-      <c r="J31" s="77" t="str">
+      <c r="E31" s="63"/>
+      <c r="F31" s="64"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="29"/>
+      <c r="J31" s="75" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
-      <c r="K31" s="78">
+      <c r="K31" s="76">
         <f t="shared" ca="1" si="2"/>
-        <v>0.3</v>
-      </c>
-      <c r="L31" s="34"/>
-      <c r="M31" s="46">
+        <v>0.43</v>
+      </c>
+      <c r="L31" s="32"/>
+      <c r="M31" s="44">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N31" s="68">
+      <c r="N31" s="66">
         <f t="array" ref="N31">SUM(G31:I31/$G$17:$I$17*$G$16:$I$16)</f>
         <v>0</v>
       </c>
-      <c r="O31" s="68">
+      <c r="O31" s="66">
         <f t="shared" si="6"/>
         <v>0.25</v>
       </c>
@@ -3240,11 +3219,11 @@
       </c>
       <c r="Q31" s="4">
         <f t="shared" si="8"/>
-        <v>0.6</v>
+        <v>0.86</v>
       </c>
       <c r="R31" s="4">
         <f t="shared" si="9"/>
-        <v>0.3</v>
+        <v>0.43</v>
       </c>
       <c r="S31" s="4">
         <f t="shared" si="10"/>
@@ -3252,11 +3231,11 @@
       </c>
       <c r="T31" s="4">
         <f t="shared" si="11"/>
-        <v>0.3</v>
+        <v>0.43</v>
       </c>
       <c r="U31" s="4">
         <f t="shared" si="12"/>
-        <v>0.3</v>
+        <v>0.43</v>
       </c>
       <c r="V31" s="4">
         <f t="shared" si="13"/>
@@ -3264,15 +3243,15 @@
       </c>
       <c r="W31" s="4">
         <f t="shared" si="14"/>
-        <v>0.7</v>
+        <v>0.57000000000000006</v>
       </c>
       <c r="X31" s="4">
         <f t="shared" ca="1" si="15"/>
-        <v>0.43749999999999994</v>
+        <v>0.96283783783783783</v>
       </c>
       <c r="Y31" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>0</v>
+        <v>3.081081081081084E-2</v>
       </c>
       <c r="Z31" s="4">
         <f t="shared" ca="1" si="17"/>
@@ -3280,40 +3259,40 @@
       </c>
       <c r="AA31" s="4">
         <f t="shared" ca="1" si="18"/>
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="32" spans="2:27" s="67" customFormat="1" x14ac:dyDescent="0.25">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="32" spans="2:27" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B32" s="90"/>
-      <c r="C32" s="58">
+      <c r="C32" s="56">
         <v>14</v>
       </c>
-      <c r="D32" s="17" t="s">
+      <c r="D32" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="E32" s="65"/>
-      <c r="F32" s="66"/>
-      <c r="G32" s="30"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="31"/>
-      <c r="J32" s="77" t="str">
+      <c r="E32" s="63"/>
+      <c r="F32" s="64"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="29"/>
+      <c r="J32" s="75" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
-      <c r="K32" s="78">
+      <c r="K32" s="76">
         <f t="shared" ca="1" si="2"/>
-        <v>0.3</v>
-      </c>
-      <c r="L32" s="34"/>
-      <c r="M32" s="46">
+        <v>0.43</v>
+      </c>
+      <c r="L32" s="32"/>
+      <c r="M32" s="44">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N32" s="68">
+      <c r="N32" s="66">
         <f t="array" ref="N32">SUM(G32:I32/$G$17:$I$17*$G$16:$I$16)</f>
         <v>0</v>
       </c>
-      <c r="O32" s="68">
+      <c r="O32" s="66">
         <f t="shared" si="6"/>
         <v>0.25</v>
       </c>
@@ -3323,11 +3302,11 @@
       </c>
       <c r="Q32" s="4">
         <f t="shared" si="8"/>
-        <v>0.6</v>
+        <v>0.86</v>
       </c>
       <c r="R32" s="4">
         <f t="shared" si="9"/>
-        <v>0.3</v>
+        <v>0.43</v>
       </c>
       <c r="S32" s="4">
         <f t="shared" si="10"/>
@@ -3335,11 +3314,11 @@
       </c>
       <c r="T32" s="4">
         <f t="shared" si="11"/>
-        <v>0.3</v>
+        <v>0.43</v>
       </c>
       <c r="U32" s="4">
         <f t="shared" si="12"/>
-        <v>0.3</v>
+        <v>0.43</v>
       </c>
       <c r="V32" s="4">
         <f t="shared" si="13"/>
@@ -3347,15 +3326,15 @@
       </c>
       <c r="W32" s="4">
         <f t="shared" si="14"/>
-        <v>0.7</v>
+        <v>0.57000000000000006</v>
       </c>
       <c r="X32" s="4">
         <f t="shared" ca="1" si="15"/>
-        <v>0.43749999999999994</v>
+        <v>0.96283783783783783</v>
       </c>
       <c r="Y32" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>0</v>
+        <v>3.081081081081084E-2</v>
       </c>
       <c r="Z32" s="4">
         <f t="shared" ca="1" si="17"/>
@@ -3363,40 +3342,40 @@
       </c>
       <c r="AA32" s="4">
         <f t="shared" ca="1" si="18"/>
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:27" s="67" customFormat="1" x14ac:dyDescent="0.25">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B33" s="90"/>
-      <c r="C33" s="58">
+      <c r="C33" s="56">
         <v>15</v>
       </c>
-      <c r="D33" s="17" t="s">
+      <c r="D33" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="E33" s="65"/>
-      <c r="F33" s="66"/>
-      <c r="G33" s="30"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="77" t="str">
+      <c r="E33" s="63"/>
+      <c r="F33" s="64"/>
+      <c r="G33" s="28"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="29"/>
+      <c r="J33" s="75" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
-      <c r="K33" s="78">
+      <c r="K33" s="76">
         <f t="shared" ca="1" si="2"/>
-        <v>0.3</v>
-      </c>
-      <c r="L33" s="34"/>
-      <c r="M33" s="46">
+        <v>0.43</v>
+      </c>
+      <c r="L33" s="32"/>
+      <c r="M33" s="44">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N33" s="68">
+      <c r="N33" s="66">
         <f t="array" ref="N33">SUM(G33:I33/$G$17:$I$17*$G$16:$I$16)</f>
         <v>0</v>
       </c>
-      <c r="O33" s="68">
+      <c r="O33" s="66">
         <f t="shared" si="6"/>
         <v>0.25</v>
       </c>
@@ -3406,11 +3385,11 @@
       </c>
       <c r="Q33" s="4">
         <f t="shared" si="8"/>
-        <v>0.6</v>
+        <v>0.86</v>
       </c>
       <c r="R33" s="4">
         <f t="shared" si="9"/>
-        <v>0.3</v>
+        <v>0.43</v>
       </c>
       <c r="S33" s="4">
         <f t="shared" si="10"/>
@@ -3418,11 +3397,11 @@
       </c>
       <c r="T33" s="4">
         <f t="shared" si="11"/>
-        <v>0.3</v>
+        <v>0.43</v>
       </c>
       <c r="U33" s="4">
         <f t="shared" si="12"/>
-        <v>0.3</v>
+        <v>0.43</v>
       </c>
       <c r="V33" s="4">
         <f t="shared" si="13"/>
@@ -3430,15 +3409,15 @@
       </c>
       <c r="W33" s="4">
         <f t="shared" si="14"/>
-        <v>0.7</v>
+        <v>0.57000000000000006</v>
       </c>
       <c r="X33" s="4">
         <f t="shared" ca="1" si="15"/>
-        <v>0.43749999999999994</v>
+        <v>0.96283783783783783</v>
       </c>
       <c r="Y33" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>0</v>
+        <v>3.081081081081084E-2</v>
       </c>
       <c r="Z33" s="4">
         <f t="shared" ca="1" si="17"/>
@@ -3446,40 +3425,40 @@
       </c>
       <c r="AA33" s="4">
         <f t="shared" ca="1" si="18"/>
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:27" s="67" customFormat="1" x14ac:dyDescent="0.25">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="34" spans="2:27" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B34" s="90"/>
-      <c r="C34" s="58">
+      <c r="C34" s="56">
         <v>16</v>
       </c>
-      <c r="D34" s="17" t="s">
+      <c r="D34" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="E34" s="65"/>
-      <c r="F34" s="66"/>
-      <c r="G34" s="30"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="31"/>
-      <c r="J34" s="77" t="str">
+      <c r="E34" s="63"/>
+      <c r="F34" s="64"/>
+      <c r="G34" s="28"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="29"/>
+      <c r="J34" s="75" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
-      <c r="K34" s="78">
+      <c r="K34" s="76">
         <f t="shared" ca="1" si="2"/>
-        <v>0.3</v>
-      </c>
-      <c r="L34" s="34"/>
-      <c r="M34" s="46">
+        <v>0.43</v>
+      </c>
+      <c r="L34" s="32"/>
+      <c r="M34" s="44">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N34" s="68">
+      <c r="N34" s="66">
         <f t="array" ref="N34">SUM(G34:I34/$G$17:$I$17*$G$16:$I$16)</f>
         <v>0</v>
       </c>
-      <c r="O34" s="68">
+      <c r="O34" s="66">
         <f t="shared" si="6"/>
         <v>0.25</v>
       </c>
@@ -3489,11 +3468,11 @@
       </c>
       <c r="Q34" s="4">
         <f t="shared" si="8"/>
-        <v>0.6</v>
+        <v>0.86</v>
       </c>
       <c r="R34" s="4">
         <f t="shared" si="9"/>
-        <v>0.3</v>
+        <v>0.43</v>
       </c>
       <c r="S34" s="4">
         <f t="shared" si="10"/>
@@ -3501,11 +3480,11 @@
       </c>
       <c r="T34" s="4">
         <f t="shared" si="11"/>
-        <v>0.3</v>
+        <v>0.43</v>
       </c>
       <c r="U34" s="4">
         <f t="shared" si="12"/>
-        <v>0.3</v>
+        <v>0.43</v>
       </c>
       <c r="V34" s="4">
         <f t="shared" si="13"/>
@@ -3513,15 +3492,15 @@
       </c>
       <c r="W34" s="4">
         <f t="shared" si="14"/>
-        <v>0.7</v>
+        <v>0.57000000000000006</v>
       </c>
       <c r="X34" s="4">
         <f t="shared" ca="1" si="15"/>
-        <v>0.43749999999999994</v>
+        <v>0.96283783783783783</v>
       </c>
       <c r="Y34" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>0</v>
+        <v>3.081081081081084E-2</v>
       </c>
       <c r="Z34" s="4">
         <f t="shared" ca="1" si="17"/>
@@ -3529,40 +3508,40 @@
       </c>
       <c r="AA34" s="4">
         <f t="shared" ca="1" si="18"/>
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="35" spans="2:27" s="67" customFormat="1" x14ac:dyDescent="0.25">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B35" s="90"/>
-      <c r="C35" s="58">
+      <c r="C35" s="56">
         <v>17</v>
       </c>
-      <c r="D35" s="17" t="s">
+      <c r="D35" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="E35" s="65"/>
-      <c r="F35" s="66"/>
-      <c r="G35" s="30"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="31"/>
-      <c r="J35" s="77" t="str">
+      <c r="E35" s="63"/>
+      <c r="F35" s="64"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="29"/>
+      <c r="J35" s="75" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
-      <c r="K35" s="78">
+      <c r="K35" s="76">
         <f t="shared" ca="1" si="2"/>
-        <v>0.3</v>
-      </c>
-      <c r="L35" s="34"/>
-      <c r="M35" s="46">
+        <v>0.43</v>
+      </c>
+      <c r="L35" s="32"/>
+      <c r="M35" s="44">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N35" s="68">
+      <c r="N35" s="66">
         <f t="array" ref="N35">SUM(G35:I35/$G$17:$I$17*$G$16:$I$16)</f>
         <v>0</v>
       </c>
-      <c r="O35" s="68">
+      <c r="O35" s="66">
         <f t="shared" si="6"/>
         <v>0.25</v>
       </c>
@@ -3572,11 +3551,11 @@
       </c>
       <c r="Q35" s="4">
         <f t="shared" si="8"/>
-        <v>0.6</v>
+        <v>0.86</v>
       </c>
       <c r="R35" s="4">
         <f t="shared" si="9"/>
-        <v>0.3</v>
+        <v>0.43</v>
       </c>
       <c r="S35" s="4">
         <f t="shared" si="10"/>
@@ -3584,11 +3563,11 @@
       </c>
       <c r="T35" s="4">
         <f t="shared" si="11"/>
-        <v>0.3</v>
+        <v>0.43</v>
       </c>
       <c r="U35" s="4">
         <f t="shared" si="12"/>
-        <v>0.3</v>
+        <v>0.43</v>
       </c>
       <c r="V35" s="4">
         <f t="shared" si="13"/>
@@ -3596,15 +3575,15 @@
       </c>
       <c r="W35" s="4">
         <f t="shared" si="14"/>
-        <v>0.7</v>
+        <v>0.57000000000000006</v>
       </c>
       <c r="X35" s="4">
         <f t="shared" ca="1" si="15"/>
-        <v>0.43749999999999994</v>
+        <v>0.96283783783783783</v>
       </c>
       <c r="Y35" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>0</v>
+        <v>3.081081081081084E-2</v>
       </c>
       <c r="Z35" s="4">
         <f t="shared" ca="1" si="17"/>
@@ -3612,40 +3591,40 @@
       </c>
       <c r="AA35" s="4">
         <f t="shared" ca="1" si="18"/>
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="36" spans="2:27" s="67" customFormat="1" x14ac:dyDescent="0.25">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="36" spans="2:27" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B36" s="90"/>
-      <c r="C36" s="58">
+      <c r="C36" s="56">
         <v>18</v>
       </c>
-      <c r="D36" s="17" t="s">
+      <c r="D36" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="E36" s="65"/>
-      <c r="F36" s="66"/>
-      <c r="G36" s="30"/>
-      <c r="H36" s="8"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="77" t="str">
+      <c r="E36" s="63"/>
+      <c r="F36" s="64"/>
+      <c r="G36" s="28"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="29"/>
+      <c r="J36" s="75" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
-      <c r="K36" s="78">
+      <c r="K36" s="76">
         <f t="shared" ca="1" si="2"/>
-        <v>0.3</v>
-      </c>
-      <c r="L36" s="34"/>
-      <c r="M36" s="46">
+        <v>0.43</v>
+      </c>
+      <c r="L36" s="32"/>
+      <c r="M36" s="44">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N36" s="68">
+      <c r="N36" s="66">
         <f t="array" ref="N36">SUM(G36:I36/$G$17:$I$17*$G$16:$I$16)</f>
         <v>0</v>
       </c>
-      <c r="O36" s="68">
+      <c r="O36" s="66">
         <f t="shared" si="6"/>
         <v>0.25</v>
       </c>
@@ -3655,11 +3634,11 @@
       </c>
       <c r="Q36" s="4">
         <f t="shared" si="8"/>
-        <v>0.6</v>
+        <v>0.86</v>
       </c>
       <c r="R36" s="4">
         <f t="shared" si="9"/>
-        <v>0.3</v>
+        <v>0.43</v>
       </c>
       <c r="S36" s="4">
         <f t="shared" si="10"/>
@@ -3667,11 +3646,11 @@
       </c>
       <c r="T36" s="4">
         <f t="shared" si="11"/>
-        <v>0.3</v>
+        <v>0.43</v>
       </c>
       <c r="U36" s="4">
         <f t="shared" si="12"/>
-        <v>0.3</v>
+        <v>0.43</v>
       </c>
       <c r="V36" s="4">
         <f t="shared" si="13"/>
@@ -3679,15 +3658,15 @@
       </c>
       <c r="W36" s="4">
         <f t="shared" si="14"/>
-        <v>0.7</v>
+        <v>0.57000000000000006</v>
       </c>
       <c r="X36" s="4">
         <f t="shared" ca="1" si="15"/>
-        <v>0.43749999999999994</v>
+        <v>0.96283783783783783</v>
       </c>
       <c r="Y36" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>0</v>
+        <v>3.081081081081084E-2</v>
       </c>
       <c r="Z36" s="4">
         <f t="shared" ca="1" si="17"/>
@@ -3695,40 +3674,40 @@
       </c>
       <c r="AA36" s="4">
         <f t="shared" ca="1" si="18"/>
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:27" s="67" customFormat="1" x14ac:dyDescent="0.25">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="37" spans="2:27" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B37" s="90"/>
-      <c r="C37" s="58">
+      <c r="C37" s="56">
         <v>19</v>
       </c>
-      <c r="D37" s="17" t="s">
+      <c r="D37" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="E37" s="65"/>
-      <c r="F37" s="66"/>
-      <c r="G37" s="30"/>
-      <c r="H37" s="8"/>
-      <c r="I37" s="31"/>
-      <c r="J37" s="77" t="str">
+      <c r="E37" s="63"/>
+      <c r="F37" s="64"/>
+      <c r="G37" s="28"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="29"/>
+      <c r="J37" s="75" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
-      <c r="K37" s="78">
+      <c r="K37" s="76">
         <f t="shared" ca="1" si="2"/>
-        <v>0.3</v>
-      </c>
-      <c r="L37" s="34"/>
-      <c r="M37" s="46">
+        <v>0.43</v>
+      </c>
+      <c r="L37" s="32"/>
+      <c r="M37" s="44">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N37" s="68">
+      <c r="N37" s="66">
         <f t="array" ref="N37">SUM(G37:I37/$G$17:$I$17*$G$16:$I$16)</f>
         <v>0</v>
       </c>
-      <c r="O37" s="68">
+      <c r="O37" s="66">
         <f t="shared" si="6"/>
         <v>0.25</v>
       </c>
@@ -3738,11 +3717,11 @@
       </c>
       <c r="Q37" s="4">
         <f t="shared" si="8"/>
-        <v>0.6</v>
+        <v>0.86</v>
       </c>
       <c r="R37" s="4">
         <f t="shared" si="9"/>
-        <v>0.3</v>
+        <v>0.43</v>
       </c>
       <c r="S37" s="4">
         <f t="shared" si="10"/>
@@ -3750,11 +3729,11 @@
       </c>
       <c r="T37" s="4">
         <f t="shared" si="11"/>
-        <v>0.3</v>
+        <v>0.43</v>
       </c>
       <c r="U37" s="4">
         <f t="shared" si="12"/>
-        <v>0.3</v>
+        <v>0.43</v>
       </c>
       <c r="V37" s="4">
         <f t="shared" si="13"/>
@@ -3762,15 +3741,15 @@
       </c>
       <c r="W37" s="4">
         <f t="shared" si="14"/>
-        <v>0.7</v>
+        <v>0.57000000000000006</v>
       </c>
       <c r="X37" s="4">
         <f t="shared" ca="1" si="15"/>
-        <v>0.43749999999999994</v>
+        <v>0.96283783783783783</v>
       </c>
       <c r="Y37" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>0</v>
+        <v>3.081081081081084E-2</v>
       </c>
       <c r="Z37" s="4">
         <f t="shared" ca="1" si="17"/>
@@ -3778,40 +3757,40 @@
       </c>
       <c r="AA37" s="4">
         <f t="shared" ca="1" si="18"/>
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="38" spans="2:27" s="67" customFormat="1" x14ac:dyDescent="0.25">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="38" spans="2:27" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B38" s="90"/>
-      <c r="C38" s="58">
+      <c r="C38" s="56">
         <v>20</v>
       </c>
-      <c r="D38" s="17" t="s">
+      <c r="D38" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="E38" s="65"/>
-      <c r="F38" s="66"/>
-      <c r="G38" s="30"/>
-      <c r="H38" s="8"/>
-      <c r="I38" s="31"/>
-      <c r="J38" s="77" t="str">
+      <c r="E38" s="63"/>
+      <c r="F38" s="64"/>
+      <c r="G38" s="28"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="29"/>
+      <c r="J38" s="75" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
-      <c r="K38" s="78">
+      <c r="K38" s="76">
         <f t="shared" ca="1" si="2"/>
-        <v>0.3</v>
-      </c>
-      <c r="L38" s="34"/>
-      <c r="M38" s="46">
+        <v>0.43</v>
+      </c>
+      <c r="L38" s="32"/>
+      <c r="M38" s="44">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N38" s="68">
+      <c r="N38" s="66">
         <f t="array" ref="N38">SUM(G38:I38/$G$17:$I$17*$G$16:$I$16)</f>
         <v>0</v>
       </c>
-      <c r="O38" s="68">
+      <c r="O38" s="66">
         <f t="shared" si="6"/>
         <v>0.25</v>
       </c>
@@ -3821,11 +3800,11 @@
       </c>
       <c r="Q38" s="4">
         <f t="shared" si="8"/>
-        <v>0.6</v>
+        <v>0.86</v>
       </c>
       <c r="R38" s="4">
         <f t="shared" si="9"/>
-        <v>0.3</v>
+        <v>0.43</v>
       </c>
       <c r="S38" s="4">
         <f t="shared" si="10"/>
@@ -3833,11 +3812,11 @@
       </c>
       <c r="T38" s="4">
         <f t="shared" si="11"/>
-        <v>0.3</v>
+        <v>0.43</v>
       </c>
       <c r="U38" s="4">
         <f t="shared" si="12"/>
-        <v>0.3</v>
+        <v>0.43</v>
       </c>
       <c r="V38" s="4">
         <f t="shared" si="13"/>
@@ -3845,15 +3824,15 @@
       </c>
       <c r="W38" s="4">
         <f t="shared" si="14"/>
-        <v>0.7</v>
+        <v>0.57000000000000006</v>
       </c>
       <c r="X38" s="4">
         <f t="shared" ca="1" si="15"/>
-        <v>0.43749999999999994</v>
+        <v>0.96283783783783783</v>
       </c>
       <c r="Y38" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>0</v>
+        <v>3.081081081081084E-2</v>
       </c>
       <c r="Z38" s="4">
         <f t="shared" ca="1" si="17"/>
@@ -3861,40 +3840,40 @@
       </c>
       <c r="AA38" s="4">
         <f t="shared" ca="1" si="18"/>
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:27" s="67" customFormat="1" x14ac:dyDescent="0.25">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="39" spans="2:27" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B39" s="90"/>
-      <c r="C39" s="58">
+      <c r="C39" s="56">
         <v>21</v>
       </c>
-      <c r="D39" s="17" t="s">
+      <c r="D39" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="E39" s="65"/>
-      <c r="F39" s="66"/>
-      <c r="G39" s="30"/>
-      <c r="H39" s="8"/>
-      <c r="I39" s="31"/>
-      <c r="J39" s="77" t="str">
+      <c r="E39" s="63"/>
+      <c r="F39" s="64"/>
+      <c r="G39" s="28"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="29"/>
+      <c r="J39" s="75" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
-      <c r="K39" s="78">
+      <c r="K39" s="76">
         <f t="shared" ca="1" si="2"/>
-        <v>0.3</v>
-      </c>
-      <c r="L39" s="34"/>
-      <c r="M39" s="46">
+        <v>0.43</v>
+      </c>
+      <c r="L39" s="32"/>
+      <c r="M39" s="44">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N39" s="68">
+      <c r="N39" s="66">
         <f t="array" ref="N39">SUM(G39:I39/$G$17:$I$17*$G$16:$I$16)</f>
         <v>0</v>
       </c>
-      <c r="O39" s="68">
+      <c r="O39" s="66">
         <f t="shared" si="6"/>
         <v>0.25</v>
       </c>
@@ -3904,11 +3883,11 @@
       </c>
       <c r="Q39" s="4">
         <f t="shared" si="8"/>
-        <v>0.6</v>
+        <v>0.86</v>
       </c>
       <c r="R39" s="4">
         <f t="shared" si="9"/>
-        <v>0.3</v>
+        <v>0.43</v>
       </c>
       <c r="S39" s="4">
         <f t="shared" si="10"/>
@@ -3916,11 +3895,11 @@
       </c>
       <c r="T39" s="4">
         <f t="shared" si="11"/>
-        <v>0.3</v>
+        <v>0.43</v>
       </c>
       <c r="U39" s="4">
         <f t="shared" si="12"/>
-        <v>0.3</v>
+        <v>0.43</v>
       </c>
       <c r="V39" s="4">
         <f t="shared" si="13"/>
@@ -3928,15 +3907,15 @@
       </c>
       <c r="W39" s="4">
         <f t="shared" si="14"/>
-        <v>0.7</v>
+        <v>0.57000000000000006</v>
       </c>
       <c r="X39" s="4">
         <f t="shared" ca="1" si="15"/>
-        <v>0.43749999999999994</v>
+        <v>0.96283783783783783</v>
       </c>
       <c r="Y39" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>0</v>
+        <v>3.081081081081084E-2</v>
       </c>
       <c r="Z39" s="4">
         <f t="shared" ca="1" si="17"/>
@@ -3944,40 +3923,40 @@
       </c>
       <c r="AA39" s="4">
         <f t="shared" ca="1" si="18"/>
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="40" spans="2:27" s="67" customFormat="1" x14ac:dyDescent="0.25">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="40" spans="2:27" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B40" s="90"/>
-      <c r="C40" s="58">
+      <c r="C40" s="56">
         <v>22</v>
       </c>
-      <c r="D40" s="17" t="s">
+      <c r="D40" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="E40" s="65"/>
-      <c r="F40" s="66"/>
-      <c r="G40" s="30"/>
-      <c r="H40" s="8"/>
-      <c r="I40" s="31"/>
-      <c r="J40" s="77" t="str">
+      <c r="E40" s="63"/>
+      <c r="F40" s="64"/>
+      <c r="G40" s="28"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="29"/>
+      <c r="J40" s="75" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
-      <c r="K40" s="78">
+      <c r="K40" s="76">
         <f t="shared" ca="1" si="2"/>
-        <v>0.3</v>
-      </c>
-      <c r="L40" s="34"/>
-      <c r="M40" s="46">
+        <v>0.43</v>
+      </c>
+      <c r="L40" s="32"/>
+      <c r="M40" s="44">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N40" s="68">
+      <c r="N40" s="66">
         <f t="array" ref="N40">SUM(G40:I40/$G$17:$I$17*$G$16:$I$16)</f>
         <v>0</v>
       </c>
-      <c r="O40" s="68">
+      <c r="O40" s="66">
         <f t="shared" si="6"/>
         <v>0.25</v>
       </c>
@@ -3987,11 +3966,11 @@
       </c>
       <c r="Q40" s="4">
         <f t="shared" si="8"/>
-        <v>0.6</v>
+        <v>0.86</v>
       </c>
       <c r="R40" s="4">
         <f t="shared" si="9"/>
-        <v>0.3</v>
+        <v>0.43</v>
       </c>
       <c r="S40" s="4">
         <f t="shared" si="10"/>
@@ -3999,11 +3978,11 @@
       </c>
       <c r="T40" s="4">
         <f t="shared" si="11"/>
-        <v>0.3</v>
+        <v>0.43</v>
       </c>
       <c r="U40" s="4">
         <f t="shared" si="12"/>
-        <v>0.3</v>
+        <v>0.43</v>
       </c>
       <c r="V40" s="4">
         <f t="shared" si="13"/>
@@ -4011,15 +3990,15 @@
       </c>
       <c r="W40" s="4">
         <f t="shared" si="14"/>
-        <v>0.7</v>
+        <v>0.57000000000000006</v>
       </c>
       <c r="X40" s="4">
         <f t="shared" ca="1" si="15"/>
-        <v>0.43749999999999994</v>
+        <v>0.96283783783783783</v>
       </c>
       <c r="Y40" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>0</v>
+        <v>3.081081081081084E-2</v>
       </c>
       <c r="Z40" s="4">
         <f t="shared" ca="1" si="17"/>
@@ -4027,40 +4006,40 @@
       </c>
       <c r="AA40" s="4">
         <f t="shared" ca="1" si="18"/>
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="41" spans="2:27" s="67" customFormat="1" x14ac:dyDescent="0.25">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="41" spans="2:27" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B41" s="90"/>
-      <c r="C41" s="58">
+      <c r="C41" s="56">
         <v>23</v>
       </c>
-      <c r="D41" s="17" t="s">
+      <c r="D41" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="E41" s="65"/>
-      <c r="F41" s="66"/>
-      <c r="G41" s="30"/>
-      <c r="H41" s="8"/>
-      <c r="I41" s="31"/>
-      <c r="J41" s="77" t="str">
+      <c r="E41" s="63"/>
+      <c r="F41" s="64"/>
+      <c r="G41" s="28"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="29"/>
+      <c r="J41" s="75" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
-      <c r="K41" s="78">
+      <c r="K41" s="76">
         <f t="shared" ca="1" si="2"/>
-        <v>0.3</v>
-      </c>
-      <c r="L41" s="34"/>
-      <c r="M41" s="46">
+        <v>0.43</v>
+      </c>
+      <c r="L41" s="32"/>
+      <c r="M41" s="44">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N41" s="68">
+      <c r="N41" s="66">
         <f t="array" ref="N41">SUM(G41:I41/$G$17:$I$17*$G$16:$I$16)</f>
         <v>0</v>
       </c>
-      <c r="O41" s="68">
+      <c r="O41" s="66">
         <f t="shared" si="6"/>
         <v>0.25</v>
       </c>
@@ -4070,11 +4049,11 @@
       </c>
       <c r="Q41" s="4">
         <f t="shared" si="8"/>
-        <v>0.6</v>
+        <v>0.86</v>
       </c>
       <c r="R41" s="4">
         <f t="shared" si="9"/>
-        <v>0.3</v>
+        <v>0.43</v>
       </c>
       <c r="S41" s="4">
         <f t="shared" si="10"/>
@@ -4082,11 +4061,11 @@
       </c>
       <c r="T41" s="4">
         <f t="shared" si="11"/>
-        <v>0.3</v>
+        <v>0.43</v>
       </c>
       <c r="U41" s="4">
         <f t="shared" si="12"/>
-        <v>0.3</v>
+        <v>0.43</v>
       </c>
       <c r="V41" s="4">
         <f t="shared" si="13"/>
@@ -4094,15 +4073,15 @@
       </c>
       <c r="W41" s="4">
         <f t="shared" si="14"/>
-        <v>0.7</v>
+        <v>0.57000000000000006</v>
       </c>
       <c r="X41" s="4">
         <f t="shared" ca="1" si="15"/>
-        <v>0.43749999999999994</v>
+        <v>0.96283783783783783</v>
       </c>
       <c r="Y41" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>0</v>
+        <v>3.081081081081084E-2</v>
       </c>
       <c r="Z41" s="4">
         <f t="shared" ca="1" si="17"/>
@@ -4110,40 +4089,40 @@
       </c>
       <c r="AA41" s="4">
         <f t="shared" ca="1" si="18"/>
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="42" spans="2:27" s="67" customFormat="1" x14ac:dyDescent="0.25">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="42" spans="2:27" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B42" s="90"/>
-      <c r="C42" s="58">
+      <c r="C42" s="56">
         <v>24</v>
       </c>
-      <c r="D42" s="17" t="s">
+      <c r="D42" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="E42" s="65"/>
-      <c r="F42" s="66"/>
-      <c r="G42" s="30"/>
-      <c r="H42" s="8"/>
-      <c r="I42" s="31"/>
-      <c r="J42" s="77" t="str">
+      <c r="E42" s="63"/>
+      <c r="F42" s="64"/>
+      <c r="G42" s="28"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="29"/>
+      <c r="J42" s="75" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
-      <c r="K42" s="78">
+      <c r="K42" s="76">
         <f t="shared" ca="1" si="2"/>
-        <v>0.3</v>
-      </c>
-      <c r="L42" s="34"/>
-      <c r="M42" s="46">
+        <v>0.43</v>
+      </c>
+      <c r="L42" s="32"/>
+      <c r="M42" s="44">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N42" s="68">
+      <c r="N42" s="66">
         <f t="array" ref="N42">SUM(G42:I42/$G$17:$I$17*$G$16:$I$16)</f>
         <v>0</v>
       </c>
-      <c r="O42" s="68">
+      <c r="O42" s="66">
         <f t="shared" si="6"/>
         <v>0.25</v>
       </c>
@@ -4153,11 +4132,11 @@
       </c>
       <c r="Q42" s="4">
         <f t="shared" si="8"/>
-        <v>0.6</v>
+        <v>0.86</v>
       </c>
       <c r="R42" s="4">
         <f t="shared" si="9"/>
-        <v>0.3</v>
+        <v>0.43</v>
       </c>
       <c r="S42" s="4">
         <f t="shared" si="10"/>
@@ -4165,11 +4144,11 @@
       </c>
       <c r="T42" s="4">
         <f t="shared" si="11"/>
-        <v>0.3</v>
+        <v>0.43</v>
       </c>
       <c r="U42" s="4">
         <f t="shared" si="12"/>
-        <v>0.3</v>
+        <v>0.43</v>
       </c>
       <c r="V42" s="4">
         <f t="shared" si="13"/>
@@ -4177,15 +4156,15 @@
       </c>
       <c r="W42" s="4">
         <f t="shared" si="14"/>
-        <v>0.7</v>
+        <v>0.57000000000000006</v>
       </c>
       <c r="X42" s="4">
         <f t="shared" ca="1" si="15"/>
-        <v>0.43749999999999994</v>
+        <v>0.96283783783783783</v>
       </c>
       <c r="Y42" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>0</v>
+        <v>3.081081081081084E-2</v>
       </c>
       <c r="Z42" s="4">
         <f t="shared" ca="1" si="17"/>
@@ -4193,40 +4172,40 @@
       </c>
       <c r="AA42" s="4">
         <f t="shared" ca="1" si="18"/>
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="43" spans="2:27" s="67" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" s="65" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B43" s="90"/>
-      <c r="C43" s="58">
+      <c r="C43" s="56">
         <v>25</v>
       </c>
-      <c r="D43" s="69" t="s">
+      <c r="D43" s="67" t="s">
         <v>74</v>
       </c>
-      <c r="E43" s="70"/>
-      <c r="F43" s="71"/>
-      <c r="G43" s="72"/>
-      <c r="H43" s="73"/>
-      <c r="I43" s="74"/>
-      <c r="J43" s="75" t="str">
+      <c r="E43" s="68"/>
+      <c r="F43" s="69"/>
+      <c r="G43" s="70"/>
+      <c r="H43" s="71"/>
+      <c r="I43" s="72"/>
+      <c r="J43" s="73" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
-      <c r="K43" s="76">
+      <c r="K43" s="74">
         <f t="shared" ca="1" si="2"/>
-        <v>0.3</v>
-      </c>
-      <c r="L43" s="34"/>
-      <c r="M43" s="46">
+        <v>0.43</v>
+      </c>
+      <c r="L43" s="32"/>
+      <c r="M43" s="44">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N43" s="68">
+      <c r="N43" s="66">
         <f t="array" ref="N43">SUM(G43:I43/$G$17:$I$17*$G$16:$I$16)</f>
         <v>0</v>
       </c>
-      <c r="O43" s="68">
+      <c r="O43" s="66">
         <f t="shared" si="6"/>
         <v>0.25</v>
       </c>
@@ -4236,11 +4215,11 @@
       </c>
       <c r="Q43" s="4">
         <f t="shared" si="8"/>
-        <v>0.6</v>
+        <v>0.86</v>
       </c>
       <c r="R43" s="4">
         <f t="shared" si="9"/>
-        <v>0.3</v>
+        <v>0.43</v>
       </c>
       <c r="S43" s="4">
         <f t="shared" si="10"/>
@@ -4248,11 +4227,11 @@
       </c>
       <c r="T43" s="4">
         <f t="shared" si="11"/>
-        <v>0.3</v>
+        <v>0.43</v>
       </c>
       <c r="U43" s="4">
         <f t="shared" si="12"/>
-        <v>0.3</v>
+        <v>0.43</v>
       </c>
       <c r="V43" s="4">
         <f t="shared" si="13"/>
@@ -4260,15 +4239,15 @@
       </c>
       <c r="W43" s="4">
         <f t="shared" si="14"/>
-        <v>0.7</v>
+        <v>0.57000000000000006</v>
       </c>
       <c r="X43" s="4">
         <f t="shared" ca="1" si="15"/>
-        <v>0.43749999999999994</v>
+        <v>0.96283783783783783</v>
       </c>
       <c r="Y43" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>0</v>
+        <v>3.081081081081084E-2</v>
       </c>
       <c r="Z43" s="4">
         <f t="shared" ca="1" si="17"/>
@@ -4276,32 +4255,32 @@
       </c>
       <c r="AA43" s="4">
         <f t="shared" ca="1" si="18"/>
-        <v>0.3</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="44" spans="2:27" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B44" s="90"/>
-      <c r="D44" s="19"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="10"/>
-      <c r="G44" s="32">
+      <c r="D44" s="18"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="30">
         <f ca="1">SUM(OFFSET(G19, 0, 0, $G$3, 1))</f>
         <v>1</v>
       </c>
-      <c r="H44" s="11">
+      <c r="H44" s="10">
         <f t="shared" ref="H44:I44" ca="1" si="19">SUM(OFFSET(H19, 0, 0, $G$3, 1))</f>
         <v>1</v>
       </c>
-      <c r="I44" s="33">
+      <c r="I44" s="31">
         <f t="shared" ca="1" si="19"/>
         <v>1</v>
       </c>
-      <c r="J44" s="11"/>
-      <c r="K44" s="20">
+      <c r="J44" s="10"/>
+      <c r="K44" s="19">
         <f ca="1">AVERAGE(OFFSET(K19, 0, 0, $G$3, 1))</f>
-        <v>0.6</v>
-      </c>
-      <c r="L44" s="34"/>
+        <v>0.85199999999999998</v>
+      </c>
+      <c r="L44" s="32"/>
       <c r="M44" s="5" t="s">
         <v>35</v>
       </c>
@@ -4321,23 +4300,23 @@
       <c r="U44" s="4"/>
       <c r="V44" s="4">
         <f ca="1">SUM(OFFSET(V19, 0, 0, $G$3, 1))</f>
-        <v>0</v>
+        <v>3.2000000000000028E-2</v>
       </c>
       <c r="W44" s="4">
         <f ca="1">SUM(OFFSET(W19, 0, 0, $G$3, 1))</f>
-        <v>1.6</v>
+        <v>0.59200000000000008</v>
       </c>
       <c r="X44" s="2"/>
       <c r="Y44" s="2"/>
     </row>
     <row r="45" spans="2:27" s="6" customFormat="1" ht="14.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B45" s="90"/>
-      <c r="G45" s="54"/>
-      <c r="H45" s="37"/>
-      <c r="I45" s="37"/>
-      <c r="J45" s="37"/>
-      <c r="K45" s="35"/>
-      <c r="L45" s="36"/>
+      <c r="G45" s="52"/>
+      <c r="H45" s="35"/>
+      <c r="I45" s="35"/>
+      <c r="J45" s="35"/>
+      <c r="K45" s="33"/>
+      <c r="L45" s="34"/>
       <c r="M45" s="5" t="s">
         <v>36</v>
       </c>
@@ -4349,45 +4328,45 @@
       </c>
       <c r="Q45" s="4">
         <f>AVERAGE(Q19:Q22)</f>
-        <v>0.6</v>
+        <v>0.86</v>
       </c>
       <c r="R45" s="4">
         <f t="shared" ref="R45:S45" si="20">AVERAGE(R19:R22)</f>
-        <v>0.3</v>
+        <v>0.43</v>
       </c>
       <c r="S45" s="4">
         <f t="shared" si="20"/>
-        <v>0.30000000000000004</v>
+        <v>0.43</v>
       </c>
       <c r="T45" s="4">
         <f>AVERAGE(T19:T22)</f>
-        <v>0.6</v>
+        <v>0.86</v>
       </c>
       <c r="U45" s="4">
         <f>AVERAGE(U19:U22)</f>
-        <v>0.6</v>
+        <v>0.85199999999999998</v>
       </c>
       <c r="V45" s="4"/>
       <c r="W45" s="2"/>
       <c r="X45" s="4"/>
-      <c r="Y45" s="49"/>
+      <c r="Y45" s="47"/>
       <c r="Z45" s="2"/>
       <c r="AA45" s="2"/>
     </row>
     <row r="46" spans="2:27" s="6" customFormat="1" ht="12.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="55"/>
-      <c r="G46" s="57" t="s">
+      <c r="B46" s="53"/>
+      <c r="G46" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="H46" s="57" t="s">
+      <c r="H46" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="I46" s="57" t="s">
+      <c r="I46" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="J46" s="57"/>
-      <c r="K46" s="35"/>
-      <c r="L46" s="36"/>
+      <c r="J46" s="55"/>
+      <c r="K46" s="33"/>
+      <c r="L46" s="34"/>
       <c r="M46" s="5"/>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -4400,26 +4379,26 @@
       <c r="V46" s="4"/>
       <c r="W46" s="2"/>
       <c r="X46" s="4"/>
-      <c r="Y46" s="49"/>
+      <c r="Y46" s="47"/>
       <c r="Z46" s="2"/>
       <c r="AA46" s="2"/>
     </row>
     <row r="47" spans="2:27" s="6" customFormat="1" ht="31.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G47" s="56" t="str">
+      <c r="G47" s="54" t="str">
         <f ca="1">IF(G44&lt;&gt;1,"La somme doit être égale à 100%","")</f>
         <v/>
       </c>
-      <c r="H47" s="56" t="str">
+      <c r="H47" s="54" t="str">
         <f t="shared" ref="H47:I47" ca="1" si="21">IF(H44&lt;&gt;1,"La somme doit être égale à 100%","")</f>
         <v/>
       </c>
-      <c r="I47" s="56" t="str">
+      <c r="I47" s="54" t="str">
         <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
-      <c r="J47" s="56"/>
-      <c r="K47" s="35"/>
-      <c r="L47" s="36"/>
+      <c r="J47" s="54"/>
+      <c r="K47" s="33"/>
+      <c r="L47" s="34"/>
       <c r="M47" s="3"/>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -4431,544 +4410,544 @@
       <c r="U47" s="2"/>
       <c r="V47" s="2"/>
       <c r="W47" s="2"/>
-      <c r="X47" s="49"/>
-      <c r="Y47" s="49"/>
+      <c r="X47" s="47"/>
+      <c r="Y47" s="47"/>
       <c r="Z47" s="2"/>
       <c r="AA47" s="2"/>
     </row>
     <row r="48" spans="2:27" s="6" customFormat="1" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H48" s="37"/>
-      <c r="I48" s="37"/>
-      <c r="J48" s="37"/>
-      <c r="K48" s="35"/>
-      <c r="L48" s="36"/>
-      <c r="M48" s="47" t="s">
+      <c r="H48" s="35"/>
+      <c r="I48" s="35"/>
+      <c r="J48" s="35"/>
+      <c r="K48" s="33"/>
+      <c r="L48" s="34"/>
+      <c r="M48" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="N48" s="47" t="s">
+      <c r="N48" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="O48" s="47" t="s">
+      <c r="O48" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="P48" s="47" t="s">
+      <c r="P48" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="Q48" s="47" t="s">
+      <c r="Q48" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="R48" s="47" t="s">
+      <c r="R48" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="S48" s="47" t="s">
+      <c r="S48" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="T48" s="47" t="s">
+      <c r="T48" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="U48" s="47" t="s">
+      <c r="U48" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="V48" s="47" t="s">
+      <c r="V48" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="W48" s="47" t="s">
+      <c r="W48" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="X48" s="47" t="s">
+      <c r="X48" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="Y48" s="47" t="s">
+      <c r="Y48" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="Z48" s="47" t="s">
+      <c r="Z48" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="AA48" s="47" t="s">
+      <c r="AA48" s="45" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="49" spans="5:27" hidden="1" x14ac:dyDescent="0.25">
-      <c r="E49" s="43"/>
-      <c r="F49" s="43"/>
-      <c r="G49" s="40"/>
-      <c r="H49" s="40"/>
-      <c r="I49" s="40"/>
-      <c r="J49" s="40"/>
-      <c r="K49" s="38" t="s">
+      <c r="E49" s="41"/>
+      <c r="F49" s="41"/>
+      <c r="G49" s="38"/>
+      <c r="H49" s="38"/>
+      <c r="I49" s="38"/>
+      <c r="J49" s="38"/>
+      <c r="K49" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="L49" s="38"/>
-      <c r="M49" s="59">
+      <c r="L49" s="36"/>
+      <c r="M49" s="57">
         <f>G3</f>
         <v>4</v>
       </c>
-      <c r="N49" s="41"/>
-      <c r="O49" s="41"/>
-      <c r="P49" s="41"/>
-      <c r="Q49" s="41"/>
-      <c r="R49" s="41"/>
-      <c r="S49" s="41"/>
-      <c r="T49" s="41"/>
-      <c r="U49" s="41"/>
-      <c r="V49" s="41"/>
-      <c r="W49" s="41"/>
-      <c r="X49" s="44"/>
-      <c r="Y49" s="44"/>
-      <c r="Z49" s="41"/>
-      <c r="AA49" s="41"/>
+      <c r="N49" s="39"/>
+      <c r="O49" s="39"/>
+      <c r="P49" s="39"/>
+      <c r="Q49" s="39"/>
+      <c r="R49" s="39"/>
+      <c r="S49" s="39"/>
+      <c r="T49" s="39"/>
+      <c r="U49" s="39"/>
+      <c r="V49" s="39"/>
+      <c r="W49" s="39"/>
+      <c r="X49" s="42"/>
+      <c r="Y49" s="42"/>
+      <c r="Z49" s="39"/>
+      <c r="AA49" s="39"/>
     </row>
     <row r="50" spans="5:27" hidden="1" x14ac:dyDescent="0.25">
-      <c r="E50" s="48"/>
-      <c r="F50" s="43"/>
-      <c r="G50" s="40"/>
-      <c r="H50" s="40"/>
-      <c r="I50" s="40"/>
-      <c r="J50" s="40"/>
-      <c r="K50" s="38" t="s">
+      <c r="E50" s="46"/>
+      <c r="F50" s="41"/>
+      <c r="G50" s="38"/>
+      <c r="H50" s="38"/>
+      <c r="I50" s="38"/>
+      <c r="J50" s="38"/>
+      <c r="K50" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="L50" s="38"/>
-      <c r="M50" s="39"/>
-      <c r="N50" s="42"/>
-      <c r="O50" s="41"/>
-      <c r="P50" s="41"/>
-      <c r="Q50" s="41"/>
-      <c r="R50" s="41"/>
-      <c r="S50" s="41"/>
-      <c r="T50" s="41"/>
-      <c r="U50" s="41"/>
-      <c r="V50" s="41"/>
-      <c r="W50" s="41"/>
-      <c r="X50" s="44"/>
-      <c r="Y50" s="44"/>
-      <c r="Z50" s="41"/>
-      <c r="AA50" s="41"/>
+      <c r="L50" s="36"/>
+      <c r="M50" s="37"/>
+      <c r="N50" s="40"/>
+      <c r="O50" s="39"/>
+      <c r="P50" s="39"/>
+      <c r="Q50" s="39"/>
+      <c r="R50" s="39"/>
+      <c r="S50" s="39"/>
+      <c r="T50" s="39"/>
+      <c r="U50" s="39"/>
+      <c r="V50" s="39"/>
+      <c r="W50" s="39"/>
+      <c r="X50" s="42"/>
+      <c r="Y50" s="42"/>
+      <c r="Z50" s="39"/>
+      <c r="AA50" s="39"/>
     </row>
     <row r="51" spans="5:27" hidden="1" x14ac:dyDescent="0.25">
-      <c r="E51" s="48"/>
-      <c r="F51" s="43"/>
-      <c r="G51" s="40"/>
-      <c r="H51" s="40"/>
-      <c r="I51" s="40"/>
-      <c r="J51" s="40"/>
-      <c r="K51" s="38" t="s">
+      <c r="E51" s="46"/>
+      <c r="F51" s="41"/>
+      <c r="G51" s="38"/>
+      <c r="H51" s="38"/>
+      <c r="I51" s="38"/>
+      <c r="J51" s="38"/>
+      <c r="K51" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="L51" s="38"/>
-      <c r="M51" s="39"/>
-      <c r="N51" s="40"/>
-      <c r="O51" s="42"/>
-      <c r="P51" s="41"/>
-      <c r="Q51" s="41"/>
-      <c r="R51" s="41"/>
-      <c r="S51" s="41"/>
-      <c r="T51" s="41"/>
-      <c r="U51" s="41"/>
-      <c r="V51" s="41"/>
-      <c r="W51" s="41"/>
-      <c r="X51" s="44"/>
-      <c r="Y51" s="44"/>
-      <c r="Z51" s="41"/>
-      <c r="AA51" s="41"/>
+      <c r="L51" s="36"/>
+      <c r="M51" s="37"/>
+      <c r="N51" s="38"/>
+      <c r="O51" s="40"/>
+      <c r="P51" s="39"/>
+      <c r="Q51" s="39"/>
+      <c r="R51" s="39"/>
+      <c r="S51" s="39"/>
+      <c r="T51" s="39"/>
+      <c r="U51" s="39"/>
+      <c r="V51" s="39"/>
+      <c r="W51" s="39"/>
+      <c r="X51" s="42"/>
+      <c r="Y51" s="42"/>
+      <c r="Z51" s="39"/>
+      <c r="AA51" s="39"/>
     </row>
     <row r="52" spans="5:27" hidden="1" x14ac:dyDescent="0.25">
-      <c r="E52" s="48"/>
-      <c r="F52" s="43"/>
-      <c r="G52" s="40"/>
-      <c r="H52" s="40"/>
-      <c r="I52" s="40"/>
-      <c r="J52" s="40"/>
-      <c r="K52" s="38" t="s">
+      <c r="E52" s="46"/>
+      <c r="F52" s="41"/>
+      <c r="G52" s="38"/>
+      <c r="H52" s="38"/>
+      <c r="I52" s="38"/>
+      <c r="J52" s="38"/>
+      <c r="K52" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="L52" s="38"/>
-      <c r="M52" s="39"/>
-      <c r="N52" s="40"/>
-      <c r="O52" s="40"/>
-      <c r="P52" s="42"/>
-      <c r="Q52" s="41"/>
-      <c r="R52" s="41"/>
-      <c r="S52" s="41"/>
-      <c r="T52" s="41"/>
-      <c r="U52" s="41"/>
-      <c r="V52" s="41"/>
-      <c r="W52" s="41"/>
-      <c r="X52" s="44"/>
-      <c r="Y52" s="44"/>
-      <c r="Z52" s="41"/>
-      <c r="AA52" s="41"/>
+      <c r="L52" s="36"/>
+      <c r="M52" s="37"/>
+      <c r="N52" s="38"/>
+      <c r="O52" s="38"/>
+      <c r="P52" s="40"/>
+      <c r="Q52" s="39"/>
+      <c r="R52" s="39"/>
+      <c r="S52" s="39"/>
+      <c r="T52" s="39"/>
+      <c r="U52" s="39"/>
+      <c r="V52" s="39"/>
+      <c r="W52" s="39"/>
+      <c r="X52" s="42"/>
+      <c r="Y52" s="42"/>
+      <c r="Z52" s="39"/>
+      <c r="AA52" s="39"/>
     </row>
     <row r="53" spans="5:27" hidden="1" x14ac:dyDescent="0.25">
-      <c r="E53" s="48"/>
-      <c r="F53" s="43"/>
-      <c r="G53" s="40"/>
-      <c r="H53" s="40"/>
-      <c r="I53" s="40"/>
-      <c r="J53" s="40"/>
-      <c r="K53" s="38" t="s">
+      <c r="E53" s="46"/>
+      <c r="F53" s="41"/>
+      <c r="G53" s="38"/>
+      <c r="H53" s="38"/>
+      <c r="I53" s="38"/>
+      <c r="J53" s="38"/>
+      <c r="K53" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="L53" s="38"/>
-      <c r="M53" s="39"/>
-      <c r="N53" s="40"/>
-      <c r="O53" s="40"/>
-      <c r="P53" s="40"/>
-      <c r="Q53" s="42"/>
-      <c r="R53" s="41"/>
-      <c r="S53" s="41"/>
-      <c r="T53" s="41"/>
-      <c r="U53" s="41"/>
-      <c r="V53" s="41"/>
-      <c r="W53" s="41"/>
-      <c r="X53" s="44"/>
-      <c r="Y53" s="44"/>
-      <c r="Z53" s="41"/>
-      <c r="AA53" s="41"/>
+      <c r="L53" s="36"/>
+      <c r="M53" s="37"/>
+      <c r="N53" s="38"/>
+      <c r="O53" s="38"/>
+      <c r="P53" s="38"/>
+      <c r="Q53" s="40"/>
+      <c r="R53" s="39"/>
+      <c r="S53" s="39"/>
+      <c r="T53" s="39"/>
+      <c r="U53" s="39"/>
+      <c r="V53" s="39"/>
+      <c r="W53" s="39"/>
+      <c r="X53" s="42"/>
+      <c r="Y53" s="42"/>
+      <c r="Z53" s="39"/>
+      <c r="AA53" s="39"/>
     </row>
     <row r="54" spans="5:27" hidden="1" x14ac:dyDescent="0.25">
-      <c r="E54" s="48"/>
-      <c r="F54" s="43"/>
-      <c r="G54" s="40"/>
-      <c r="H54" s="40"/>
-      <c r="I54" s="43"/>
-      <c r="J54" s="43"/>
-      <c r="K54" s="38" t="s">
+      <c r="E54" s="46"/>
+      <c r="F54" s="41"/>
+      <c r="G54" s="38"/>
+      <c r="H54" s="38"/>
+      <c r="I54" s="41"/>
+      <c r="J54" s="41"/>
+      <c r="K54" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="L54" s="38"/>
-      <c r="M54" s="39"/>
-      <c r="N54" s="40"/>
-      <c r="O54" s="40"/>
-      <c r="P54" s="40"/>
-      <c r="Q54" s="40"/>
-      <c r="R54" s="42"/>
-      <c r="S54" s="41"/>
-      <c r="T54" s="41"/>
-      <c r="U54" s="41"/>
-      <c r="V54" s="41"/>
-      <c r="W54" s="41"/>
-      <c r="X54" s="44"/>
-      <c r="Y54" s="44"/>
-      <c r="Z54" s="41"/>
-      <c r="AA54" s="41"/>
+      <c r="L54" s="36"/>
+      <c r="M54" s="37"/>
+      <c r="N54" s="38"/>
+      <c r="O54" s="38"/>
+      <c r="P54" s="38"/>
+      <c r="Q54" s="38"/>
+      <c r="R54" s="40"/>
+      <c r="S54" s="39"/>
+      <c r="T54" s="39"/>
+      <c r="U54" s="39"/>
+      <c r="V54" s="39"/>
+      <c r="W54" s="39"/>
+      <c r="X54" s="42"/>
+      <c r="Y54" s="42"/>
+      <c r="Z54" s="39"/>
+      <c r="AA54" s="39"/>
     </row>
     <row r="55" spans="5:27" hidden="1" x14ac:dyDescent="0.25">
-      <c r="E55" s="48"/>
-      <c r="F55" s="43"/>
-      <c r="G55" s="40"/>
-      <c r="H55" s="40"/>
-      <c r="I55" s="40"/>
-      <c r="J55" s="40"/>
-      <c r="K55" s="38" t="s">
+      <c r="E55" s="46"/>
+      <c r="F55" s="41"/>
+      <c r="G55" s="38"/>
+      <c r="H55" s="38"/>
+      <c r="I55" s="38"/>
+      <c r="J55" s="38"/>
+      <c r="K55" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="L55" s="38"/>
-      <c r="M55" s="39"/>
-      <c r="N55" s="40"/>
-      <c r="O55" s="40"/>
-      <c r="P55" s="40"/>
-      <c r="Q55" s="40"/>
-      <c r="R55" s="40"/>
-      <c r="S55" s="42"/>
-      <c r="T55" s="41"/>
-      <c r="U55" s="41"/>
-      <c r="V55" s="41"/>
-      <c r="W55" s="41"/>
-      <c r="X55" s="44"/>
-      <c r="Y55" s="44"/>
-      <c r="Z55" s="41"/>
-      <c r="AA55" s="41"/>
+      <c r="L55" s="36"/>
+      <c r="M55" s="37"/>
+      <c r="N55" s="38"/>
+      <c r="O55" s="38"/>
+      <c r="P55" s="38"/>
+      <c r="Q55" s="38"/>
+      <c r="R55" s="38"/>
+      <c r="S55" s="40"/>
+      <c r="T55" s="39"/>
+      <c r="U55" s="39"/>
+      <c r="V55" s="39"/>
+      <c r="W55" s="39"/>
+      <c r="X55" s="42"/>
+      <c r="Y55" s="42"/>
+      <c r="Z55" s="39"/>
+      <c r="AA55" s="39"/>
     </row>
     <row r="56" spans="5:27" hidden="1" x14ac:dyDescent="0.25">
-      <c r="E56" s="48"/>
-      <c r="F56" s="43"/>
-      <c r="G56" s="40"/>
-      <c r="H56" s="40"/>
-      <c r="I56" s="40"/>
-      <c r="J56" s="40"/>
-      <c r="K56" s="38" t="s">
+      <c r="E56" s="46"/>
+      <c r="F56" s="41"/>
+      <c r="G56" s="38"/>
+      <c r="H56" s="38"/>
+      <c r="I56" s="38"/>
+      <c r="J56" s="38"/>
+      <c r="K56" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="L56" s="38"/>
-      <c r="M56" s="39"/>
-      <c r="N56" s="40"/>
-      <c r="O56" s="40"/>
-      <c r="P56" s="40"/>
-      <c r="Q56" s="40"/>
-      <c r="R56" s="40"/>
-      <c r="S56" s="40"/>
-      <c r="T56" s="42"/>
-      <c r="U56" s="41"/>
-      <c r="V56" s="41"/>
-      <c r="W56" s="41"/>
-      <c r="X56" s="44"/>
-      <c r="Y56" s="44"/>
-      <c r="Z56" s="41"/>
-      <c r="AA56" s="41"/>
+      <c r="L56" s="36"/>
+      <c r="M56" s="37"/>
+      <c r="N56" s="38"/>
+      <c r="O56" s="38"/>
+      <c r="P56" s="38"/>
+      <c r="Q56" s="38"/>
+      <c r="R56" s="38"/>
+      <c r="S56" s="38"/>
+      <c r="T56" s="40"/>
+      <c r="U56" s="39"/>
+      <c r="V56" s="39"/>
+      <c r="W56" s="39"/>
+      <c r="X56" s="42"/>
+      <c r="Y56" s="42"/>
+      <c r="Z56" s="39"/>
+      <c r="AA56" s="39"/>
     </row>
     <row r="57" spans="5:27" hidden="1" x14ac:dyDescent="0.25">
-      <c r="E57" s="48"/>
-      <c r="F57" s="43"/>
-      <c r="G57" s="40"/>
-      <c r="H57" s="40"/>
-      <c r="I57" s="40"/>
-      <c r="J57" s="40"/>
-      <c r="K57" s="38" t="s">
+      <c r="E57" s="46"/>
+      <c r="F57" s="41"/>
+      <c r="G57" s="38"/>
+      <c r="H57" s="38"/>
+      <c r="I57" s="38"/>
+      <c r="J57" s="38"/>
+      <c r="K57" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="L57" s="38"/>
-      <c r="M57" s="39"/>
-      <c r="N57" s="40"/>
-      <c r="O57" s="40"/>
-      <c r="P57" s="40"/>
-      <c r="Q57" s="40"/>
-      <c r="R57" s="40"/>
-      <c r="S57" s="40"/>
-      <c r="T57" s="40"/>
-      <c r="U57" s="42"/>
-      <c r="V57" s="41"/>
-      <c r="W57" s="41"/>
-      <c r="X57" s="44"/>
-      <c r="Y57" s="44"/>
-      <c r="Z57" s="41"/>
-      <c r="AA57" s="41"/>
+      <c r="L57" s="36"/>
+      <c r="M57" s="37"/>
+      <c r="N57" s="38"/>
+      <c r="O57" s="38"/>
+      <c r="P57" s="38"/>
+      <c r="Q57" s="38"/>
+      <c r="R57" s="38"/>
+      <c r="S57" s="38"/>
+      <c r="T57" s="38"/>
+      <c r="U57" s="40"/>
+      <c r="V57" s="39"/>
+      <c r="W57" s="39"/>
+      <c r="X57" s="42"/>
+      <c r="Y57" s="42"/>
+      <c r="Z57" s="39"/>
+      <c r="AA57" s="39"/>
     </row>
     <row r="58" spans="5:27" hidden="1" x14ac:dyDescent="0.25">
-      <c r="E58" s="48"/>
-      <c r="F58" s="43"/>
-      <c r="G58" s="40"/>
-      <c r="H58" s="40"/>
-      <c r="I58" s="40"/>
-      <c r="J58" s="40"/>
-      <c r="K58" s="38" t="s">
+      <c r="E58" s="46"/>
+      <c r="F58" s="41"/>
+      <c r="G58" s="38"/>
+      <c r="H58" s="38"/>
+      <c r="I58" s="38"/>
+      <c r="J58" s="38"/>
+      <c r="K58" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="L58" s="38"/>
-      <c r="M58" s="39"/>
-      <c r="N58" s="40"/>
-      <c r="O58" s="40"/>
-      <c r="P58" s="40"/>
-      <c r="Q58" s="40"/>
-      <c r="R58" s="40"/>
-      <c r="S58" s="40"/>
-      <c r="T58" s="40"/>
-      <c r="U58" s="40"/>
-      <c r="V58" s="42"/>
-      <c r="W58" s="41"/>
-      <c r="X58" s="44"/>
-      <c r="Y58" s="44"/>
-      <c r="Z58" s="41"/>
-      <c r="AA58" s="41"/>
+      <c r="L58" s="36"/>
+      <c r="M58" s="37"/>
+      <c r="N58" s="38"/>
+      <c r="O58" s="38"/>
+      <c r="P58" s="38"/>
+      <c r="Q58" s="38"/>
+      <c r="R58" s="38"/>
+      <c r="S58" s="38"/>
+      <c r="T58" s="38"/>
+      <c r="U58" s="38"/>
+      <c r="V58" s="40"/>
+      <c r="W58" s="39"/>
+      <c r="X58" s="42"/>
+      <c r="Y58" s="42"/>
+      <c r="Z58" s="39"/>
+      <c r="AA58" s="39"/>
     </row>
     <row r="59" spans="5:27" hidden="1" x14ac:dyDescent="0.25">
-      <c r="E59" s="48"/>
-      <c r="F59" s="43"/>
-      <c r="G59" s="40"/>
-      <c r="H59" s="40"/>
-      <c r="I59" s="40"/>
-      <c r="J59" s="40"/>
-      <c r="K59" s="38" t="s">
+      <c r="E59" s="46"/>
+      <c r="F59" s="41"/>
+      <c r="G59" s="38"/>
+      <c r="H59" s="38"/>
+      <c r="I59" s="38"/>
+      <c r="J59" s="38"/>
+      <c r="K59" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="L59" s="38"/>
-      <c r="M59" s="39"/>
-      <c r="N59" s="40"/>
-      <c r="O59" s="40"/>
-      <c r="P59" s="40"/>
-      <c r="Q59" s="40"/>
-      <c r="R59" s="40"/>
-      <c r="S59" s="40"/>
-      <c r="T59" s="40"/>
-      <c r="U59" s="40"/>
-      <c r="V59" s="40"/>
-      <c r="W59" s="42"/>
-      <c r="X59" s="44"/>
-      <c r="Y59" s="44"/>
-      <c r="Z59" s="41"/>
-      <c r="AA59" s="41"/>
+      <c r="L59" s="36"/>
+      <c r="M59" s="37"/>
+      <c r="N59" s="38"/>
+      <c r="O59" s="38"/>
+      <c r="P59" s="38"/>
+      <c r="Q59" s="38"/>
+      <c r="R59" s="38"/>
+      <c r="S59" s="38"/>
+      <c r="T59" s="38"/>
+      <c r="U59" s="38"/>
+      <c r="V59" s="38"/>
+      <c r="W59" s="40"/>
+      <c r="X59" s="42"/>
+      <c r="Y59" s="42"/>
+      <c r="Z59" s="39"/>
+      <c r="AA59" s="39"/>
     </row>
     <row r="60" spans="5:27" hidden="1" x14ac:dyDescent="0.25">
-      <c r="E60" s="48"/>
-      <c r="F60" s="43"/>
-      <c r="G60" s="40"/>
-      <c r="H60" s="40"/>
-      <c r="I60" s="40"/>
-      <c r="J60" s="40"/>
-      <c r="K60" s="38" t="s">
+      <c r="E60" s="46"/>
+      <c r="F60" s="41"/>
+      <c r="G60" s="38"/>
+      <c r="H60" s="38"/>
+      <c r="I60" s="38"/>
+      <c r="J60" s="38"/>
+      <c r="K60" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="L60" s="38"/>
-      <c r="M60" s="39"/>
-      <c r="N60" s="40"/>
-      <c r="O60" s="40"/>
-      <c r="P60" s="40"/>
-      <c r="Q60" s="40"/>
-      <c r="R60" s="40"/>
-      <c r="S60" s="40"/>
-      <c r="T60" s="40"/>
-      <c r="U60" s="40"/>
-      <c r="V60" s="40"/>
-      <c r="W60" s="40"/>
-      <c r="X60" s="45"/>
-      <c r="Y60" s="44"/>
-      <c r="Z60" s="41"/>
-      <c r="AA60" s="41"/>
+      <c r="L60" s="36"/>
+      <c r="M60" s="37"/>
+      <c r="N60" s="38"/>
+      <c r="O60" s="38"/>
+      <c r="P60" s="38"/>
+      <c r="Q60" s="38"/>
+      <c r="R60" s="38"/>
+      <c r="S60" s="38"/>
+      <c r="T60" s="38"/>
+      <c r="U60" s="38"/>
+      <c r="V60" s="38"/>
+      <c r="W60" s="38"/>
+      <c r="X60" s="43"/>
+      <c r="Y60" s="42"/>
+      <c r="Z60" s="39"/>
+      <c r="AA60" s="39"/>
     </row>
     <row r="61" spans="5:27" hidden="1" x14ac:dyDescent="0.25">
-      <c r="E61" s="48"/>
-      <c r="F61" s="43"/>
-      <c r="G61" s="40"/>
-      <c r="H61" s="40"/>
-      <c r="I61" s="40"/>
-      <c r="J61" s="40"/>
-      <c r="K61" s="38" t="s">
+      <c r="E61" s="46"/>
+      <c r="F61" s="41"/>
+      <c r="G61" s="38"/>
+      <c r="H61" s="38"/>
+      <c r="I61" s="38"/>
+      <c r="J61" s="38"/>
+      <c r="K61" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="L61" s="38"/>
-      <c r="M61" s="39"/>
-      <c r="N61" s="40"/>
-      <c r="O61" s="40"/>
-      <c r="P61" s="40"/>
-      <c r="Q61" s="40"/>
-      <c r="R61" s="40"/>
-      <c r="S61" s="40"/>
-      <c r="T61" s="40"/>
-      <c r="U61" s="40"/>
-      <c r="V61" s="40"/>
-      <c r="W61" s="40"/>
-      <c r="X61" s="43"/>
-      <c r="Y61" s="45"/>
-      <c r="Z61" s="41"/>
-      <c r="AA61" s="41"/>
+      <c r="L61" s="36"/>
+      <c r="M61" s="37"/>
+      <c r="N61" s="38"/>
+      <c r="O61" s="38"/>
+      <c r="P61" s="38"/>
+      <c r="Q61" s="38"/>
+      <c r="R61" s="38"/>
+      <c r="S61" s="38"/>
+      <c r="T61" s="38"/>
+      <c r="U61" s="38"/>
+      <c r="V61" s="38"/>
+      <c r="W61" s="38"/>
+      <c r="X61" s="41"/>
+      <c r="Y61" s="43"/>
+      <c r="Z61" s="39"/>
+      <c r="AA61" s="39"/>
     </row>
     <row r="62" spans="5:27" hidden="1" x14ac:dyDescent="0.25">
-      <c r="E62" s="48"/>
-      <c r="F62" s="43"/>
-      <c r="G62" s="40"/>
-      <c r="H62" s="40"/>
-      <c r="I62" s="40"/>
-      <c r="J62" s="40"/>
-      <c r="K62" s="38" t="s">
+      <c r="E62" s="46"/>
+      <c r="F62" s="41"/>
+      <c r="G62" s="38"/>
+      <c r="H62" s="38"/>
+      <c r="I62" s="38"/>
+      <c r="J62" s="38"/>
+      <c r="K62" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="L62" s="38"/>
-      <c r="M62" s="39"/>
-      <c r="N62" s="40"/>
-      <c r="O62" s="40"/>
-      <c r="P62" s="40"/>
-      <c r="Q62" s="40"/>
-      <c r="R62" s="40"/>
-      <c r="S62" s="40"/>
-      <c r="T62" s="40"/>
-      <c r="U62" s="40"/>
-      <c r="V62" s="40"/>
-      <c r="W62" s="40"/>
-      <c r="X62" s="43"/>
-      <c r="Y62" s="43"/>
-      <c r="Z62" s="42"/>
-      <c r="AA62" s="41"/>
+      <c r="L62" s="36"/>
+      <c r="M62" s="37"/>
+      <c r="N62" s="38"/>
+      <c r="O62" s="38"/>
+      <c r="P62" s="38"/>
+      <c r="Q62" s="38"/>
+      <c r="R62" s="38"/>
+      <c r="S62" s="38"/>
+      <c r="T62" s="38"/>
+      <c r="U62" s="38"/>
+      <c r="V62" s="38"/>
+      <c r="W62" s="38"/>
+      <c r="X62" s="41"/>
+      <c r="Y62" s="41"/>
+      <c r="Z62" s="40"/>
+      <c r="AA62" s="39"/>
     </row>
     <row r="63" spans="5:27" hidden="1" x14ac:dyDescent="0.25">
-      <c r="E63" s="48"/>
-      <c r="F63" s="43"/>
-      <c r="G63" s="40"/>
-      <c r="H63" s="40"/>
-      <c r="I63" s="40"/>
-      <c r="J63" s="40"/>
-      <c r="K63" s="38" t="s">
+      <c r="E63" s="46"/>
+      <c r="F63" s="41"/>
+      <c r="G63" s="38"/>
+      <c r="H63" s="38"/>
+      <c r="I63" s="38"/>
+      <c r="J63" s="38"/>
+      <c r="K63" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="L63" s="38"/>
-      <c r="M63" s="39"/>
-      <c r="N63" s="40"/>
-      <c r="O63" s="40"/>
-      <c r="P63" s="40"/>
-      <c r="Q63" s="40"/>
-      <c r="R63" s="40"/>
-      <c r="S63" s="40"/>
-      <c r="T63" s="40"/>
-      <c r="U63" s="40"/>
-      <c r="V63" s="40"/>
-      <c r="W63" s="40"/>
-      <c r="X63" s="43"/>
-      <c r="Y63" s="43"/>
-      <c r="Z63" s="40"/>
-      <c r="AA63" s="42"/>
+      <c r="L63" s="36"/>
+      <c r="M63" s="37"/>
+      <c r="N63" s="38"/>
+      <c r="O63" s="38"/>
+      <c r="P63" s="38"/>
+      <c r="Q63" s="38"/>
+      <c r="R63" s="38"/>
+      <c r="S63" s="38"/>
+      <c r="T63" s="38"/>
+      <c r="U63" s="38"/>
+      <c r="V63" s="38"/>
+      <c r="W63" s="38"/>
+      <c r="X63" s="41"/>
+      <c r="Y63" s="41"/>
+      <c r="Z63" s="38"/>
+      <c r="AA63" s="40"/>
     </row>
     <row r="64" spans="5:27" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="65" spans="12:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="L65" s="38" t="s">
+      <c r="L65" s="36" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="66" spans="12:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="L66" s="38" t="s">
+      <c r="L66" s="36" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="67" spans="12:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="L67" s="38" t="s">
+      <c r="L67" s="36" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="68" spans="12:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="L68" s="38" t="s">
+      <c r="L68" s="36" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="69" spans="12:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="L69" s="38" t="s">
+      <c r="L69" s="36" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="70" spans="12:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="L70" s="38" t="s">
+      <c r="L70" s="36" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="71" spans="12:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="L71" s="38" t="s">
+      <c r="L71" s="36" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="72" spans="12:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="L72" s="38" t="s">
+      <c r="L72" s="36" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="73" spans="12:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="L73" s="38" t="s">
+      <c r="L73" s="36" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="74" spans="12:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="L74" s="38" t="s">
+      <c r="L74" s="36" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="75" spans="12:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="L75" s="38" t="s">
+      <c r="L75" s="36" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="76" spans="12:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="L76" s="38" t="s">
+      <c r="L76" s="36" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="77" spans="12:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="L77" s="38" t="s">
+      <c r="L77" s="36" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="78" spans="12:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="L78" s="38" t="s">
+      <c r="L78" s="36" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="79" spans="12:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="L79" s="38" t="s">
+      <c r="L79" s="36" t="s">
         <v>44</v>
       </c>
     </row>
@@ -4976,6 +4955,7 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="d2wj9CCEuGw4Mg6otQpiYDLe9ScqX7RqQ3VxEP8wAjD/h08OAkcxvAV0OuVlGLs0lDzKZe11zE9KnrJqQ3HHBQ==" saltValue="cDUUGHebzs7qC23bO1RmFA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="17">
+    <mergeCell ref="G3:K3"/>
     <mergeCell ref="J15:K15"/>
     <mergeCell ref="G11:K11"/>
     <mergeCell ref="B2:B12"/>
@@ -4992,7 +4972,6 @@
     <mergeCell ref="D7:F7"/>
     <mergeCell ref="D5:F5"/>
     <mergeCell ref="D3:F3"/>
-    <mergeCell ref="G3:K3"/>
   </mergeCells>
   <conditionalFormatting sqref="G16:J16">
     <cfRule type="expression" dxfId="3" priority="4">
@@ -5071,160 +5050,160 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.5703125" style="67" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="67" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" style="67" customWidth="1"/>
-    <col min="4" max="4" width="93.5703125" style="67" customWidth="1"/>
-    <col min="5" max="5" width="2" style="67" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="67"/>
+    <col min="1" max="1" width="2.5703125" style="65" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="65" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" style="65" customWidth="1"/>
+    <col min="4" max="4" width="93.5703125" style="65" customWidth="1"/>
+    <col min="5" max="5" width="2" style="65" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="65"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="83" t="s">
+      <c r="B2" s="81" t="s">
         <v>93</v>
       </c>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
     </row>
     <row r="3" spans="2:5" ht="5.85" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="67" t="s">
+      <c r="B4" s="65" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="67" t="s">
+      <c r="B6" s="65" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="83" t="s">
+      <c r="B8" s="81" t="s">
         <v>94</v>
       </c>
-      <c r="C8" s="83"/>
-      <c r="D8" s="83"/>
-      <c r="E8" s="83"/>
+      <c r="C8" s="81"/>
+      <c r="D8" s="81"/>
+      <c r="E8" s="81"/>
     </row>
     <row r="9" spans="2:5" ht="5.85" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="67" t="s">
+      <c r="B10" s="65" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="67">
+      <c r="B11" s="65">
         <v>1</v>
       </c>
-      <c r="C11" s="84" t="s">
+      <c r="C11" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="67" t="s">
+      <c r="D11" s="65" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="12" spans="2:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="C12" s="84"/>
-      <c r="D12" s="85" t="s">
+      <c r="C12" s="82"/>
+      <c r="D12" s="83" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="67">
+      <c r="B13" s="65">
         <v>2</v>
       </c>
-      <c r="C13" s="84" t="s">
+      <c r="C13" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="67" t="s">
+      <c r="D13" s="65" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C14" s="84"/>
-      <c r="D14" s="86" t="s">
+      <c r="C14" s="82"/>
+      <c r="D14" s="84" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="67">
+      <c r="B15" s="65">
         <v>3</v>
       </c>
-      <c r="C15" s="84" t="s">
+      <c r="C15" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="67" t="s">
+      <c r="D15" s="65" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D16" s="86" t="s">
+      <c r="D16" s="84" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="18" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="83" t="s">
+      <c r="B18" s="81" t="s">
         <v>85</v>
       </c>
-      <c r="C18" s="83"/>
-      <c r="D18" s="83"/>
-      <c r="E18" s="83"/>
+      <c r="C18" s="81"/>
+      <c r="D18" s="81"/>
+      <c r="E18" s="81"/>
     </row>
     <row r="19" spans="2:5" ht="5.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="20" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="116" t="s">
+      <c r="C20" s="114" t="s">
         <v>86</v>
       </c>
-      <c r="D20" s="117"/>
+      <c r="D20" s="115"/>
     </row>
     <row r="21" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C21" s="115" t="s">
+      <c r="C21" s="113" t="s">
         <v>87</v>
       </c>
-      <c r="D21" s="115"/>
+      <c r="D21" s="113"/>
     </row>
     <row r="22" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C22" s="118" t="s">
+      <c r="C22" s="116" t="s">
         <v>88</v>
       </c>
-      <c r="D22" s="118"/>
+      <c r="D22" s="116"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B24" s="67">
+      <c r="B24" s="65">
         <v>1</v>
       </c>
-      <c r="C24" s="67" t="s">
+      <c r="C24" s="65" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B25" s="67">
+      <c r="B25" s="65">
         <v>2</v>
       </c>
-      <c r="C25" s="67" t="s">
+      <c r="C25" s="65" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B26" s="67">
+      <c r="B26" s="65">
         <v>3</v>
       </c>
-      <c r="C26" s="67" t="s">
+      <c r="C26" s="65" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C27" s="67" t="s">
+      <c r="C27" s="65" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B29" s="119" t="s">
+      <c r="B29" s="117" t="s">
         <v>92</v>
       </c>
-      <c r="C29" s="119"/>
-      <c r="D29" s="119"/>
-      <c r="E29" s="119"/>
+      <c r="C29" s="117"/>
+      <c r="D29" s="117"/>
+      <c r="E29" s="117"/>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="1b2l7guspijR5vFF6djmidLGLid7xH/7XN2zvKkgkfUujyKGAS/LtrXdzhf34boRC07WUYL78YWMBzjzC9RHOw==" saltValue="6m3VbwTRqvM0Jtjvfoiu/A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>

--- a/Docs/Fiche autoévaluation comparative.xlsx
+++ b/Docs/Fiche autoévaluation comparative.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\travail\KNN-Project\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rayan\Documents\Coding\Python\KNN-Project\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12AA253D-16A6-42AB-B647-8A2D8656EBDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD1A56AD-4957-4436-A69A-32D7AE0F0416}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Évaluation" sheetId="1" r:id="rId1"/>
@@ -1403,6 +1403,14 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="41" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="42" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
@@ -1505,14 +1513,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="5" borderId="41" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="5" borderId="42" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="8" borderId="41" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -1912,8 +1912,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:AA80"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5:K5"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" topLeftCell="A18" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7:K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1938,128 +1938,128 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="89" t="s">
+      <c r="B2" s="91" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="3" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="89"/>
-      <c r="D3" s="109" t="s">
+      <c r="B3" s="91"/>
+      <c r="D3" s="111" t="s">
         <v>53</v>
       </c>
-      <c r="E3" s="110"/>
-      <c r="F3" s="110"/>
-      <c r="G3" s="111">
+      <c r="E3" s="112"/>
+      <c r="F3" s="112"/>
+      <c r="G3" s="85">
         <v>4</v>
       </c>
-      <c r="H3" s="111"/>
-      <c r="I3" s="111"/>
-      <c r="J3" s="111"/>
-      <c r="K3" s="112"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="86"/>
     </row>
     <row r="4" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="89"/>
+      <c r="B4" s="91"/>
     </row>
     <row r="5" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="89"/>
-      <c r="D5" s="109" t="s">
+      <c r="B5" s="91"/>
+      <c r="D5" s="111" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="110"/>
-      <c r="F5" s="110"/>
-      <c r="G5" s="93">
+      <c r="E5" s="112"/>
+      <c r="F5" s="112"/>
+      <c r="G5" s="95">
         <v>0.86</v>
       </c>
-      <c r="H5" s="93"/>
-      <c r="I5" s="93"/>
-      <c r="J5" s="93"/>
-      <c r="K5" s="94"/>
+      <c r="H5" s="95"/>
+      <c r="I5" s="95"/>
+      <c r="J5" s="95"/>
+      <c r="K5" s="96"/>
     </row>
     <row r="6" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="89"/>
-      <c r="G6" s="95" t="s">
+      <c r="B6" s="91"/>
+      <c r="G6" s="97" t="s">
         <v>34</v>
       </c>
-      <c r="H6" s="95"/>
-      <c r="I6" s="95"/>
-      <c r="J6" s="95"/>
-      <c r="K6" s="95"/>
+      <c r="H6" s="97"/>
+      <c r="I6" s="97"/>
+      <c r="J6" s="97"/>
+      <c r="K6" s="97"/>
     </row>
     <row r="7" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B7" s="89"/>
-      <c r="D7" s="107" t="s">
+      <c r="B7" s="91"/>
+      <c r="D7" s="109" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="108"/>
-      <c r="F7" s="108"/>
-      <c r="G7" s="96">
+      <c r="E7" s="110"/>
+      <c r="F7" s="110"/>
+      <c r="G7" s="98">
         <v>0.5</v>
       </c>
-      <c r="H7" s="96"/>
-      <c r="I7" s="96"/>
-      <c r="J7" s="96"/>
-      <c r="K7" s="97"/>
+      <c r="H7" s="98"/>
+      <c r="I7" s="98"/>
+      <c r="J7" s="98"/>
+      <c r="K7" s="99"/>
     </row>
     <row r="8" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="89"/>
-      <c r="D8" s="105" t="s">
+      <c r="B8" s="91"/>
+      <c r="D8" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="106"/>
-      <c r="F8" s="106"/>
-      <c r="G8" s="98">
+      <c r="E8" s="108"/>
+      <c r="F8" s="108"/>
+      <c r="G8" s="100">
         <f>1-G7</f>
         <v>0.5</v>
       </c>
-      <c r="H8" s="98"/>
-      <c r="I8" s="98"/>
-      <c r="J8" s="98"/>
-      <c r="K8" s="99"/>
+      <c r="H8" s="100"/>
+      <c r="I8" s="100"/>
+      <c r="J8" s="100"/>
+      <c r="K8" s="101"/>
       <c r="V8" s="4"/>
     </row>
     <row r="9" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="89"/>
+      <c r="B9" s="91"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
-      <c r="G9" s="100"/>
-      <c r="H9" s="100"/>
-      <c r="I9" s="100"/>
-      <c r="J9" s="100"/>
-      <c r="K9" s="100"/>
+      <c r="G9" s="102"/>
+      <c r="H9" s="102"/>
+      <c r="I9" s="102"/>
+      <c r="J9" s="102"/>
+      <c r="K9" s="102"/>
     </row>
     <row r="10" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B10" s="89"/>
-      <c r="D10" s="103" t="s">
+      <c r="B10" s="91"/>
+      <c r="D10" s="105" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="104"/>
-      <c r="F10" s="104"/>
-      <c r="G10" s="91">
-        <v>0</v>
-      </c>
-      <c r="H10" s="91"/>
-      <c r="I10" s="91"/>
-      <c r="J10" s="91"/>
-      <c r="K10" s="92"/>
+      <c r="E10" s="106"/>
+      <c r="F10" s="106"/>
+      <c r="G10" s="93">
+        <v>0</v>
+      </c>
+      <c r="H10" s="93"/>
+      <c r="I10" s="93"/>
+      <c r="J10" s="93"/>
+      <c r="K10" s="94"/>
     </row>
     <row r="11" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="89"/>
-      <c r="D11" s="101" t="s">
+      <c r="B11" s="91"/>
+      <c r="D11" s="103" t="s">
         <v>47</v>
       </c>
-      <c r="E11" s="102"/>
-      <c r="F11" s="102"/>
-      <c r="G11" s="87">
+      <c r="E11" s="104"/>
+      <c r="F11" s="104"/>
+      <c r="G11" s="89">
         <f ca="1">V44</f>
-        <v>3.2000000000000028E-2</v>
-      </c>
-      <c r="H11" s="87"/>
-      <c r="I11" s="87"/>
-      <c r="J11" s="87"/>
-      <c r="K11" s="88"/>
+        <v>0.1180000000000001</v>
+      </c>
+      <c r="H11" s="89"/>
+      <c r="I11" s="89"/>
+      <c r="J11" s="89"/>
+      <c r="K11" s="90"/>
     </row>
     <row r="12" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B12" s="89"/>
+      <c r="B12" s="91"/>
       <c r="D12" s="1"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -2073,12 +2073,12 @@
       <c r="F13" s="2"/>
     </row>
     <row r="14" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="90" t="s">
+      <c r="B14" s="92" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="15" spans="2:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="90"/>
+      <c r="B15" s="92"/>
       <c r="D15" s="20"/>
       <c r="E15" s="21"/>
       <c r="F15" s="21"/>
@@ -2091,13 +2091,13 @@
       <c r="I15" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="J15" s="85" t="s">
+      <c r="J15" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="K15" s="86"/>
+      <c r="K15" s="88"/>
     </row>
     <row r="16" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B16" s="90"/>
+      <c r="B16" s="92"/>
       <c r="D16" s="11"/>
       <c r="E16" s="12"/>
       <c r="F16" s="49" t="s">
@@ -2116,7 +2116,7 @@
       <c r="K16" s="13"/>
     </row>
     <row r="17" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B17" s="90"/>
+      <c r="B17" s="92"/>
       <c r="D17" s="11"/>
       <c r="E17" s="12"/>
       <c r="F17" s="49" t="s">
@@ -2135,7 +2135,7 @@
       <c r="K17" s="13"/>
     </row>
     <row r="18" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="90"/>
+      <c r="B18" s="92"/>
       <c r="D18" s="11"/>
       <c r="E18" s="51" t="s">
         <v>51</v>
@@ -2150,7 +2150,7 @@
       <c r="K18" s="13"/>
     </row>
     <row r="19" spans="2:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="90"/>
+      <c r="B19" s="92"/>
       <c r="C19" s="56">
         <v>1</v>
       </c>
@@ -2164,17 +2164,17 @@
         <v>96</v>
       </c>
       <c r="G19" s="27">
-        <v>0.35</v>
+        <v>0.4</v>
       </c>
       <c r="H19" s="27">
-        <v>0.35</v>
+        <v>0.4</v>
       </c>
       <c r="I19" s="27">
-        <v>0.35</v>
+        <v>0.4</v>
       </c>
       <c r="J19" s="58" t="str">
         <f>IF(V19&gt;0,"- "&amp;TEXT(V19*100,"0.0")&amp;"%",IF(Z19&gt;0,"+ "&amp;TEXT(Z19*100,"0.0")&amp;"%",""))</f>
-        <v>- 0.3%</v>
+        <v>- 1.2%</v>
       </c>
       <c r="K19" s="15">
         <f ca="1">AA19</f>
@@ -2187,7 +2187,7 @@
       </c>
       <c r="N19" s="48">
         <f t="array" ref="N19">SUM(G19:I19/$G$17:$I$17*$G$16:$I$16)</f>
-        <v>0.35</v>
+        <v>0.40000000000000008</v>
       </c>
       <c r="O19" s="48">
         <f>1/$M$49</f>
@@ -2195,7 +2195,7 @@
       </c>
       <c r="P19" s="4">
         <f>N19/O19</f>
-        <v>1.4</v>
+        <v>1.6000000000000003</v>
       </c>
       <c r="Q19" s="4">
         <f>$G$5</f>
@@ -2207,11 +2207,11 @@
       </c>
       <c r="S19" s="4">
         <f>P19*Q19*$G$8</f>
-        <v>0.60199999999999998</v>
+        <v>0.68800000000000017</v>
       </c>
       <c r="T19" s="4">
         <f>SUM(R19:S19)</f>
-        <v>1.032</v>
+        <v>1.1180000000000001</v>
       </c>
       <c r="U19" s="4">
         <f>MIN(1,T19)</f>
@@ -2219,7 +2219,7 @@
       </c>
       <c r="V19" s="4">
         <f>T19-U19</f>
-        <v>3.2000000000000028E-2</v>
+        <v>0.1180000000000001</v>
       </c>
       <c r="W19" s="4">
         <f>1-U19</f>
@@ -2243,7 +2243,7 @@
       </c>
     </row>
     <row r="20" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B20" s="90"/>
+      <c r="B20" s="92"/>
       <c r="C20" s="56">
         <v>2</v>
       </c>
@@ -2255,13 +2255,13 @@
         <v>97</v>
       </c>
       <c r="G20" s="28">
-        <v>0.3</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="H20" s="28">
-        <v>0.3</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="I20" s="28">
-        <v>0.3</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="J20" s="59" t="str">
         <f t="shared" ref="J20:J43" ca="1" si="1">IF(V20&gt;0,"- "&amp;TEXT(V20*100,"0.0")&amp;"%",IF(Z20&gt;0,"+ "&amp;TEXT(Z20*100,"0.0")&amp;"%",""))</f>
@@ -2269,7 +2269,7 @@
       </c>
       <c r="K20" s="17">
         <f t="shared" ref="K20:K43" ca="1" si="2">AA20</f>
-        <v>0.94599999999999995</v>
+        <v>0.90300000000000002</v>
       </c>
       <c r="L20" s="32"/>
       <c r="M20" s="44">
@@ -2278,7 +2278,7 @@
       </c>
       <c r="N20" s="48">
         <f t="array" ref="N20">SUM(G20:I20/$G$17:$I$17*$G$16:$I$16)</f>
-        <v>0.3</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="O20" s="48">
         <f>1/$M$49</f>
@@ -2286,7 +2286,7 @@
       </c>
       <c r="P20" s="4">
         <f>N20/O20</f>
-        <v>1.2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="Q20" s="4">
         <f>$G$5</f>
@@ -2298,15 +2298,15 @@
       </c>
       <c r="S20" s="4">
         <f>P20*Q20*$G$8</f>
-        <v>0.51600000000000001</v>
+        <v>0.47300000000000003</v>
       </c>
       <c r="T20" s="4">
         <f t="shared" ref="T20:T22" si="3">SUM(R20:S20)</f>
-        <v>0.94599999999999995</v>
+        <v>0.90300000000000002</v>
       </c>
       <c r="U20" s="4">
         <f>MIN(1,T20)</f>
-        <v>0.94599999999999995</v>
+        <v>0.90300000000000002</v>
       </c>
       <c r="V20" s="4">
         <f t="shared" ref="V20:V22" si="4">T20-U20</f>
@@ -2314,15 +2314,15 @@
       </c>
       <c r="W20" s="4">
         <f>1-U20</f>
-        <v>5.4000000000000048E-2</v>
+        <v>9.6999999999999975E-2</v>
       </c>
       <c r="X20" s="4">
         <f ca="1">W20/$W$44</f>
-        <v>9.1216216216216284E-2</v>
+        <v>0.14306784660766958</v>
       </c>
       <c r="Y20" s="4">
         <f ca="1">X20*$V$44</f>
-        <v>2.9189189189189235E-3</v>
+        <v>1.6882005899705024E-2</v>
       </c>
       <c r="Z20" s="4">
         <f t="shared" ref="Z20:Z22" ca="1" si="5">Y20*$G$10</f>
@@ -2330,11 +2330,11 @@
       </c>
       <c r="AA20" s="4">
         <f ca="1">U20+Z20</f>
-        <v>0.94599999999999995</v>
+        <v>0.90300000000000002</v>
       </c>
     </row>
     <row r="21" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B21" s="90"/>
+      <c r="B21" s="92"/>
       <c r="C21" s="56">
         <v>3</v>
       </c>
@@ -2346,13 +2346,13 @@
         <v>98</v>
       </c>
       <c r="G21" s="28">
-        <v>0.3</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="H21" s="28">
-        <v>0.3</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="I21" s="28">
-        <v>0.3</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="J21" s="59" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -2360,7 +2360,7 @@
       </c>
       <c r="K21" s="17">
         <f t="shared" ca="1" si="2"/>
-        <v>0.94599999999999995</v>
+        <v>0.90300000000000002</v>
       </c>
       <c r="L21" s="32"/>
       <c r="M21" s="44">
@@ -2369,7 +2369,7 @@
       </c>
       <c r="N21" s="48">
         <f t="array" ref="N21">SUM(G21:I21/$G$17:$I$17*$G$16:$I$16)</f>
-        <v>0.3</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="O21" s="48">
         <f>1/$M$49</f>
@@ -2377,7 +2377,7 @@
       </c>
       <c r="P21" s="4">
         <f>N21/O21</f>
-        <v>1.2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="Q21" s="4">
         <f>$G$5</f>
@@ -2389,15 +2389,15 @@
       </c>
       <c r="S21" s="4">
         <f>P21*Q21*$G$8</f>
-        <v>0.51600000000000001</v>
+        <v>0.47300000000000003</v>
       </c>
       <c r="T21" s="4">
         <f t="shared" si="3"/>
-        <v>0.94599999999999995</v>
+        <v>0.90300000000000002</v>
       </c>
       <c r="U21" s="4">
         <f>MIN(1,T21)</f>
-        <v>0.94599999999999995</v>
+        <v>0.90300000000000002</v>
       </c>
       <c r="V21" s="4">
         <f t="shared" si="4"/>
@@ -2405,15 +2405,15 @@
       </c>
       <c r="W21" s="4">
         <f>1-U21</f>
-        <v>5.4000000000000048E-2</v>
+        <v>9.6999999999999975E-2</v>
       </c>
       <c r="X21" s="4">
         <f ca="1">W21/$W$44</f>
-        <v>9.1216216216216284E-2</v>
+        <v>0.14306784660766958</v>
       </c>
       <c r="Y21" s="4">
         <f ca="1">X21*$V$44</f>
-        <v>2.9189189189189235E-3</v>
+        <v>1.6882005899705024E-2</v>
       </c>
       <c r="Z21" s="4">
         <f t="shared" ca="1" si="5"/>
@@ -2421,11 +2421,11 @@
       </c>
       <c r="AA21" s="4">
         <f ca="1">U21+Z21</f>
-        <v>0.94599999999999995</v>
+        <v>0.90300000000000002</v>
       </c>
     </row>
     <row r="22" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B22" s="90"/>
+      <c r="B22" s="92"/>
       <c r="C22" s="56">
         <v>4</v>
       </c>
@@ -2500,11 +2500,11 @@
       </c>
       <c r="X22" s="4">
         <f ca="1">W22/$W$44</f>
-        <v>0.81756756756756743</v>
+        <v>0.71386430678466084</v>
       </c>
       <c r="Y22" s="4">
         <f ca="1">X22*$V$44</f>
-        <v>2.6162162162162182E-2</v>
+        <v>8.4235988200590056E-2</v>
       </c>
       <c r="Z22" s="4">
         <f t="shared" ca="1" si="5"/>
@@ -2516,7 +2516,7 @@
       </c>
     </row>
     <row r="23" spans="2:27" s="65" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="90"/>
+      <c r="B23" s="92"/>
       <c r="C23" s="56">
         <v>5</v>
       </c>
@@ -2583,11 +2583,11 @@
       </c>
       <c r="X23" s="4">
         <f t="shared" ref="X23:X43" ca="1" si="15">W23/$W$44</f>
-        <v>0.96283783783783783</v>
+        <v>0.84070796460177011</v>
       </c>
       <c r="Y23" s="4">
         <f t="shared" ref="Y23:Y43" ca="1" si="16">X23*$V$44</f>
-        <v>3.081081081081084E-2</v>
+        <v>9.920353982300896E-2</v>
       </c>
       <c r="Z23" s="4">
         <f t="shared" ref="Z23:Z43" ca="1" si="17">Y23*$G$10</f>
@@ -2599,7 +2599,7 @@
       </c>
     </row>
     <row r="24" spans="2:27" s="65" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="90"/>
+      <c r="B24" s="92"/>
       <c r="C24" s="56">
         <v>6</v>
       </c>
@@ -2666,11 +2666,11 @@
       </c>
       <c r="X24" s="4">
         <f t="shared" ca="1" si="15"/>
-        <v>0.96283783783783783</v>
+        <v>0.84070796460177011</v>
       </c>
       <c r="Y24" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>3.081081081081084E-2</v>
+        <v>9.920353982300896E-2</v>
       </c>
       <c r="Z24" s="4">
         <f t="shared" ca="1" si="17"/>
@@ -2682,7 +2682,7 @@
       </c>
     </row>
     <row r="25" spans="2:27" s="65" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="90"/>
+      <c r="B25" s="92"/>
       <c r="C25" s="56">
         <v>7</v>
       </c>
@@ -2749,11 +2749,11 @@
       </c>
       <c r="X25" s="4">
         <f t="shared" ca="1" si="15"/>
-        <v>0.96283783783783783</v>
+        <v>0.84070796460177011</v>
       </c>
       <c r="Y25" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>3.081081081081084E-2</v>
+        <v>9.920353982300896E-2</v>
       </c>
       <c r="Z25" s="4">
         <f t="shared" ca="1" si="17"/>
@@ -2765,7 +2765,7 @@
       </c>
     </row>
     <row r="26" spans="2:27" s="65" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="90"/>
+      <c r="B26" s="92"/>
       <c r="C26" s="56">
         <v>8</v>
       </c>
@@ -2832,11 +2832,11 @@
       </c>
       <c r="X26" s="4">
         <f t="shared" ca="1" si="15"/>
-        <v>0.96283783783783783</v>
+        <v>0.84070796460177011</v>
       </c>
       <c r="Y26" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>3.081081081081084E-2</v>
+        <v>9.920353982300896E-2</v>
       </c>
       <c r="Z26" s="4">
         <f t="shared" ca="1" si="17"/>
@@ -2848,7 +2848,7 @@
       </c>
     </row>
     <row r="27" spans="2:27" s="65" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="90"/>
+      <c r="B27" s="92"/>
       <c r="C27" s="56">
         <v>9</v>
       </c>
@@ -2915,11 +2915,11 @@
       </c>
       <c r="X27" s="4">
         <f t="shared" ca="1" si="15"/>
-        <v>0.96283783783783783</v>
+        <v>0.84070796460177011</v>
       </c>
       <c r="Y27" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>3.081081081081084E-2</v>
+        <v>9.920353982300896E-2</v>
       </c>
       <c r="Z27" s="4">
         <f t="shared" ca="1" si="17"/>
@@ -2931,7 +2931,7 @@
       </c>
     </row>
     <row r="28" spans="2:27" s="65" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="90"/>
+      <c r="B28" s="92"/>
       <c r="C28" s="56">
         <v>10</v>
       </c>
@@ -2998,11 +2998,11 @@
       </c>
       <c r="X28" s="4">
         <f t="shared" ca="1" si="15"/>
-        <v>0.96283783783783783</v>
+        <v>0.84070796460177011</v>
       </c>
       <c r="Y28" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>3.081081081081084E-2</v>
+        <v>9.920353982300896E-2</v>
       </c>
       <c r="Z28" s="4">
         <f t="shared" ca="1" si="17"/>
@@ -3014,7 +3014,7 @@
       </c>
     </row>
     <row r="29" spans="2:27" s="65" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="90"/>
+      <c r="B29" s="92"/>
       <c r="C29" s="56">
         <v>11</v>
       </c>
@@ -3081,11 +3081,11 @@
       </c>
       <c r="X29" s="4">
         <f t="shared" ca="1" si="15"/>
-        <v>0.96283783783783783</v>
+        <v>0.84070796460177011</v>
       </c>
       <c r="Y29" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>3.081081081081084E-2</v>
+        <v>9.920353982300896E-2</v>
       </c>
       <c r="Z29" s="4">
         <f t="shared" ca="1" si="17"/>
@@ -3097,7 +3097,7 @@
       </c>
     </row>
     <row r="30" spans="2:27" s="65" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="90"/>
+      <c r="B30" s="92"/>
       <c r="C30" s="56">
         <v>12</v>
       </c>
@@ -3164,11 +3164,11 @@
       </c>
       <c r="X30" s="4">
         <f t="shared" ca="1" si="15"/>
-        <v>0.96283783783783783</v>
+        <v>0.84070796460177011</v>
       </c>
       <c r="Y30" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>3.081081081081084E-2</v>
+        <v>9.920353982300896E-2</v>
       </c>
       <c r="Z30" s="4">
         <f t="shared" ca="1" si="17"/>
@@ -3180,7 +3180,7 @@
       </c>
     </row>
     <row r="31" spans="2:27" s="65" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="90"/>
+      <c r="B31" s="92"/>
       <c r="C31" s="56">
         <v>13</v>
       </c>
@@ -3247,11 +3247,11 @@
       </c>
       <c r="X31" s="4">
         <f t="shared" ca="1" si="15"/>
-        <v>0.96283783783783783</v>
+        <v>0.84070796460177011</v>
       </c>
       <c r="Y31" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>3.081081081081084E-2</v>
+        <v>9.920353982300896E-2</v>
       </c>
       <c r="Z31" s="4">
         <f t="shared" ca="1" si="17"/>
@@ -3263,7 +3263,7 @@
       </c>
     </row>
     <row r="32" spans="2:27" s="65" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="90"/>
+      <c r="B32" s="92"/>
       <c r="C32" s="56">
         <v>14</v>
       </c>
@@ -3330,11 +3330,11 @@
       </c>
       <c r="X32" s="4">
         <f t="shared" ca="1" si="15"/>
-        <v>0.96283783783783783</v>
+        <v>0.84070796460177011</v>
       </c>
       <c r="Y32" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>3.081081081081084E-2</v>
+        <v>9.920353982300896E-2</v>
       </c>
       <c r="Z32" s="4">
         <f t="shared" ca="1" si="17"/>
@@ -3346,7 +3346,7 @@
       </c>
     </row>
     <row r="33" spans="2:27" s="65" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="90"/>
+      <c r="B33" s="92"/>
       <c r="C33" s="56">
         <v>15</v>
       </c>
@@ -3413,11 +3413,11 @@
       </c>
       <c r="X33" s="4">
         <f t="shared" ca="1" si="15"/>
-        <v>0.96283783783783783</v>
+        <v>0.84070796460177011</v>
       </c>
       <c r="Y33" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>3.081081081081084E-2</v>
+        <v>9.920353982300896E-2</v>
       </c>
       <c r="Z33" s="4">
         <f t="shared" ca="1" si="17"/>
@@ -3429,7 +3429,7 @@
       </c>
     </row>
     <row r="34" spans="2:27" s="65" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="90"/>
+      <c r="B34" s="92"/>
       <c r="C34" s="56">
         <v>16</v>
       </c>
@@ -3496,11 +3496,11 @@
       </c>
       <c r="X34" s="4">
         <f t="shared" ca="1" si="15"/>
-        <v>0.96283783783783783</v>
+        <v>0.84070796460177011</v>
       </c>
       <c r="Y34" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>3.081081081081084E-2</v>
+        <v>9.920353982300896E-2</v>
       </c>
       <c r="Z34" s="4">
         <f t="shared" ca="1" si="17"/>
@@ -3512,7 +3512,7 @@
       </c>
     </row>
     <row r="35" spans="2:27" s="65" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="90"/>
+      <c r="B35" s="92"/>
       <c r="C35" s="56">
         <v>17</v>
       </c>
@@ -3579,11 +3579,11 @@
       </c>
       <c r="X35" s="4">
         <f t="shared" ca="1" si="15"/>
-        <v>0.96283783783783783</v>
+        <v>0.84070796460177011</v>
       </c>
       <c r="Y35" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>3.081081081081084E-2</v>
+        <v>9.920353982300896E-2</v>
       </c>
       <c r="Z35" s="4">
         <f t="shared" ca="1" si="17"/>
@@ -3595,7 +3595,7 @@
       </c>
     </row>
     <row r="36" spans="2:27" s="65" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="90"/>
+      <c r="B36" s="92"/>
       <c r="C36" s="56">
         <v>18</v>
       </c>
@@ -3662,11 +3662,11 @@
       </c>
       <c r="X36" s="4">
         <f t="shared" ca="1" si="15"/>
-        <v>0.96283783783783783</v>
+        <v>0.84070796460177011</v>
       </c>
       <c r="Y36" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>3.081081081081084E-2</v>
+        <v>9.920353982300896E-2</v>
       </c>
       <c r="Z36" s="4">
         <f t="shared" ca="1" si="17"/>
@@ -3678,7 +3678,7 @@
       </c>
     </row>
     <row r="37" spans="2:27" s="65" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="90"/>
+      <c r="B37" s="92"/>
       <c r="C37" s="56">
         <v>19</v>
       </c>
@@ -3745,11 +3745,11 @@
       </c>
       <c r="X37" s="4">
         <f t="shared" ca="1" si="15"/>
-        <v>0.96283783783783783</v>
+        <v>0.84070796460177011</v>
       </c>
       <c r="Y37" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>3.081081081081084E-2</v>
+        <v>9.920353982300896E-2</v>
       </c>
       <c r="Z37" s="4">
         <f t="shared" ca="1" si="17"/>
@@ -3761,7 +3761,7 @@
       </c>
     </row>
     <row r="38" spans="2:27" s="65" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="90"/>
+      <c r="B38" s="92"/>
       <c r="C38" s="56">
         <v>20</v>
       </c>
@@ -3828,11 +3828,11 @@
       </c>
       <c r="X38" s="4">
         <f t="shared" ca="1" si="15"/>
-        <v>0.96283783783783783</v>
+        <v>0.84070796460177011</v>
       </c>
       <c r="Y38" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>3.081081081081084E-2</v>
+        <v>9.920353982300896E-2</v>
       </c>
       <c r="Z38" s="4">
         <f t="shared" ca="1" si="17"/>
@@ -3844,7 +3844,7 @@
       </c>
     </row>
     <row r="39" spans="2:27" s="65" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="90"/>
+      <c r="B39" s="92"/>
       <c r="C39" s="56">
         <v>21</v>
       </c>
@@ -3911,11 +3911,11 @@
       </c>
       <c r="X39" s="4">
         <f t="shared" ca="1" si="15"/>
-        <v>0.96283783783783783</v>
+        <v>0.84070796460177011</v>
       </c>
       <c r="Y39" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>3.081081081081084E-2</v>
+        <v>9.920353982300896E-2</v>
       </c>
       <c r="Z39" s="4">
         <f t="shared" ca="1" si="17"/>
@@ -3927,7 +3927,7 @@
       </c>
     </row>
     <row r="40" spans="2:27" s="65" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="90"/>
+      <c r="B40" s="92"/>
       <c r="C40" s="56">
         <v>22</v>
       </c>
@@ -3994,11 +3994,11 @@
       </c>
       <c r="X40" s="4">
         <f t="shared" ca="1" si="15"/>
-        <v>0.96283783783783783</v>
+        <v>0.84070796460177011</v>
       </c>
       <c r="Y40" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>3.081081081081084E-2</v>
+        <v>9.920353982300896E-2</v>
       </c>
       <c r="Z40" s="4">
         <f t="shared" ca="1" si="17"/>
@@ -4010,7 +4010,7 @@
       </c>
     </row>
     <row r="41" spans="2:27" s="65" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="90"/>
+      <c r="B41" s="92"/>
       <c r="C41" s="56">
         <v>23</v>
       </c>
@@ -4077,11 +4077,11 @@
       </c>
       <c r="X41" s="4">
         <f t="shared" ca="1" si="15"/>
-        <v>0.96283783783783783</v>
+        <v>0.84070796460177011</v>
       </c>
       <c r="Y41" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>3.081081081081084E-2</v>
+        <v>9.920353982300896E-2</v>
       </c>
       <c r="Z41" s="4">
         <f t="shared" ca="1" si="17"/>
@@ -4093,7 +4093,7 @@
       </c>
     </row>
     <row r="42" spans="2:27" s="65" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="90"/>
+      <c r="B42" s="92"/>
       <c r="C42" s="56">
         <v>24</v>
       </c>
@@ -4160,11 +4160,11 @@
       </c>
       <c r="X42" s="4">
         <f t="shared" ca="1" si="15"/>
-        <v>0.96283783783783783</v>
+        <v>0.84070796460177011</v>
       </c>
       <c r="Y42" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>3.081081081081084E-2</v>
+        <v>9.920353982300896E-2</v>
       </c>
       <c r="Z42" s="4">
         <f t="shared" ca="1" si="17"/>
@@ -4176,7 +4176,7 @@
       </c>
     </row>
     <row r="43" spans="2:27" s="65" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="90"/>
+      <c r="B43" s="92"/>
       <c r="C43" s="56">
         <v>25</v>
       </c>
@@ -4243,11 +4243,11 @@
       </c>
       <c r="X43" s="4">
         <f t="shared" ca="1" si="15"/>
-        <v>0.96283783783783783</v>
+        <v>0.84070796460177011</v>
       </c>
       <c r="Y43" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>3.081081081081084E-2</v>
+        <v>9.920353982300896E-2</v>
       </c>
       <c r="Z43" s="4">
         <f t="shared" ca="1" si="17"/>
@@ -4259,7 +4259,7 @@
       </c>
     </row>
     <row r="44" spans="2:27" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="90"/>
+      <c r="B44" s="92"/>
       <c r="D44" s="18"/>
       <c r="E44" s="9"/>
       <c r="F44" s="9"/>
@@ -4278,7 +4278,7 @@
       <c r="J44" s="10"/>
       <c r="K44" s="19">
         <f ca="1">AVERAGE(OFFSET(K19, 0, 0, $G$3, 1))</f>
-        <v>0.85199999999999998</v>
+        <v>0.83050000000000002</v>
       </c>
       <c r="L44" s="32"/>
       <c r="M44" s="5" t="s">
@@ -4300,17 +4300,17 @@
       <c r="U44" s="4"/>
       <c r="V44" s="4">
         <f ca="1">SUM(OFFSET(V19, 0, 0, $G$3, 1))</f>
-        <v>3.2000000000000028E-2</v>
+        <v>0.1180000000000001</v>
       </c>
       <c r="W44" s="4">
         <f ca="1">SUM(OFFSET(W19, 0, 0, $G$3, 1))</f>
-        <v>0.59200000000000008</v>
+        <v>0.67799999999999994</v>
       </c>
       <c r="X44" s="2"/>
       <c r="Y44" s="2"/>
     </row>
     <row r="45" spans="2:27" s="6" customFormat="1" ht="14.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="90"/>
+      <c r="B45" s="92"/>
       <c r="G45" s="52"/>
       <c r="H45" s="35"/>
       <c r="I45" s="35"/>
@@ -4336,7 +4336,7 @@
       </c>
       <c r="S45" s="4">
         <f t="shared" si="20"/>
-        <v>0.43</v>
+        <v>0.4300000000000001</v>
       </c>
       <c r="T45" s="4">
         <f>AVERAGE(T19:T22)</f>
@@ -4344,7 +4344,7 @@
       </c>
       <c r="U45" s="4">
         <f>AVERAGE(U19:U22)</f>
-        <v>0.85199999999999998</v>
+        <v>0.83050000000000002</v>
       </c>
       <c r="V45" s="4"/>
       <c r="W45" s="2"/>
@@ -4955,6 +4955,7 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="d2wj9CCEuGw4Mg6otQpiYDLe9ScqX7RqQ3VxEP8wAjD/h08OAkcxvAV0OuVlGLs0lDzKZe11zE9KnrJqQ3HHBQ==" saltValue="cDUUGHebzs7qC23bO1RmFA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="17">
+    <mergeCell ref="D3:F3"/>
     <mergeCell ref="G3:K3"/>
     <mergeCell ref="J15:K15"/>
     <mergeCell ref="G11:K11"/>
@@ -4971,7 +4972,6 @@
     <mergeCell ref="D8:F8"/>
     <mergeCell ref="D7:F7"/>
     <mergeCell ref="D5:F5"/>
-    <mergeCell ref="D3:F3"/>
   </mergeCells>
   <conditionalFormatting sqref="G16:J16">
     <cfRule type="expression" dxfId="3" priority="4">
